--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>Src</t>
   </si>
@@ -73,6 +73,9 @@
     <t>3*</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Int To Roman</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t>1*</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Is Anagram</t>
   </si>
   <si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Amex, Wayfair, Yandex</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
     <col min="1" max="1" style="13" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="13" width="28.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="25.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="8.290714285714287" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="15" width="8.290714285714287" customWidth="1" bestFit="1"/>
@@ -714,14 +723,16 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -746,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -768,10 +779,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>15</v>
@@ -796,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
@@ -823,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
@@ -832,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="10">
@@ -848,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
@@ -871,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>14</v>
@@ -894,16 +905,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -911,7 +922,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -928,7 +939,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -940,17 +951,29 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -985,7 +985,9 @@
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Src</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Valid Parentheses</t>
   </si>
   <si>
+    <t>Adobe, Amazon, Arista Networks, Barclays, Bloomberg, Booking, Cisco, Dataminr, Expedia, Intel, Linkedin, Microsoft, Netflix, Oracle, ServiceNow, Spotify, VMware, Yandex, tcs</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
@@ -109,13 +112,13 @@
     <t>Adobe</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
     <t>Is Anagram</t>
   </si>
   <si>
     <t>Affirm, Spotify</t>
+  </si>
+  <si>
+    <t>1*</t>
   </si>
   <si>
     <t>No</t>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -240,9 +240,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -581,17 +578,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="5.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -760,10 +757,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -776,10 +773,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -804,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
@@ -831,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
@@ -840,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -856,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
@@ -879,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
@@ -902,16 +899,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -936,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -944,7 +941,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -952,16 +949,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -969,7 +966,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -977,15 +974,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="3"/>
@@ -993,15 +990,15 @@
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1014,9 +1011,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1029,9 +1024,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1044,9 +1037,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>Src</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snapshot Array </t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <cols>
     <col min="1" max="1" style="10" width="5.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="31.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="12" width="8.290714285714287" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
@@ -995,11 +1001,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Src</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Google, Rubrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search </t>
   </si>
 </sst>
 </file>
@@ -1010,11 +1016,15 @@
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -1022,10 +1032,18 @@
       <c r="K16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Src</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>J Ex1</t>
+  </si>
+  <si>
+    <t>T Complexity</t>
+  </si>
+  <si>
+    <t>S Complexity</t>
   </si>
   <si>
     <t>Ideal Solution</t>
@@ -149,6 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve">Binary Search </t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Intuit, Yandex</t>
+  </si>
+  <si>
+    <t>https://medium.com/analytics-vidhya/reverse-linkedlist-day-6-python-6561d068cb0</t>
   </si>
 </sst>
 </file>
@@ -277,9 +292,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:K2"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:M2"/>
+  <tableColumns count="13">
     <tableColumn name="Src" id="1" totalsRowLabel="Total"/>
     <tableColumn name="Name" id="2"/>
     <tableColumn name="Level" id="3"/>
@@ -290,7 +305,9 @@
     <tableColumn name="JS Lucid" id="8"/>
     <tableColumn name="P Ex" id="9"/>
     <tableColumn name="J Ex1" id="10"/>
-    <tableColumn name="Ideal Solution" id="11"/>
+    <tableColumn name="T Complexity" id="11"/>
+    <tableColumn name="S Complexity" id="12"/>
+    <tableColumn name="Ideal Solution" id="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -584,7 +601,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -600,7 +617,9 @@
     <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="9.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -637,6 +656,12 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -667,24 +692,26 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
@@ -700,23 +727,25 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -729,22 +758,24 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -757,19 +788,21 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
@@ -782,19 +815,21 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -807,19 +842,21 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
@@ -834,22 +871,24 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -859,19 +898,21 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -882,19 +923,21 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -905,94 +948,102 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6" t="s">
-        <v>19</v>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="6" t="s">
-        <v>35</v>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="6" t="s">
-        <v>38</v>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -1002,22 +1053,24 @@
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="6" t="s">
-        <v>38</v>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1030,40 +1083,60 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
@@ -1077,6 +1150,8 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
@@ -1090,6 +1165,8 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
@@ -1103,6 +1180,8 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
@@ -1116,6 +1195,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
@@ -1129,6 +1210,8 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
@@ -1142,6 +1225,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
@@ -1155,6 +1240,8 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
@@ -1168,6 +1255,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
@@ -1181,6 +1270,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
@@ -1194,6 +1285,8 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
@@ -1207,6 +1300,8 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="1"/>
@@ -1220,6 +1315,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="1"/>
@@ -1233,6 +1330,8 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="1"/>
@@ -1246,6 +1345,8 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="1"/>
@@ -1259,6 +1360,8 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="1"/>
@@ -1272,6 +1375,8 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1"/>
@@ -1285,6 +1390,8 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="1"/>
@@ -1298,6 +1405,8 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="1"/>
@@ -1311,6 +1420,8 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="1"/>
@@ -1324,6 +1435,8 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="1"/>
@@ -1337,6 +1450,8 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1"/>
@@ -1350,6 +1465,8 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1"/>
@@ -1363,6 +1480,8 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1"/>
@@ -1376,6 +1495,8 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1"/>
@@ -1389,6 +1510,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1"/>
@@ -1402,6 +1525,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1"/>
@@ -1415,6 +1540,8 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1"/>
@@ -1428,6 +1555,8 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1"/>
@@ -1441,6 +1570,8 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1"/>
@@ -1454,6 +1585,8 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1"/>
@@ -1467,6 +1600,8 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1"/>
@@ -1480,6 +1615,8 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1"/>
@@ -1493,6 +1630,8 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1"/>
@@ -1506,6 +1645,8 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1"/>
@@ -1519,6 +1660,8 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1"/>
@@ -1532,6 +1675,8 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1"/>
@@ -1545,6 +1690,8 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1"/>
@@ -1558,6 +1705,8 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1"/>
@@ -1571,6 +1720,8 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1"/>
@@ -1584,6 +1735,8 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1"/>
@@ -1597,6 +1750,8 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1"/>
@@ -1610,6 +1765,8 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1"/>
@@ -1623,6 +1780,8 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1"/>
@@ -1636,6 +1795,8 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1"/>
@@ -1649,6 +1810,8 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1"/>
@@ -1662,6 +1825,8 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1"/>
@@ -1675,6 +1840,8 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1"/>
@@ -1688,6 +1855,8 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1"/>
@@ -1701,6 +1870,8 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1"/>
@@ -1714,6 +1885,8 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1"/>
@@ -1727,6 +1900,8 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1"/>
@@ -1740,6 +1915,8 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1"/>
@@ -1753,6 +1930,8 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1"/>
@@ -1766,6 +1945,8 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1"/>
@@ -1779,6 +1960,8 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1"/>
@@ -1792,6 +1975,8 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1"/>
@@ -1805,6 +1990,8 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1"/>
@@ -1818,6 +2005,8 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1"/>
@@ -1831,6 +2020,8 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1"/>
@@ -1844,6 +2035,8 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1"/>
@@ -1857,6 +2050,8 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1"/>
@@ -1870,6 +2065,8 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1"/>
@@ -1883,6 +2080,8 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1"/>
@@ -1896,6 +2095,8 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1"/>
@@ -1909,6 +2110,8 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1"/>
@@ -1922,6 +2125,8 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1"/>
@@ -1935,6 +2140,8 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1"/>
@@ -1948,6 +2155,8 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1"/>
@@ -1961,6 +2170,8 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1"/>
@@ -1974,6 +2185,8 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1"/>
@@ -1987,6 +2200,8 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1"/>
@@ -2000,6 +2215,8 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1"/>
@@ -2013,6 +2230,8 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1"/>
@@ -2026,6 +2245,8 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1"/>
@@ -2039,6 +2260,8 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1"/>
@@ -2052,6 +2275,8 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1"/>
@@ -2065,6 +2290,8 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1"/>
@@ -2078,6 +2305,8 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1"/>
@@ -2091,6 +2320,8 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1"/>
@@ -2104,6 +2335,8 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1"/>
@@ -2117,6 +2350,8 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1"/>
@@ -2130,6 +2365,8 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1"/>
@@ -2143,6 +2380,8 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1"/>
@@ -2156,6 +2395,8 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1"/>
@@ -2169,6 +2410,8 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1"/>
@@ -2182,6 +2425,8 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1"/>
@@ -2195,6 +2440,8 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1"/>
@@ -2208,6 +2455,8 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1"/>
@@ -2221,6 +2470,8 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1"/>
@@ -2234,6 +2485,8 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1"/>
@@ -2247,6 +2500,8 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1"/>
@@ -2260,6 +2515,8 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1"/>
@@ -2273,6 +2530,8 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1"/>
@@ -2286,6 +2545,8 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1"/>
@@ -2299,6 +2560,8 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1"/>
@@ -2312,6 +2575,8 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1"/>
@@ -2325,6 +2590,8 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1"/>
@@ -2338,6 +2605,8 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1"/>
@@ -2351,6 +2620,8 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1"/>
@@ -2364,6 +2635,8 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1"/>
@@ -2377,6 +2650,8 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1"/>
@@ -2390,6 +2665,8 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1"/>
@@ -2403,6 +2680,8 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1"/>
@@ -2416,6 +2695,8 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1"/>
@@ -2429,6 +2710,8 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1"/>
@@ -2442,6 +2725,8 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1"/>
@@ -2455,6 +2740,8 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1"/>
@@ -2468,6 +2755,8 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1"/>
@@ -2481,6 +2770,8 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1"/>
@@ -2494,6 +2785,8 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1"/>
@@ -2507,6 +2800,8 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1"/>
@@ -2520,6 +2815,8 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1"/>
@@ -2533,6 +2830,8 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1"/>
@@ -2546,6 +2845,8 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1"/>
@@ -2559,6 +2860,8 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1"/>
@@ -2572,6 +2875,8 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1"/>
@@ -2585,6 +2890,8 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1"/>
@@ -2598,6 +2905,8 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1"/>
@@ -2611,6 +2920,8 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1"/>
@@ -2624,6 +2935,8 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1"/>
@@ -2637,6 +2950,8 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1"/>
@@ -2650,6 +2965,8 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1"/>
@@ -2663,6 +2980,8 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1"/>
@@ -2676,6 +2995,8 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1"/>
@@ -2689,6 +3010,8 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1"/>
@@ -2702,6 +3025,8 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1"/>
@@ -2715,6 +3040,8 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1"/>
@@ -2728,6 +3055,8 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1"/>
@@ -2741,6 +3070,8 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1"/>
@@ -2754,6 +3085,8 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="1"/>
@@ -2767,6 +3100,8 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="1"/>
@@ -2780,6 +3115,8 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="1"/>
@@ -2793,6 +3130,8 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="1"/>
@@ -2806,6 +3145,8 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="1"/>
@@ -2819,6 +3160,8 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="1"/>
@@ -2832,6 +3175,8 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="1"/>
@@ -2845,6 +3190,8 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="1"/>
@@ -2858,6 +3205,8 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="1"/>
@@ -2871,6 +3220,8 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="1"/>
@@ -2884,6 +3235,8 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="1"/>
@@ -2897,6 +3250,8 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="1"/>
@@ -2910,6 +3265,8 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="1"/>
@@ -2923,6 +3280,8 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="1"/>
@@ -2936,6 +3295,8 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="1"/>
@@ -2949,6 +3310,8 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="1"/>
@@ -2962,6 +3325,8 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="1"/>
@@ -2975,6 +3340,8 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="1"/>
@@ -2988,6 +3355,8 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="1"/>
@@ -3001,6 +3370,8 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="1"/>
@@ -3014,6 +3385,8 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="1"/>
@@ -3027,6 +3400,8 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="1"/>
@@ -3040,6 +3415,8 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="1"/>
@@ -3053,6 +3430,8 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="1"/>
@@ -3066,6 +3445,8 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="1"/>
@@ -3079,6 +3460,8 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="1"/>
@@ -3092,6 +3475,8 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="1"/>
@@ -3105,6 +3490,8 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="1"/>
@@ -3118,6 +3505,8 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="1"/>
@@ -3131,6 +3520,8 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="1"/>
@@ -3144,6 +3535,8 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="1"/>
@@ -3157,6 +3550,8 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="1"/>
@@ -3170,6 +3565,8 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="1"/>
@@ -3183,6 +3580,8 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="1"/>
@@ -3196,6 +3595,8 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="1"/>
@@ -3209,6 +3610,8 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="1"/>
@@ -3222,6 +3625,8 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="1"/>
@@ -3235,6 +3640,8 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="1"/>
@@ -3248,6 +3655,8 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="1"/>
@@ -3261,6 +3670,8 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="1"/>
@@ -3274,6 +3685,8 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="1"/>
@@ -3287,6 +3700,8 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="1"/>
@@ -3300,6 +3715,8 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="1"/>
@@ -3313,6 +3730,8 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="1"/>
@@ -3326,6 +3745,8 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="1"/>
@@ -3339,6 +3760,8 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="1"/>
@@ -3352,6 +3775,8 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="1"/>
@@ -3365,6 +3790,8 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="1"/>
@@ -3378,6 +3805,8 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="1"/>
@@ -3391,6 +3820,8 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="1"/>
@@ -3404,6 +3835,8 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="1"/>
@@ -3417,6 +3850,8 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="1"/>
@@ -3430,6 +3865,8 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="1"/>
@@ -3443,6 +3880,8 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="1"/>
@@ -3456,6 +3895,8 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="1"/>
@@ -3469,6 +3910,8 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="1"/>
@@ -3482,6 +3925,8 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="1"/>
@@ -3495,6 +3940,8 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="1"/>
@@ -3508,6 +3955,8 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="1"/>
@@ -3521,6 +3970,8 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="1"/>
@@ -3534,6 +3985,8 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="1"/>
@@ -3547,6 +4000,8 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="1"/>
@@ -3560,6 +4015,8 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="1"/>
@@ -3573,6 +4030,8 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="1"/>
@@ -3586,6 +4045,8 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="1"/>
@@ -3599,6 +4060,8 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="1"/>
@@ -3612,6 +4075,8 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="1"/>
@@ -3625,6 +4090,8 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="1"/>
@@ -3638,6 +4105,8 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="1"/>
@@ -3651,6 +4120,8 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="1"/>
@@ -3664,6 +4135,8 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="1"/>
@@ -3677,6 +4150,8 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="1"/>
@@ -3690,6 +4165,8 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="1"/>
@@ -3703,6 +4180,8 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="1"/>
@@ -3716,6 +4195,8 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="1"/>
@@ -3729,6 +4210,8 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="1"/>
@@ -3742,6 +4225,8 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="1"/>
@@ -3755,6 +4240,8 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="1"/>
@@ -3768,6 +4255,8 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="1"/>
@@ -3781,6 +4270,8 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="1"/>
@@ -3794,6 +4285,8 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="1"/>
@@ -3807,6 +4300,8 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="1"/>
@@ -3820,6 +4315,8 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="1"/>
@@ -3833,6 +4330,8 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="1"/>
@@ -3846,6 +4345,8 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="1"/>
@@ -3859,6 +4360,8 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="1"/>
@@ -3872,6 +4375,8 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="1"/>
@@ -3885,6 +4390,8 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="1"/>
@@ -3898,6 +4405,8 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="1"/>
@@ -3911,6 +4420,8 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="1"/>
@@ -3924,6 +4435,8 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="1"/>
@@ -3937,6 +4450,8 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="1"/>
@@ -3950,6 +4465,8 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="1"/>
@@ -3963,6 +4480,8 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="1"/>
@@ -3976,6 +4495,8 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="1"/>
@@ -3989,6 +4510,8 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="1"/>
@@ -4002,6 +4525,8 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="1"/>
@@ -4015,6 +4540,8 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="1"/>
@@ -4028,6 +4555,8 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="1"/>
@@ -4041,6 +4570,8 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="1"/>
@@ -4054,6 +4585,8 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="1"/>
@@ -4067,6 +4600,8 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="1"/>
@@ -4080,6 +4615,8 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="1"/>
@@ -4093,6 +4630,8 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="1"/>
@@ -4106,6 +4645,8 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="1"/>
@@ -4119,6 +4660,8 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="1"/>
@@ -4132,6 +4675,8 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="1"/>
@@ -4145,6 +4690,8 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="1"/>
@@ -4158,6 +4705,8 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="1"/>
@@ -4171,6 +4720,8 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="1"/>
@@ -4184,6 +4735,8 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="1"/>
@@ -4197,6 +4750,8 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="1"/>
@@ -4210,6 +4765,8 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="1"/>
@@ -4223,6 +4780,8 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="1"/>
@@ -4236,6 +4795,8 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="1"/>
@@ -4249,6 +4810,8 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="1"/>
@@ -4262,6 +4825,8 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="1"/>
@@ -4275,6 +4840,8 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="1"/>
@@ -4288,6 +4855,8 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="1"/>
@@ -4301,6 +4870,8 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="1"/>
@@ -4314,6 +4885,8 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="1"/>
@@ -4327,6 +4900,8 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="1"/>
@@ -4340,6 +4915,8 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="1"/>
@@ -4353,6 +4930,8 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="1"/>
@@ -4366,6 +4945,8 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="1"/>
@@ -4379,6 +4960,8 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="1"/>
@@ -4392,6 +4975,8 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="1"/>
@@ -4405,6 +4990,8 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="1"/>
@@ -4418,6 +5005,8 @@
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="1"/>
@@ -4431,6 +5020,8 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="1"/>
@@ -4444,6 +5035,8 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="1"/>
@@ -4457,6 +5050,8 @@
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="1"/>
@@ -4470,6 +5065,8 @@
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="1"/>
@@ -4483,6 +5080,8 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="1"/>
@@ -4496,6 +5095,8 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="1"/>
@@ -4509,6 +5110,8 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="1"/>
@@ -4522,6 +5125,8 @@
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="1"/>
@@ -4535,6 +5140,8 @@
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="1"/>
@@ -4548,6 +5155,8 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="1"/>
@@ -4561,6 +5170,8 @@
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="1"/>
@@ -4574,6 +5185,8 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="1"/>
@@ -4587,6 +5200,8 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="1"/>
@@ -4600,6 +5215,8 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="1"/>
@@ -4613,6 +5230,8 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="1"/>
@@ -4626,6 +5245,8 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="1"/>
@@ -4639,6 +5260,8 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="1"/>
@@ -4652,6 +5275,8 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="1"/>
@@ -4665,6 +5290,8 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="1"/>
@@ -4678,6 +5305,8 @@
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="1"/>
@@ -4691,6 +5320,8 @@
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="1"/>
@@ -4704,6 +5335,8 @@
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="1"/>
@@ -4717,6 +5350,8 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="1"/>
@@ -4730,6 +5365,8 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="1"/>
@@ -4743,6 +5380,8 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="1"/>
@@ -4756,6 +5395,8 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="1"/>
@@ -4769,6 +5410,8 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="1"/>
@@ -4782,6 +5425,8 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="1"/>
@@ -4795,6 +5440,8 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="1"/>
@@ -4808,6 +5455,8 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="1"/>
@@ -4821,6 +5470,8 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="1"/>
@@ -4834,6 +5485,8 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="1"/>
@@ -4847,6 +5500,8 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="1"/>
@@ -4860,6 +5515,8 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="M310" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="1"/>
@@ -4873,6 +5530,8 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
+      <c r="M311" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="1"/>
@@ -4886,6 +5545,8 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="1"/>
@@ -4899,6 +5560,8 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="1"/>
@@ -4912,6 +5575,8 @@
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="M314" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="1"/>
@@ -4925,6 +5590,8 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="1"/>
@@ -4938,6 +5605,8 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
+      <c r="L316" s="1"/>
+      <c r="M316" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="1"/>
@@ -4951,6 +5620,8 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="M317" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="1"/>
@@ -4964,6 +5635,8 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="1"/>
@@ -4977,6 +5650,8 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="M319" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="1"/>
@@ -4990,6 +5665,8 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
+      <c r="M320" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="1"/>
@@ -5003,6 +5680,8 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="1"/>
@@ -5016,6 +5695,8 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="1"/>
@@ -5029,6 +5710,8 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
+      <c r="L323" s="1"/>
+      <c r="M323" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="1"/>
@@ -5042,6 +5725,8 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
+      <c r="L324" s="1"/>
+      <c r="M324" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="1"/>
@@ -5055,6 +5740,8 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="1"/>
@@ -5068,6 +5755,8 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
+      <c r="L326" s="1"/>
+      <c r="M326" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="1"/>
@@ -5081,6 +5770,8 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
+      <c r="L327" s="1"/>
+      <c r="M327" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="1"/>
@@ -5094,6 +5785,8 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="M328" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="1"/>
@@ -5107,6 +5800,8 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="1"/>
@@ -5120,6 +5815,8 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="1"/>
@@ -5133,6 +5830,8 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="1"/>
@@ -5146,6 +5845,8 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="1"/>
@@ -5159,6 +5860,8 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="1"/>
@@ -5172,6 +5875,8 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="1"/>
@@ -5185,6 +5890,8 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="1"/>
@@ -5198,6 +5905,8 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="1"/>
@@ -5211,6 +5920,8 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="1"/>
@@ -5224,6 +5935,8 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="1"/>
@@ -5237,6 +5950,8 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="1"/>
@@ -5250,6 +5965,8 @@
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="1"/>
@@ -5263,6 +5980,8 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="1"/>
@@ -5276,6 +5995,8 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="1"/>
@@ -5289,6 +6010,8 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="1"/>
@@ -5302,6 +6025,8 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="1"/>
@@ -5315,6 +6040,8 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="1"/>
@@ -5328,6 +6055,8 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="1"/>
@@ -5341,6 +6070,8 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="1"/>
@@ -5354,6 +6085,8 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="1"/>
@@ -5367,6 +6100,8 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="1"/>
@@ -5380,6 +6115,8 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="1"/>
@@ -5393,6 +6130,8 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="1"/>
@@ -5406,6 +6145,8 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="1"/>
@@ -5419,6 +6160,8 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="1"/>
@@ -5432,6 +6175,8 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="1"/>
@@ -5445,6 +6190,8 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="1"/>
@@ -5458,6 +6205,8 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="1"/>
@@ -5471,6 +6220,8 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="1"/>
@@ -5484,6 +6235,8 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="1"/>
@@ -5497,6 +6250,8 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="M359" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="1"/>
@@ -5510,6 +6265,8 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="M360" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="1"/>
@@ -5523,6 +6280,8 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="1"/>
@@ -5536,6 +6295,8 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="1"/>
@@ -5549,6 +6310,8 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="1"/>
@@ -5562,6 +6325,8 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="1"/>
@@ -5575,6 +6340,8 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="1"/>
@@ -5588,6 +6355,8 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="M366" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="1"/>
@@ -5601,6 +6370,8 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="M367" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="1"/>
@@ -5614,6 +6385,8 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="M368" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="1"/>
@@ -5627,6 +6400,8 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="1"/>
@@ -5640,6 +6415,8 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="1"/>
@@ -5653,6 +6430,8 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="1"/>
@@ -5666,6 +6445,8 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="1"/>
@@ -5679,6 +6460,8 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="1"/>
@@ -5692,6 +6475,8 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="1"/>
@@ -5705,6 +6490,8 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="1"/>
@@ -5718,6 +6505,8 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="1"/>
@@ -5731,6 +6520,8 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="1"/>
@@ -5744,6 +6535,8 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="1"/>
@@ -5757,6 +6550,8 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="1"/>
@@ -5770,6 +6565,8 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="1"/>
@@ -5783,6 +6580,8 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="M381" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="1"/>
@@ -5796,6 +6595,8 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="M382" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="1"/>
@@ -5809,6 +6610,8 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="M383" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="1"/>
@@ -5822,6 +6625,8 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="M384" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="1"/>
@@ -5835,6 +6640,8 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="1"/>
@@ -5848,6 +6655,8 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="1"/>
@@ -5861,6 +6670,8 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="1"/>
@@ -5874,6 +6685,8 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="1"/>
@@ -5887,6 +6700,8 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="1"/>
@@ -5900,6 +6715,8 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="1"/>
@@ -5913,6 +6730,8 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="1"/>
@@ -5926,6 +6745,8 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="1"/>
@@ -5939,6 +6760,8 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="1"/>
@@ -5952,6 +6775,8 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="1"/>
@@ -5965,6 +6790,8 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="1"/>
@@ -5978,6 +6805,8 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="1"/>
@@ -5991,6 +6820,8 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="1"/>
@@ -6004,6 +6835,8 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="1"/>
@@ -6017,6 +6850,8 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="1"/>
@@ -6030,6 +6865,8 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="1"/>
@@ -6043,6 +6880,8 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="1"/>
@@ -6056,6 +6895,8 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="1"/>
@@ -6069,6 +6910,8 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="1"/>
@@ -6082,6 +6925,8 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
+      <c r="L404" s="1"/>
+      <c r="M404" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="1"/>
@@ -6095,6 +6940,8 @@
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="1"/>
@@ -6108,6 +6955,8 @@
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="1"/>
@@ -6121,6 +6970,8 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="1"/>
@@ -6134,6 +6985,8 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="1"/>
@@ -6147,6 +7000,8 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="1"/>
@@ -6160,6 +7015,8 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="M410" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="1"/>
@@ -6173,6 +7030,8 @@
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="M411" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="1"/>
@@ -6186,6 +7045,8 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="1"/>
@@ -6199,6 +7060,8 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="1"/>
@@ -6212,6 +7075,8 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="1"/>
@@ -6225,6 +7090,8 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="1"/>
@@ -6238,6 +7105,8 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="1"/>
@@ -6251,6 +7120,8 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="1"/>
@@ -6264,6 +7135,8 @@
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="1"/>
@@ -6277,6 +7150,8 @@
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="1"/>
@@ -6290,6 +7165,8 @@
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="M420" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="1"/>
@@ -6303,6 +7180,8 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="1"/>
@@ -6316,6 +7195,8 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
+      <c r="L422" s="1"/>
+      <c r="M422" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="1"/>
@@ -6329,6 +7210,8 @@
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
+      <c r="L423" s="1"/>
+      <c r="M423" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="1"/>
@@ -6342,6 +7225,8 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
+      <c r="L424" s="1"/>
+      <c r="M424" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="1"/>
@@ -6355,6 +7240,8 @@
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
+      <c r="L425" s="1"/>
+      <c r="M425" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="1"/>
@@ -6368,6 +7255,8 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
+      <c r="L426" s="1"/>
+      <c r="M426" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="1"/>
@@ -6381,6 +7270,8 @@
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
+      <c r="L427" s="1"/>
+      <c r="M427" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="1"/>
@@ -6394,6 +7285,8 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
+      <c r="L428" s="1"/>
+      <c r="M428" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="1"/>
@@ -6407,6 +7300,8 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
+      <c r="L429" s="1"/>
+      <c r="M429" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="1"/>
@@ -6420,6 +7315,8 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="1"/>
@@ -6433,6 +7330,8 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="1"/>
@@ -6446,6 +7345,8 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
+      <c r="L432" s="1"/>
+      <c r="M432" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="1"/>
@@ -6459,6 +7360,8 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
+      <c r="L433" s="1"/>
+      <c r="M433" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="1"/>
@@ -6472,6 +7375,8 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
+      <c r="L434" s="1"/>
+      <c r="M434" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="1"/>
@@ -6485,6 +7390,8 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
+      <c r="L435" s="1"/>
+      <c r="M435" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="1"/>
@@ -6498,6 +7405,8 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
+      <c r="L436" s="1"/>
+      <c r="M436" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="1"/>
@@ -6511,6 +7420,8 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
+      <c r="L437" s="1"/>
+      <c r="M437" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="1"/>
@@ -6524,6 +7435,8 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="M438" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="1"/>
@@ -6537,6 +7450,8 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
+      <c r="L439" s="1"/>
+      <c r="M439" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="1"/>
@@ -6550,6 +7465,8 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="1"/>
@@ -6563,6 +7480,8 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
+      <c r="L441" s="1"/>
+      <c r="M441" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="1"/>
@@ -6576,6 +7495,8 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
+      <c r="L442" s="1"/>
+      <c r="M442" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="1"/>
@@ -6589,6 +7510,8 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
+      <c r="L443" s="1"/>
+      <c r="M443" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="1"/>
@@ -6602,6 +7525,8 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
+      <c r="L444" s="1"/>
+      <c r="M444" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="1"/>
@@ -6615,6 +7540,8 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
+      <c r="L445" s="1"/>
+      <c r="M445" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="1"/>
@@ -6628,6 +7555,8 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
+      <c r="L446" s="1"/>
+      <c r="M446" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="1"/>
@@ -6641,6 +7570,8 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
+      <c r="L447" s="1"/>
+      <c r="M447" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="1"/>
@@ -6654,6 +7585,8 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
+      <c r="L448" s="1"/>
+      <c r="M448" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="1"/>
@@ -6667,6 +7600,8 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
+      <c r="L449" s="1"/>
+      <c r="M449" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="1"/>
@@ -6680,6 +7615,8 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
+      <c r="L450" s="1"/>
+      <c r="M450" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="1"/>
@@ -6693,6 +7630,8 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
+      <c r="L451" s="1"/>
+      <c r="M451" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="1"/>
@@ -6706,6 +7645,8 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="M452" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="1"/>
@@ -6719,6 +7660,8 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
+      <c r="L453" s="1"/>
+      <c r="M453" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="1"/>
@@ -6732,6 +7675,8 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
+      <c r="L454" s="1"/>
+      <c r="M454" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="1"/>
@@ -6745,6 +7690,8 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
+      <c r="L455" s="1"/>
+      <c r="M455" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="1"/>
@@ -6758,6 +7705,8 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
+      <c r="L456" s="1"/>
+      <c r="M456" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="1"/>
@@ -6771,6 +7720,8 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="M457" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="1"/>
@@ -6784,6 +7735,8 @@
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="M458" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="1"/>
@@ -6797,6 +7750,8 @@
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="M459" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="1"/>
@@ -6810,6 +7765,8 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
+      <c r="L460" s="1"/>
+      <c r="M460" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="1"/>
@@ -6823,6 +7780,8 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="M461" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="1"/>
@@ -6836,6 +7795,8 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
+      <c r="L462" s="1"/>
+      <c r="M462" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="1"/>
@@ -6849,6 +7810,8 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
+      <c r="L463" s="1"/>
+      <c r="M463" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="1"/>
@@ -6862,6 +7825,8 @@
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
+      <c r="L464" s="1"/>
+      <c r="M464" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="1"/>
@@ -6875,6 +7840,8 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
+      <c r="L465" s="1"/>
+      <c r="M465" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="1"/>
@@ -6888,6 +7855,8 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
+      <c r="L466" s="1"/>
+      <c r="M466" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="1"/>
@@ -6901,6 +7870,8 @@
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
+      <c r="L467" s="1"/>
+      <c r="M467" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="1"/>
@@ -6914,6 +7885,8 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="M468" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="1"/>
@@ -6927,6 +7900,8 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
+      <c r="L469" s="1"/>
+      <c r="M469" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="1"/>
@@ -6940,6 +7915,8 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
+      <c r="L470" s="1"/>
+      <c r="M470" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="1"/>
@@ -6953,6 +7930,8 @@
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
+      <c r="L471" s="1"/>
+      <c r="M471" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="1"/>
@@ -6966,6 +7945,8 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
+      <c r="L472" s="1"/>
+      <c r="M472" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="1"/>
@@ -6979,6 +7960,8 @@
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
+      <c r="L473" s="1"/>
+      <c r="M473" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="1"/>
@@ -6992,6 +7975,8 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="M474" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="1"/>
@@ -7005,6 +7990,8 @@
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
+      <c r="L475" s="1"/>
+      <c r="M475" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="1"/>
@@ -7018,6 +8005,8 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
+      <c r="L476" s="1"/>
+      <c r="M476" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="1"/>
@@ -7031,6 +8020,8 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
+      <c r="L477" s="1"/>
+      <c r="M477" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="1"/>
@@ -7044,6 +8035,8 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
+      <c r="L478" s="1"/>
+      <c r="M478" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="1"/>
@@ -7057,6 +8050,8 @@
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="1"/>
@@ -7070,6 +8065,8 @@
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
+      <c r="L480" s="1"/>
+      <c r="M480" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="1"/>
@@ -7083,6 +8080,8 @@
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
+      <c r="L481" s="1"/>
+      <c r="M481" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="1"/>
@@ -7096,6 +8095,8 @@
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="M482" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="1"/>
@@ -7109,6 +8110,8 @@
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
+      <c r="L483" s="1"/>
+      <c r="M483" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="1"/>
@@ -7122,6 +8125,8 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
+      <c r="L484" s="1"/>
+      <c r="M484" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="1"/>
@@ -7135,6 +8140,8 @@
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
+      <c r="L485" s="1"/>
+      <c r="M485" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="1"/>
@@ -7148,6 +8155,8 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="M486" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="1"/>
@@ -7161,6 +8170,8 @@
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
+      <c r="L487" s="1"/>
+      <c r="M487" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="1"/>
@@ -7174,6 +8185,8 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="M488" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="1"/>
@@ -7187,6 +8200,8 @@
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
+      <c r="L489" s="1"/>
+      <c r="M489" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="1"/>
@@ -7200,6 +8215,8 @@
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
+      <c r="L490" s="1"/>
+      <c r="M490" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="1"/>
@@ -7213,6 +8230,8 @@
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
+      <c r="L491" s="1"/>
+      <c r="M491" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="1"/>
@@ -7226,6 +8245,8 @@
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
+      <c r="L492" s="1"/>
+      <c r="M492" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="1"/>
@@ -7239,6 +8260,8 @@
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
+      <c r="L493" s="1"/>
+      <c r="M493" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="1"/>
@@ -7252,6 +8275,8 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
+      <c r="L494" s="1"/>
+      <c r="M494" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="1"/>
@@ -7265,6 +8290,8 @@
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="1"/>
@@ -7278,6 +8305,8 @@
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
+      <c r="L496" s="1"/>
+      <c r="M496" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="1"/>
@@ -7291,6 +8320,8 @@
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
+      <c r="L497" s="1"/>
+      <c r="M497" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="1"/>
@@ -7304,6 +8335,8 @@
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="M498" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="1"/>
@@ -7317,6 +8350,8 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
+      <c r="L499" s="1"/>
+      <c r="M499" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="1"/>
@@ -7330,6 +8365,8 @@
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
+      <c r="L500" s="1"/>
+      <c r="M500" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="1"/>
@@ -7343,6 +8380,8 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
+      <c r="L501" s="1"/>
+      <c r="M501" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="1"/>
@@ -7356,6 +8395,8 @@
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
+      <c r="L502" s="1"/>
+      <c r="M502" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="1"/>
@@ -7369,6 +8410,8 @@
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
+      <c r="L503" s="1"/>
+      <c r="M503" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="1"/>
@@ -7382,6 +8425,8 @@
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
+      <c r="L504" s="1"/>
+      <c r="M504" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="1"/>
@@ -7395,6 +8440,8 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
+      <c r="L505" s="1"/>
+      <c r="M505" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="1"/>
@@ -7408,6 +8455,8 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
+      <c r="L506" s="1"/>
+      <c r="M506" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="1"/>
@@ -7421,6 +8470,8 @@
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
+      <c r="L507" s="1"/>
+      <c r="M507" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="1"/>
@@ -7434,6 +8485,8 @@
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
+      <c r="L508" s="1"/>
+      <c r="M508" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="1"/>
@@ -7447,6 +8500,8 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
+      <c r="L509" s="1"/>
+      <c r="M509" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="1"/>
@@ -7460,6 +8515,8 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
+      <c r="L510" s="1"/>
+      <c r="M510" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="1"/>
@@ -7473,6 +8530,8 @@
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
+      <c r="L511" s="1"/>
+      <c r="M511" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="1"/>
@@ -7486,6 +8545,8 @@
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
+      <c r="L512" s="1"/>
+      <c r="M512" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="1"/>
@@ -7499,6 +8560,8 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
+      <c r="L513" s="1"/>
+      <c r="M513" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="1"/>
@@ -7512,6 +8575,8 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
+      <c r="L514" s="1"/>
+      <c r="M514" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="1"/>
@@ -7525,6 +8590,8 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
+      <c r="L515" s="1"/>
+      <c r="M515" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="1"/>
@@ -7538,6 +8605,8 @@
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
+      <c r="L516" s="1"/>
+      <c r="M516" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="1"/>
@@ -7551,6 +8620,8 @@
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
+      <c r="L517" s="1"/>
+      <c r="M517" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="1"/>
@@ -7564,6 +8635,8 @@
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
+      <c r="L518" s="1"/>
+      <c r="M518" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="1"/>
@@ -7577,6 +8650,8 @@
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
+      <c r="L519" s="1"/>
+      <c r="M519" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="1"/>
@@ -7590,6 +8665,8 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
+      <c r="L520" s="1"/>
+      <c r="M520" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="1"/>
@@ -7603,6 +8680,8 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
+      <c r="L521" s="1"/>
+      <c r="M521" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="1"/>
@@ -7616,6 +8695,8 @@
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
+      <c r="L522" s="1"/>
+      <c r="M522" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="1"/>
@@ -7629,6 +8710,8 @@
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="1"/>
@@ -7642,6 +8725,8 @@
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="1"/>
@@ -7655,6 +8740,8 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
+      <c r="L525" s="1"/>
+      <c r="M525" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="1"/>
@@ -7668,6 +8755,8 @@
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
+      <c r="L526" s="1"/>
+      <c r="M526" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="1"/>
@@ -7681,6 +8770,8 @@
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
+      <c r="L527" s="1"/>
+      <c r="M527" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="1"/>
@@ -7694,6 +8785,8 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
+      <c r="L528" s="1"/>
+      <c r="M528" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="1"/>
@@ -7707,6 +8800,8 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="M529" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="1"/>
@@ -7720,6 +8815,8 @@
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="1"/>
@@ -7733,6 +8830,8 @@
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
+      <c r="L531" s="1"/>
+      <c r="M531" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="1"/>
@@ -7746,6 +8845,8 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
+      <c r="L532" s="1"/>
+      <c r="M532" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="1"/>
@@ -7759,6 +8860,8 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
+      <c r="L533" s="1"/>
+      <c r="M533" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="1"/>
@@ -7772,6 +8875,8 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="1"/>
@@ -7785,6 +8890,8 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="1"/>
@@ -7798,6 +8905,8 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
+      <c r="L536" s="1"/>
+      <c r="M536" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="1"/>
@@ -7811,6 +8920,8 @@
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="1"/>
@@ -7824,6 +8935,8 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="1"/>
@@ -7837,6 +8950,8 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
+      <c r="L539" s="1"/>
+      <c r="M539" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="1"/>
@@ -7850,6 +8965,8 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
+      <c r="L540" s="1"/>
+      <c r="M540" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="1"/>
@@ -7863,6 +8980,8 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
+      <c r="L541" s="1"/>
+      <c r="M541" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="1"/>
@@ -7876,6 +8995,8 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
+      <c r="L542" s="1"/>
+      <c r="M542" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="1"/>
@@ -7889,6 +9010,8 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
+      <c r="L543" s="1"/>
+      <c r="M543" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="1"/>
@@ -7902,6 +9025,8 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
+      <c r="L544" s="1"/>
+      <c r="M544" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="1"/>
@@ -7915,6 +9040,8 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
+      <c r="L545" s="1"/>
+      <c r="M545" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="1"/>
@@ -7928,6 +9055,8 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
+      <c r="L546" s="1"/>
+      <c r="M546" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="1"/>
@@ -7941,6 +9070,8 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
+      <c r="L547" s="1"/>
+      <c r="M547" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="1"/>
@@ -7954,6 +9085,8 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
+      <c r="L548" s="1"/>
+      <c r="M548" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="1"/>
@@ -7967,6 +9100,8 @@
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
+      <c r="L549" s="1"/>
+      <c r="M549" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="1"/>
@@ -7980,6 +9115,8 @@
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
+      <c r="L550" s="1"/>
+      <c r="M550" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="1"/>
@@ -7993,6 +9130,8 @@
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
+      <c r="L551" s="1"/>
+      <c r="M551" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="1"/>
@@ -8006,6 +9145,8 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
+      <c r="L552" s="1"/>
+      <c r="M552" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="1"/>
@@ -8019,6 +9160,8 @@
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
+      <c r="L553" s="1"/>
+      <c r="M553" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="1"/>
@@ -8032,6 +9175,8 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
+      <c r="L554" s="1"/>
+      <c r="M554" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="1"/>
@@ -8045,6 +9190,8 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
+      <c r="L555" s="1"/>
+      <c r="M555" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="1"/>
@@ -8058,6 +9205,8 @@
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
+      <c r="L556" s="1"/>
+      <c r="M556" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="1"/>
@@ -8071,6 +9220,8 @@
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
+      <c r="L557" s="1"/>
+      <c r="M557" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="1"/>
@@ -8084,6 +9235,8 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
+      <c r="L558" s="1"/>
+      <c r="M558" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="1"/>
@@ -8097,6 +9250,8 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
+      <c r="L559" s="1"/>
+      <c r="M559" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="1"/>
@@ -8110,6 +9265,8 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
+      <c r="L560" s="1"/>
+      <c r="M560" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="1"/>
@@ -8123,6 +9280,8 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
+      <c r="L561" s="1"/>
+      <c r="M561" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="1"/>
@@ -8136,6 +9295,8 @@
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
+      <c r="L562" s="1"/>
+      <c r="M562" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="1"/>
@@ -8149,6 +9310,8 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
+      <c r="L563" s="1"/>
+      <c r="M563" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="1"/>
@@ -8162,6 +9325,8 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
+      <c r="L564" s="1"/>
+      <c r="M564" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="1"/>
@@ -8175,6 +9340,8 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
+      <c r="L565" s="1"/>
+      <c r="M565" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="1"/>
@@ -8188,6 +9355,8 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
+      <c r="L566" s="1"/>
+      <c r="M566" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="1"/>
@@ -8201,6 +9370,8 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
+      <c r="L567" s="1"/>
+      <c r="M567" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="1"/>
@@ -8214,6 +9385,8 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
+      <c r="L568" s="1"/>
+      <c r="M568" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="1"/>
@@ -8227,6 +9400,8 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
+      <c r="L569" s="1"/>
+      <c r="M569" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="1"/>
@@ -8240,6 +9415,8 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
+      <c r="L570" s="1"/>
+      <c r="M570" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="1"/>
@@ -8253,6 +9430,8 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
+      <c r="L571" s="1"/>
+      <c r="M571" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="1"/>
@@ -8266,6 +9445,8 @@
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
+      <c r="L572" s="1"/>
+      <c r="M572" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="1"/>
@@ -8279,6 +9460,8 @@
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
       <c r="K573" s="1"/>
+      <c r="L573" s="1"/>
+      <c r="M573" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="1"/>
@@ -8292,6 +9475,8 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
+      <c r="L574" s="1"/>
+      <c r="M574" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="1"/>
@@ -8305,6 +9490,8 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
+      <c r="L575" s="1"/>
+      <c r="M575" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="1"/>
@@ -8318,6 +9505,8 @@
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
+      <c r="L576" s="1"/>
+      <c r="M576" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="1"/>
@@ -8331,6 +9520,8 @@
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
+      <c r="L577" s="1"/>
+      <c r="M577" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="1"/>
@@ -8344,6 +9535,8 @@
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
       <c r="K578" s="1"/>
+      <c r="L578" s="1"/>
+      <c r="M578" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="1"/>
@@ -8357,6 +9550,8 @@
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
       <c r="K579" s="1"/>
+      <c r="L579" s="1"/>
+      <c r="M579" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="1"/>
@@ -8370,6 +9565,8 @@
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
       <c r="K580" s="1"/>
+      <c r="L580" s="1"/>
+      <c r="M580" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="1"/>
@@ -8383,6 +9580,8 @@
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
+      <c r="L581" s="1"/>
+      <c r="M581" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="1"/>
@@ -8396,6 +9595,8 @@
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
+      <c r="L582" s="1"/>
+      <c r="M582" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="1"/>
@@ -8409,6 +9610,8 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
+      <c r="L583" s="1"/>
+      <c r="M583" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="1"/>
@@ -8422,6 +9625,8 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
+      <c r="L584" s="1"/>
+      <c r="M584" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="1"/>
@@ -8435,6 +9640,8 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
       <c r="K585" s="1"/>
+      <c r="L585" s="1"/>
+      <c r="M585" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="1"/>
@@ -8448,6 +9655,8 @@
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
       <c r="K586" s="1"/>
+      <c r="L586" s="1"/>
+      <c r="M586" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="1"/>
@@ -8461,6 +9670,8 @@
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
+      <c r="L587" s="1"/>
+      <c r="M587" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="1"/>
@@ -8474,6 +9685,8 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
       <c r="K588" s="1"/>
+      <c r="L588" s="1"/>
+      <c r="M588" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="1"/>
@@ -8487,6 +9700,8 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
       <c r="K589" s="1"/>
+      <c r="L589" s="1"/>
+      <c r="M589" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="1"/>
@@ -8500,6 +9715,8 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
+      <c r="L590" s="1"/>
+      <c r="M590" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="1"/>
@@ -8513,6 +9730,8 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
       <c r="K591" s="1"/>
+      <c r="L591" s="1"/>
+      <c r="M591" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="1"/>
@@ -8526,6 +9745,8 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
       <c r="K592" s="1"/>
+      <c r="L592" s="1"/>
+      <c r="M592" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="1"/>
@@ -8539,6 +9760,8 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
+      <c r="L593" s="1"/>
+      <c r="M593" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="1"/>
@@ -8552,6 +9775,8 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
+      <c r="L594" s="1"/>
+      <c r="M594" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="1"/>
@@ -8565,6 +9790,8 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
+      <c r="L595" s="1"/>
+      <c r="M595" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="1"/>
@@ -8578,6 +9805,8 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
       <c r="K596" s="1"/>
+      <c r="L596" s="1"/>
+      <c r="M596" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="1"/>
@@ -8591,6 +9820,8 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
       <c r="K597" s="1"/>
+      <c r="L597" s="1"/>
+      <c r="M597" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="1"/>
@@ -8604,6 +9835,8 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
       <c r="K598" s="1"/>
+      <c r="L598" s="1"/>
+      <c r="M598" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="1"/>
@@ -8617,6 +9850,8 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
       <c r="K599" s="1"/>
+      <c r="L599" s="1"/>
+      <c r="M599" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="1"/>
@@ -8630,6 +9865,8 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
+      <c r="L600" s="1"/>
+      <c r="M600" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="1"/>
@@ -8643,6 +9880,8 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
       <c r="K601" s="1"/>
+      <c r="L601" s="1"/>
+      <c r="M601" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="1"/>
@@ -8656,6 +9895,8 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
       <c r="K602" s="1"/>
+      <c r="L602" s="1"/>
+      <c r="M602" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="1"/>
@@ -8669,6 +9910,8 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
+      <c r="L603" s="1"/>
+      <c r="M603" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="1"/>
@@ -8682,6 +9925,8 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
       <c r="K604" s="1"/>
+      <c r="L604" s="1"/>
+      <c r="M604" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="1"/>
@@ -8695,6 +9940,8 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
       <c r="K605" s="1"/>
+      <c r="L605" s="1"/>
+      <c r="M605" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="1"/>
@@ -8708,6 +9955,8 @@
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
       <c r="K606" s="1"/>
+      <c r="L606" s="1"/>
+      <c r="M606" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="1"/>
@@ -8721,6 +9970,8 @@
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
+      <c r="L607" s="1"/>
+      <c r="M607" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="1"/>
@@ -8734,6 +9985,8 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
+      <c r="L608" s="1"/>
+      <c r="M608" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="1"/>
@@ -8747,6 +10000,8 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
       <c r="K609" s="1"/>
+      <c r="L609" s="1"/>
+      <c r="M609" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="1"/>
@@ -8760,6 +10015,8 @@
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
       <c r="K610" s="1"/>
+      <c r="L610" s="1"/>
+      <c r="M610" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="1"/>
@@ -8773,6 +10030,8 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
+      <c r="L611" s="1"/>
+      <c r="M611" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="1"/>
@@ -8786,6 +10045,8 @@
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
       <c r="K612" s="1"/>
+      <c r="L612" s="1"/>
+      <c r="M612" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="1"/>
@@ -8799,6 +10060,8 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
+      <c r="L613" s="1"/>
+      <c r="M613" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="1"/>
@@ -8812,6 +10075,8 @@
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
       <c r="K614" s="1"/>
+      <c r="L614" s="1"/>
+      <c r="M614" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="1"/>
@@ -8825,6 +10090,8 @@
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
       <c r="K615" s="1"/>
+      <c r="L615" s="1"/>
+      <c r="M615" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="1"/>
@@ -8838,6 +10105,8 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
+      <c r="L616" s="1"/>
+      <c r="M616" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="1"/>
@@ -8851,6 +10120,8 @@
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
+      <c r="L617" s="1"/>
+      <c r="M617" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="1"/>
@@ -8864,6 +10135,8 @@
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
       <c r="K618" s="1"/>
+      <c r="L618" s="1"/>
+      <c r="M618" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="1"/>
@@ -8877,6 +10150,8 @@
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
       <c r="K619" s="1"/>
+      <c r="L619" s="1"/>
+      <c r="M619" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="1"/>
@@ -8890,6 +10165,8 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
+      <c r="L620" s="1"/>
+      <c r="M620" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="1"/>
@@ -8903,6 +10180,8 @@
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
+      <c r="L621" s="1"/>
+      <c r="M621" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="1"/>
@@ -8916,6 +10195,8 @@
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
       <c r="K622" s="1"/>
+      <c r="L622" s="1"/>
+      <c r="M622" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="1"/>
@@ -8929,6 +10210,8 @@
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
       <c r="K623" s="1"/>
+      <c r="L623" s="1"/>
+      <c r="M623" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="1"/>
@@ -8942,6 +10225,8 @@
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
+      <c r="L624" s="1"/>
+      <c r="M624" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="1"/>
@@ -8955,6 +10240,8 @@
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
       <c r="K625" s="1"/>
+      <c r="L625" s="1"/>
+      <c r="M625" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="1"/>
@@ -8968,6 +10255,8 @@
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
+      <c r="L626" s="1"/>
+      <c r="M626" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="1"/>
@@ -8981,6 +10270,8 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
       <c r="K627" s="1"/>
+      <c r="L627" s="1"/>
+      <c r="M627" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="1"/>
@@ -8994,6 +10285,8 @@
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
+      <c r="L628" s="1"/>
+      <c r="M628" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="1"/>
@@ -9007,6 +10300,8 @@
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
       <c r="K629" s="1"/>
+      <c r="L629" s="1"/>
+      <c r="M629" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="1"/>
@@ -9020,6 +10315,8 @@
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
+      <c r="L630" s="1"/>
+      <c r="M630" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="1"/>
@@ -9033,6 +10330,8 @@
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
+      <c r="L631" s="1"/>
+      <c r="M631" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="1"/>
@@ -9046,6 +10345,8 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
+      <c r="L632" s="1"/>
+      <c r="M632" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="1"/>
@@ -9059,6 +10360,8 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
       <c r="K633" s="1"/>
+      <c r="L633" s="1"/>
+      <c r="M633" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="1"/>
@@ -9072,6 +10375,8 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
+      <c r="L634" s="1"/>
+      <c r="M634" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="1"/>
@@ -9085,6 +10390,8 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
       <c r="K635" s="1"/>
+      <c r="L635" s="1"/>
+      <c r="M635" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="1"/>
@@ -9098,6 +10405,8 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
+      <c r="L636" s="1"/>
+      <c r="M636" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="1"/>
@@ -9111,6 +10420,8 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
       <c r="K637" s="1"/>
+      <c r="L637" s="1"/>
+      <c r="M637" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="1"/>
@@ -9124,6 +10435,8 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
+      <c r="L638" s="1"/>
+      <c r="M638" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="1"/>
@@ -9137,6 +10450,8 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
       <c r="K639" s="1"/>
+      <c r="L639" s="1"/>
+      <c r="M639" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="1"/>
@@ -9150,6 +10465,8 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
       <c r="K640" s="1"/>
+      <c r="L640" s="1"/>
+      <c r="M640" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="1"/>
@@ -9163,6 +10480,8 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
       <c r="K641" s="1"/>
+      <c r="L641" s="1"/>
+      <c r="M641" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="1"/>
@@ -9176,6 +10495,8 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
       <c r="K642" s="1"/>
+      <c r="L642" s="1"/>
+      <c r="M642" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="1"/>
@@ -9189,6 +10510,8 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
       <c r="K643" s="1"/>
+      <c r="L643" s="1"/>
+      <c r="M643" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="1"/>
@@ -9202,6 +10525,8 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
       <c r="K644" s="1"/>
+      <c r="L644" s="1"/>
+      <c r="M644" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="1"/>
@@ -9215,6 +10540,8 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
+      <c r="L645" s="1"/>
+      <c r="M645" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="1"/>
@@ -9228,6 +10555,8 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
+      <c r="L646" s="1"/>
+      <c r="M646" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="1"/>
@@ -9241,6 +10570,8 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
+      <c r="L647" s="1"/>
+      <c r="M647" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="1"/>
@@ -9254,6 +10585,8 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
       <c r="K648" s="1"/>
+      <c r="L648" s="1"/>
+      <c r="M648" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="1"/>
@@ -9267,6 +10600,8 @@
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
+      <c r="L649" s="1"/>
+      <c r="M649" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="1"/>
@@ -9280,6 +10615,8 @@
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
+      <c r="L650" s="1"/>
+      <c r="M650" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="1"/>
@@ -9293,6 +10630,8 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
+      <c r="L651" s="1"/>
+      <c r="M651" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="1"/>
@@ -9306,6 +10645,8 @@
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
+      <c r="L652" s="1"/>
+      <c r="M652" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="1"/>
@@ -9319,6 +10660,8 @@
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
+      <c r="L653" s="1"/>
+      <c r="M653" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="1"/>
@@ -9332,6 +10675,8 @@
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
+      <c r="L654" s="1"/>
+      <c r="M654" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="1"/>
@@ -9345,6 +10690,8 @@
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
+      <c r="L655" s="1"/>
+      <c r="M655" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="1"/>
@@ -9358,6 +10705,8 @@
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
+      <c r="L656" s="1"/>
+      <c r="M656" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="1"/>
@@ -9371,6 +10720,8 @@
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
       <c r="K657" s="1"/>
+      <c r="L657" s="1"/>
+      <c r="M657" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="1"/>
@@ -9384,6 +10735,8 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
+      <c r="L658" s="1"/>
+      <c r="M658" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="1"/>
@@ -9397,6 +10750,8 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
+      <c r="L659" s="1"/>
+      <c r="M659" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="1"/>
@@ -9410,6 +10765,8 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
       <c r="K660" s="1"/>
+      <c r="L660" s="1"/>
+      <c r="M660" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="1"/>
@@ -9423,6 +10780,8 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
+      <c r="L661" s="1"/>
+      <c r="M661" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="1"/>
@@ -9436,6 +10795,8 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
       <c r="K662" s="1"/>
+      <c r="L662" s="1"/>
+      <c r="M662" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="1"/>
@@ -9449,6 +10810,8 @@
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
+      <c r="L663" s="1"/>
+      <c r="M663" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="1"/>
@@ -9462,6 +10825,8 @@
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
       <c r="K664" s="1"/>
+      <c r="L664" s="1"/>
+      <c r="M664" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="1"/>
@@ -9475,6 +10840,8 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
       <c r="K665" s="1"/>
+      <c r="L665" s="1"/>
+      <c r="M665" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="1"/>
@@ -9488,6 +10855,8 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
       <c r="K666" s="1"/>
+      <c r="L666" s="1"/>
+      <c r="M666" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="1"/>
@@ -9501,6 +10870,8 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
       <c r="K667" s="1"/>
+      <c r="L667" s="1"/>
+      <c r="M667" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="1"/>
@@ -9514,6 +10885,8 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
       <c r="K668" s="1"/>
+      <c r="L668" s="1"/>
+      <c r="M668" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="1"/>
@@ -9527,6 +10900,8 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
       <c r="K669" s="1"/>
+      <c r="L669" s="1"/>
+      <c r="M669" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="1"/>
@@ -9540,6 +10915,8 @@
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
       <c r="K670" s="1"/>
+      <c r="L670" s="1"/>
+      <c r="M670" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="1"/>
@@ -9553,6 +10930,8 @@
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
+      <c r="L671" s="1"/>
+      <c r="M671" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="1"/>
@@ -9566,6 +10945,8 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
       <c r="K672" s="1"/>
+      <c r="L672" s="1"/>
+      <c r="M672" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="1"/>
@@ -9579,6 +10960,8 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
       <c r="K673" s="1"/>
+      <c r="L673" s="1"/>
+      <c r="M673" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="1"/>
@@ -9592,6 +10975,8 @@
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
       <c r="K674" s="1"/>
+      <c r="L674" s="1"/>
+      <c r="M674" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="1"/>
@@ -9605,6 +10990,8 @@
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
       <c r="K675" s="1"/>
+      <c r="L675" s="1"/>
+      <c r="M675" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="1"/>
@@ -9618,6 +11005,8 @@
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
       <c r="K676" s="1"/>
+      <c r="L676" s="1"/>
+      <c r="M676" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="1"/>
@@ -9631,6 +11020,8 @@
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
       <c r="K677" s="1"/>
+      <c r="L677" s="1"/>
+      <c r="M677" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="1"/>
@@ -9644,6 +11035,8 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
       <c r="K678" s="1"/>
+      <c r="L678" s="1"/>
+      <c r="M678" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="1"/>
@@ -9657,6 +11050,8 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
       <c r="K679" s="1"/>
+      <c r="L679" s="1"/>
+      <c r="M679" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="1"/>
@@ -9670,6 +11065,8 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
       <c r="K680" s="1"/>
+      <c r="L680" s="1"/>
+      <c r="M680" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="1"/>
@@ -9683,6 +11080,8 @@
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
       <c r="K681" s="1"/>
+      <c r="L681" s="1"/>
+      <c r="M681" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="1"/>
@@ -9696,6 +11095,8 @@
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
       <c r="K682" s="1"/>
+      <c r="L682" s="1"/>
+      <c r="M682" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="1"/>
@@ -9709,6 +11110,8 @@
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
       <c r="K683" s="1"/>
+      <c r="L683" s="1"/>
+      <c r="M683" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="1"/>
@@ -9722,6 +11125,8 @@
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
+      <c r="L684" s="1"/>
+      <c r="M684" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="1"/>
@@ -9735,6 +11140,8 @@
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
+      <c r="L685" s="1"/>
+      <c r="M685" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="1"/>
@@ -9748,6 +11155,8 @@
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
       <c r="K686" s="1"/>
+      <c r="L686" s="1"/>
+      <c r="M686" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="1"/>
@@ -9761,6 +11170,8 @@
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
       <c r="K687" s="1"/>
+      <c r="L687" s="1"/>
+      <c r="M687" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="1"/>
@@ -9774,6 +11185,8 @@
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
       <c r="K688" s="1"/>
+      <c r="L688" s="1"/>
+      <c r="M688" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="1"/>
@@ -9787,6 +11200,8 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
       <c r="K689" s="1"/>
+      <c r="L689" s="1"/>
+      <c r="M689" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="1"/>
@@ -9800,6 +11215,8 @@
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
       <c r="K690" s="1"/>
+      <c r="L690" s="1"/>
+      <c r="M690" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="1"/>
@@ -9813,6 +11230,8 @@
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
       <c r="K691" s="1"/>
+      <c r="L691" s="1"/>
+      <c r="M691" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="1"/>
@@ -9826,6 +11245,8 @@
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
       <c r="K692" s="1"/>
+      <c r="L692" s="1"/>
+      <c r="M692" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="1"/>
@@ -9839,6 +11260,8 @@
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
       <c r="K693" s="1"/>
+      <c r="L693" s="1"/>
+      <c r="M693" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="1"/>
@@ -9852,6 +11275,8 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
       <c r="K694" s="1"/>
+      <c r="L694" s="1"/>
+      <c r="M694" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="1"/>
@@ -9865,6 +11290,8 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
       <c r="K695" s="1"/>
+      <c r="L695" s="1"/>
+      <c r="M695" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="1"/>
@@ -9878,6 +11305,8 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
       <c r="K696" s="1"/>
+      <c r="L696" s="1"/>
+      <c r="M696" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="1"/>
@@ -9891,6 +11320,8 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
       <c r="K697" s="1"/>
+      <c r="L697" s="1"/>
+      <c r="M697" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="1"/>
@@ -9904,6 +11335,8 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
       <c r="K698" s="1"/>
+      <c r="L698" s="1"/>
+      <c r="M698" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="1"/>
@@ -9917,6 +11350,8 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
       <c r="K699" s="1"/>
+      <c r="L699" s="1"/>
+      <c r="M699" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="1"/>
@@ -9930,6 +11365,8 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
       <c r="K700" s="1"/>
+      <c r="L700" s="1"/>
+      <c r="M700" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="1"/>
@@ -9943,6 +11380,8 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
       <c r="K701" s="1"/>
+      <c r="L701" s="1"/>
+      <c r="M701" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="1"/>
@@ -9956,6 +11395,8 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
       <c r="K702" s="1"/>
+      <c r="L702" s="1"/>
+      <c r="M702" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
       <c r="A703" s="1"/>
@@ -9969,6 +11410,8 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
       <c r="K703" s="1"/>
+      <c r="L703" s="1"/>
+      <c r="M703" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="17.25">
       <c r="A704" s="1"/>
@@ -9982,6 +11425,8 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
       <c r="K704" s="1"/>
+      <c r="L704" s="1"/>
+      <c r="M704" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="17.25">
       <c r="A705" s="1"/>
@@ -9995,6 +11440,8 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
       <c r="K705" s="1"/>
+      <c r="L705" s="1"/>
+      <c r="M705" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="17.25">
       <c r="A706" s="1"/>
@@ -10008,6 +11455,8 @@
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
       <c r="K706" s="1"/>
+      <c r="L706" s="1"/>
+      <c r="M706" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="17.25">
       <c r="A707" s="1"/>
@@ -10021,6 +11470,8 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
       <c r="K707" s="1"/>
+      <c r="L707" s="1"/>
+      <c r="M707" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="17.25">
       <c r="A708" s="1"/>
@@ -10034,6 +11485,8 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
       <c r="K708" s="1"/>
+      <c r="L708" s="1"/>
+      <c r="M708" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="1"/>
@@ -10047,6 +11500,8 @@
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
       <c r="K709" s="1"/>
+      <c r="L709" s="1"/>
+      <c r="M709" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="1"/>
@@ -10060,6 +11515,8 @@
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
       <c r="K710" s="1"/>
+      <c r="L710" s="1"/>
+      <c r="M710" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="1"/>
@@ -10073,6 +11530,8 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
       <c r="K711" s="1"/>
+      <c r="L711" s="1"/>
+      <c r="M711" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="17.25">
       <c r="A712" s="1"/>
@@ -10086,6 +11545,8 @@
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
       <c r="K712" s="1"/>
+      <c r="L712" s="1"/>
+      <c r="M712" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="17.25">
       <c r="A713" s="1"/>
@@ -10099,6 +11560,8 @@
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
       <c r="K713" s="1"/>
+      <c r="L713" s="1"/>
+      <c r="M713" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="17.25">
       <c r="A714" s="1"/>
@@ -10112,6 +11575,8 @@
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
       <c r="K714" s="1"/>
+      <c r="L714" s="1"/>
+      <c r="M714" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="17.25">
       <c r="A715" s="1"/>
@@ -10125,6 +11590,8 @@
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
       <c r="K715" s="1"/>
+      <c r="L715" s="1"/>
+      <c r="M715" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="17.25">
       <c r="A716" s="1"/>
@@ -10138,6 +11605,8 @@
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
       <c r="K716" s="1"/>
+      <c r="L716" s="1"/>
+      <c r="M716" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="17.25">
       <c r="A717" s="1"/>
@@ -10151,6 +11620,8 @@
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
       <c r="K717" s="1"/>
+      <c r="L717" s="1"/>
+      <c r="M717" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="17.25">
       <c r="A718" s="1"/>
@@ -10164,6 +11635,8 @@
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
       <c r="K718" s="1"/>
+      <c r="L718" s="1"/>
+      <c r="M718" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="17.25">
       <c r="A719" s="1"/>
@@ -10177,6 +11650,8 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
       <c r="K719" s="1"/>
+      <c r="L719" s="1"/>
+      <c r="M719" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="17.25">
       <c r="A720" s="1"/>
@@ -10190,6 +11665,8 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
       <c r="K720" s="1"/>
+      <c r="L720" s="1"/>
+      <c r="M720" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="17.25">
       <c r="A721" s="1"/>
@@ -10203,6 +11680,8 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
       <c r="K721" s="1"/>
+      <c r="L721" s="1"/>
+      <c r="M721" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="17.25">
       <c r="A722" s="1"/>
@@ -10216,6 +11695,8 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
       <c r="K722" s="1"/>
+      <c r="L722" s="1"/>
+      <c r="M722" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="17.25">
       <c r="A723" s="1"/>
@@ -10229,6 +11710,8 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
       <c r="K723" s="1"/>
+      <c r="L723" s="1"/>
+      <c r="M723" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="17.25">
       <c r="A724" s="1"/>
@@ -10242,6 +11725,8 @@
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
       <c r="K724" s="1"/>
+      <c r="L724" s="1"/>
+      <c r="M724" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="17.25">
       <c r="A725" s="1"/>
@@ -10255,6 +11740,8 @@
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
       <c r="K725" s="1"/>
+      <c r="L725" s="1"/>
+      <c r="M725" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="17.25">
       <c r="A726" s="1"/>
@@ -10268,6 +11755,8 @@
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
       <c r="K726" s="1"/>
+      <c r="L726" s="1"/>
+      <c r="M726" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="17.25">
       <c r="A727" s="1"/>
@@ -10281,6 +11770,8 @@
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
       <c r="K727" s="1"/>
+      <c r="L727" s="1"/>
+      <c r="M727" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="17.25">
       <c r="A728" s="1"/>
@@ -10294,6 +11785,8 @@
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
       <c r="K728" s="1"/>
+      <c r="L728" s="1"/>
+      <c r="M728" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="17.25">
       <c r="A729" s="1"/>
@@ -10307,6 +11800,8 @@
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
       <c r="K729" s="1"/>
+      <c r="L729" s="1"/>
+      <c r="M729" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="17.25">
       <c r="A730" s="1"/>
@@ -10320,6 +11815,8 @@
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
       <c r="K730" s="1"/>
+      <c r="L730" s="1"/>
+      <c r="M730" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="17.25">
       <c r="A731" s="1"/>
@@ -10333,6 +11830,8 @@
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
       <c r="K731" s="1"/>
+      <c r="L731" s="1"/>
+      <c r="M731" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="17.25">
       <c r="A732" s="1"/>
@@ -10346,6 +11845,8 @@
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
       <c r="K732" s="1"/>
+      <c r="L732" s="1"/>
+      <c r="M732" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="17.25">
       <c r="A733" s="1"/>
@@ -10359,6 +11860,8 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
       <c r="K733" s="1"/>
+      <c r="L733" s="1"/>
+      <c r="M733" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="17.25">
       <c r="A734" s="1"/>
@@ -10372,6 +11875,8 @@
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
       <c r="K734" s="1"/>
+      <c r="L734" s="1"/>
+      <c r="M734" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="17.25">
       <c r="A735" s="1"/>
@@ -10385,6 +11890,8 @@
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
       <c r="K735" s="1"/>
+      <c r="L735" s="1"/>
+      <c r="M735" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="17.25">
       <c r="A736" s="1"/>
@@ -10398,6 +11905,8 @@
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
       <c r="K736" s="1"/>
+      <c r="L736" s="1"/>
+      <c r="M736" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="17.25">
       <c r="A737" s="1"/>
@@ -10411,6 +11920,8 @@
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
       <c r="K737" s="1"/>
+      <c r="L737" s="1"/>
+      <c r="M737" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="17.25">
       <c r="A738" s="1"/>
@@ -10424,6 +11935,8 @@
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
       <c r="K738" s="1"/>
+      <c r="L738" s="1"/>
+      <c r="M738" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="17.25">
       <c r="A739" s="1"/>
@@ -10437,6 +11950,8 @@
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
       <c r="K739" s="1"/>
+      <c r="L739" s="1"/>
+      <c r="M739" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="17.25">
       <c r="A740" s="1"/>
@@ -10450,6 +11965,8 @@
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
       <c r="K740" s="1"/>
+      <c r="L740" s="1"/>
+      <c r="M740" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="17.25">
       <c r="A741" s="1"/>
@@ -10463,6 +11980,8 @@
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
       <c r="K741" s="1"/>
+      <c r="L741" s="1"/>
+      <c r="M741" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="17.25">
       <c r="A742" s="1"/>
@@ -10476,6 +11995,8 @@
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
       <c r="K742" s="1"/>
+      <c r="L742" s="1"/>
+      <c r="M742" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="17.25">
       <c r="A743" s="1"/>
@@ -10489,6 +12010,8 @@
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
       <c r="K743" s="1"/>
+      <c r="L743" s="1"/>
+      <c r="M743" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="17.25">
       <c r="A744" s="1"/>
@@ -10502,6 +12025,8 @@
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
       <c r="K744" s="1"/>
+      <c r="L744" s="1"/>
+      <c r="M744" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="17.25">
       <c r="A745" s="1"/>
@@ -10515,6 +12040,8 @@
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
       <c r="K745" s="1"/>
+      <c r="L745" s="1"/>
+      <c r="M745" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="17.25">
       <c r="A746" s="1"/>
@@ -10528,6 +12055,8 @@
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
       <c r="K746" s="1"/>
+      <c r="L746" s="1"/>
+      <c r="M746" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="17.25">
       <c r="A747" s="1"/>
@@ -10541,6 +12070,8 @@
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
       <c r="K747" s="1"/>
+      <c r="L747" s="1"/>
+      <c r="M747" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="17.25">
       <c r="A748" s="1"/>
@@ -10554,6 +12085,8 @@
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
       <c r="K748" s="1"/>
+      <c r="L748" s="1"/>
+      <c r="M748" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="17.25">
       <c r="A749" s="1"/>
@@ -10567,6 +12100,8 @@
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
       <c r="K749" s="1"/>
+      <c r="L749" s="1"/>
+      <c r="M749" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="17.25">
       <c r="A750" s="1"/>
@@ -10580,6 +12115,8 @@
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
       <c r="K750" s="1"/>
+      <c r="L750" s="1"/>
+      <c r="M750" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="17.25">
       <c r="A751" s="1"/>
@@ -10593,6 +12130,8 @@
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
       <c r="K751" s="1"/>
+      <c r="L751" s="1"/>
+      <c r="M751" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="17.25">
       <c r="A752" s="1"/>
@@ -10606,6 +12145,8 @@
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
       <c r="K752" s="1"/>
+      <c r="L752" s="1"/>
+      <c r="M752" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="17.25">
       <c r="A753" s="1"/>
@@ -10619,6 +12160,8 @@
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
       <c r="K753" s="1"/>
+      <c r="L753" s="1"/>
+      <c r="M753" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="17.25">
       <c r="A754" s="1"/>
@@ -10632,6 +12175,8 @@
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
       <c r="K754" s="1"/>
+      <c r="L754" s="1"/>
+      <c r="M754" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="17.25">
       <c r="A755" s="1"/>
@@ -10645,6 +12190,8 @@
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
       <c r="K755" s="1"/>
+      <c r="L755" s="1"/>
+      <c r="M755" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="17.25">
       <c r="A756" s="1"/>
@@ -10658,6 +12205,8 @@
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
       <c r="K756" s="1"/>
+      <c r="L756" s="1"/>
+      <c r="M756" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="17.25">
       <c r="A757" s="1"/>
@@ -10671,6 +12220,8 @@
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
       <c r="K757" s="1"/>
+      <c r="L757" s="1"/>
+      <c r="M757" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="17.25">
       <c r="A758" s="1"/>
@@ -10684,6 +12235,8 @@
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
       <c r="K758" s="1"/>
+      <c r="L758" s="1"/>
+      <c r="M758" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="17.25">
       <c r="A759" s="1"/>
@@ -10697,6 +12250,8 @@
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
       <c r="K759" s="1"/>
+      <c r="L759" s="1"/>
+      <c r="M759" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="17.25">
       <c r="A760" s="1"/>
@@ -10710,6 +12265,8 @@
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
       <c r="K760" s="1"/>
+      <c r="L760" s="1"/>
+      <c r="M760" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="17.25">
       <c r="A761" s="1"/>
@@ -10723,6 +12280,8 @@
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
       <c r="K761" s="1"/>
+      <c r="L761" s="1"/>
+      <c r="M761" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="17.25">
       <c r="A762" s="1"/>
@@ -10736,6 +12295,8 @@
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
       <c r="K762" s="1"/>
+      <c r="L762" s="1"/>
+      <c r="M762" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="17.25">
       <c r="A763" s="1"/>
@@ -10749,6 +12310,8 @@
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
       <c r="K763" s="1"/>
+      <c r="L763" s="1"/>
+      <c r="M763" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="17.25">
       <c r="A764" s="1"/>
@@ -10762,6 +12325,8 @@
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
       <c r="K764" s="1"/>
+      <c r="L764" s="1"/>
+      <c r="M764" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="17.25">
       <c r="A765" s="1"/>
@@ -10775,6 +12340,8 @@
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
       <c r="K765" s="1"/>
+      <c r="L765" s="1"/>
+      <c r="M765" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="17.25">
       <c r="A766" s="1"/>
@@ -10788,6 +12355,8 @@
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
       <c r="K766" s="1"/>
+      <c r="L766" s="1"/>
+      <c r="M766" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="17.25">
       <c r="A767" s="1"/>
@@ -10801,6 +12370,8 @@
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
       <c r="K767" s="1"/>
+      <c r="L767" s="1"/>
+      <c r="M767" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="17.25">
       <c r="A768" s="1"/>
@@ -10814,6 +12385,8 @@
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
       <c r="K768" s="1"/>
+      <c r="L768" s="1"/>
+      <c r="M768" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="17.25">
       <c r="A769" s="1"/>
@@ -10827,6 +12400,8 @@
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
       <c r="K769" s="1"/>
+      <c r="L769" s="1"/>
+      <c r="M769" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="17.25">
       <c r="A770" s="1"/>
@@ -10840,6 +12415,8 @@
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
       <c r="K770" s="1"/>
+      <c r="L770" s="1"/>
+      <c r="M770" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="17.25">
       <c r="A771" s="1"/>
@@ -10853,6 +12430,8 @@
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
       <c r="K771" s="1"/>
+      <c r="L771" s="1"/>
+      <c r="M771" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="17.25">
       <c r="A772" s="1"/>
@@ -10866,6 +12445,8 @@
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
       <c r="K772" s="1"/>
+      <c r="L772" s="1"/>
+      <c r="M772" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="17.25">
       <c r="A773" s="1"/>
@@ -10879,6 +12460,8 @@
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
       <c r="K773" s="1"/>
+      <c r="L773" s="1"/>
+      <c r="M773" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="17.25">
       <c r="A774" s="1"/>
@@ -10892,6 +12475,8 @@
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
       <c r="K774" s="1"/>
+      <c r="L774" s="1"/>
+      <c r="M774" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="17.25">
       <c r="A775" s="1"/>
@@ -10905,6 +12490,8 @@
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
       <c r="K775" s="1"/>
+      <c r="L775" s="1"/>
+      <c r="M775" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="17.25">
       <c r="A776" s="1"/>
@@ -10918,6 +12505,8 @@
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
       <c r="K776" s="1"/>
+      <c r="L776" s="1"/>
+      <c r="M776" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="17.25">
       <c r="A777" s="1"/>
@@ -10931,6 +12520,8 @@
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
       <c r="K777" s="1"/>
+      <c r="L777" s="1"/>
+      <c r="M777" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="17.25">
       <c r="A778" s="1"/>
@@ -10944,6 +12535,8 @@
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
       <c r="K778" s="1"/>
+      <c r="L778" s="1"/>
+      <c r="M778" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="17.25">
       <c r="A779" s="1"/>
@@ -10957,6 +12550,8 @@
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
       <c r="K779" s="1"/>
+      <c r="L779" s="1"/>
+      <c r="M779" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="17.25">
       <c r="A780" s="1"/>
@@ -10970,6 +12565,8 @@
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
       <c r="K780" s="1"/>
+      <c r="L780" s="1"/>
+      <c r="M780" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="17.25">
       <c r="A781" s="1"/>
@@ -10983,6 +12580,8 @@
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
       <c r="K781" s="1"/>
+      <c r="L781" s="1"/>
+      <c r="M781" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="17.25">
       <c r="A782" s="1"/>
@@ -10996,6 +12595,8 @@
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
       <c r="K782" s="1"/>
+      <c r="L782" s="1"/>
+      <c r="M782" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="17.25">
       <c r="A783" s="1"/>
@@ -11009,6 +12610,8 @@
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
       <c r="K783" s="1"/>
+      <c r="L783" s="1"/>
+      <c r="M783" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="17.25">
       <c r="A784" s="1"/>
@@ -11022,6 +12625,8 @@
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
       <c r="K784" s="1"/>
+      <c r="L784" s="1"/>
+      <c r="M784" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="17.25">
       <c r="A785" s="1"/>
@@ -11035,6 +12640,8 @@
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
       <c r="K785" s="1"/>
+      <c r="L785" s="1"/>
+      <c r="M785" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="17.25">
       <c r="A786" s="1"/>
@@ -11048,6 +12655,8 @@
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
       <c r="K786" s="1"/>
+      <c r="L786" s="1"/>
+      <c r="M786" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="17.25">
       <c r="A787" s="1"/>
@@ -11061,6 +12670,8 @@
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
       <c r="K787" s="1"/>
+      <c r="L787" s="1"/>
+      <c r="M787" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="17.25">
       <c r="A788" s="1"/>
@@ -11074,6 +12685,8 @@
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
       <c r="K788" s="1"/>
+      <c r="L788" s="1"/>
+      <c r="M788" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="17.25">
       <c r="A789" s="1"/>
@@ -11087,6 +12700,8 @@
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
       <c r="K789" s="1"/>
+      <c r="L789" s="1"/>
+      <c r="M789" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="17.25">
       <c r="A790" s="1"/>
@@ -11100,6 +12715,8 @@
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
       <c r="K790" s="1"/>
+      <c r="L790" s="1"/>
+      <c r="M790" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="17.25">
       <c r="A791" s="1"/>
@@ -11113,6 +12730,8 @@
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
       <c r="K791" s="1"/>
+      <c r="L791" s="1"/>
+      <c r="M791" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="17.25">
       <c r="A792" s="1"/>
@@ -11126,6 +12745,8 @@
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
       <c r="K792" s="1"/>
+      <c r="L792" s="1"/>
+      <c r="M792" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="17.25">
       <c r="A793" s="1"/>
@@ -11139,6 +12760,8 @@
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
       <c r="K793" s="1"/>
+      <c r="L793" s="1"/>
+      <c r="M793" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="17.25">
       <c r="A794" s="1"/>
@@ -11152,6 +12775,8 @@
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
       <c r="K794" s="1"/>
+      <c r="L794" s="1"/>
+      <c r="M794" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="17.25">
       <c r="A795" s="1"/>
@@ -11165,6 +12790,8 @@
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
       <c r="K795" s="1"/>
+      <c r="L795" s="1"/>
+      <c r="M795" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="17.25">
       <c r="A796" s="1"/>
@@ -11178,6 +12805,8 @@
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
       <c r="K796" s="1"/>
+      <c r="L796" s="1"/>
+      <c r="M796" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="17.25">
       <c r="A797" s="1"/>
@@ -11191,6 +12820,8 @@
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
       <c r="K797" s="1"/>
+      <c r="L797" s="1"/>
+      <c r="M797" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="17.25">
       <c r="A798" s="1"/>
@@ -11204,6 +12835,8 @@
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
       <c r="K798" s="1"/>
+      <c r="L798" s="1"/>
+      <c r="M798" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="17.25">
       <c r="A799" s="1"/>
@@ -11217,6 +12850,8 @@
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
       <c r="K799" s="1"/>
+      <c r="L799" s="1"/>
+      <c r="M799" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="17.25">
       <c r="A800" s="1"/>
@@ -11230,6 +12865,8 @@
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
       <c r="K800" s="1"/>
+      <c r="L800" s="1"/>
+      <c r="M800" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="17.25">
       <c r="A801" s="1"/>
@@ -11243,6 +12880,8 @@
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
       <c r="K801" s="1"/>
+      <c r="L801" s="1"/>
+      <c r="M801" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="17.25">
       <c r="A802" s="1"/>
@@ -11256,6 +12895,8 @@
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
       <c r="K802" s="1"/>
+      <c r="L802" s="1"/>
+      <c r="M802" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="17.25">
       <c r="A803" s="1"/>
@@ -11269,6 +12910,8 @@
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
       <c r="K803" s="1"/>
+      <c r="L803" s="1"/>
+      <c r="M803" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="17.25">
       <c r="A804" s="1"/>
@@ -11282,6 +12925,8 @@
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
       <c r="K804" s="1"/>
+      <c r="L804" s="1"/>
+      <c r="M804" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="17.25">
       <c r="A805" s="1"/>
@@ -11295,6 +12940,8 @@
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
       <c r="K805" s="1"/>
+      <c r="L805" s="1"/>
+      <c r="M805" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="17.25">
       <c r="A806" s="1"/>
@@ -11308,6 +12955,8 @@
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
       <c r="K806" s="1"/>
+      <c r="L806" s="1"/>
+      <c r="M806" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="17.25">
       <c r="A807" s="1"/>
@@ -11321,6 +12970,8 @@
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
       <c r="K807" s="1"/>
+      <c r="L807" s="1"/>
+      <c r="M807" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="17.25">
       <c r="A808" s="1"/>
@@ -11334,6 +12985,8 @@
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
       <c r="K808" s="1"/>
+      <c r="L808" s="1"/>
+      <c r="M808" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="17.25">
       <c r="A809" s="1"/>
@@ -11347,6 +13000,8 @@
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
       <c r="K809" s="1"/>
+      <c r="L809" s="1"/>
+      <c r="M809" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="17.25">
       <c r="A810" s="1"/>
@@ -11360,6 +13015,8 @@
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
       <c r="K810" s="1"/>
+      <c r="L810" s="1"/>
+      <c r="M810" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="17.25">
       <c r="A811" s="1"/>
@@ -11373,6 +13030,8 @@
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
       <c r="K811" s="1"/>
+      <c r="L811" s="1"/>
+      <c r="M811" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="17.25">
       <c r="A812" s="1"/>
@@ -11386,6 +13045,8 @@
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
       <c r="K812" s="1"/>
+      <c r="L812" s="1"/>
+      <c r="M812" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="17.25">
       <c r="A813" s="1"/>
@@ -11399,6 +13060,8 @@
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
       <c r="K813" s="1"/>
+      <c r="L813" s="1"/>
+      <c r="M813" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="17.25">
       <c r="A814" s="1"/>
@@ -11412,6 +13075,8 @@
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
       <c r="K814" s="1"/>
+      <c r="L814" s="1"/>
+      <c r="M814" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="17.25">
       <c r="A815" s="1"/>
@@ -11425,6 +13090,8 @@
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
       <c r="K815" s="1"/>
+      <c r="L815" s="1"/>
+      <c r="M815" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="17.25">
       <c r="A816" s="1"/>
@@ -11438,6 +13105,8 @@
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
       <c r="K816" s="1"/>
+      <c r="L816" s="1"/>
+      <c r="M816" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="17.25">
       <c r="A817" s="1"/>
@@ -11451,6 +13120,8 @@
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
       <c r="K817" s="1"/>
+      <c r="L817" s="1"/>
+      <c r="M817" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="17.25">
       <c r="A818" s="1"/>
@@ -11464,6 +13135,8 @@
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
       <c r="K818" s="1"/>
+      <c r="L818" s="1"/>
+      <c r="M818" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="17.25">
       <c r="A819" s="1"/>
@@ -11477,6 +13150,8 @@
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
       <c r="K819" s="1"/>
+      <c r="L819" s="1"/>
+      <c r="M819" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="17.25">
       <c r="A820" s="1"/>
@@ -11490,6 +13165,8 @@
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
       <c r="K820" s="1"/>
+      <c r="L820" s="1"/>
+      <c r="M820" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="17.25">
       <c r="A821" s="1"/>
@@ -11503,6 +13180,8 @@
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
       <c r="K821" s="1"/>
+      <c r="L821" s="1"/>
+      <c r="M821" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="17.25">
       <c r="A822" s="1"/>
@@ -11516,6 +13195,8 @@
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
       <c r="K822" s="1"/>
+      <c r="L822" s="1"/>
+      <c r="M822" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="17.25">
       <c r="A823" s="1"/>
@@ -11529,6 +13210,8 @@
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
       <c r="K823" s="1"/>
+      <c r="L823" s="1"/>
+      <c r="M823" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="17.25">
       <c r="A824" s="1"/>
@@ -11542,6 +13225,8 @@
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
       <c r="K824" s="1"/>
+      <c r="L824" s="1"/>
+      <c r="M824" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="17.25">
       <c r="A825" s="1"/>
@@ -11555,6 +13240,8 @@
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
       <c r="K825" s="1"/>
+      <c r="L825" s="1"/>
+      <c r="M825" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="17.25">
       <c r="A826" s="1"/>
@@ -11568,6 +13255,8 @@
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
       <c r="K826" s="1"/>
+      <c r="L826" s="1"/>
+      <c r="M826" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="17.25">
       <c r="A827" s="1"/>
@@ -11581,6 +13270,8 @@
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
       <c r="K827" s="1"/>
+      <c r="L827" s="1"/>
+      <c r="M827" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="17.25">
       <c r="A828" s="1"/>
@@ -11594,6 +13285,8 @@
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
       <c r="K828" s="1"/>
+      <c r="L828" s="1"/>
+      <c r="M828" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="17.25">
       <c r="A829" s="1"/>
@@ -11607,6 +13300,8 @@
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
       <c r="K829" s="1"/>
+      <c r="L829" s="1"/>
+      <c r="M829" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="17.25">
       <c r="A830" s="1"/>
@@ -11620,6 +13315,8 @@
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
       <c r="K830" s="1"/>
+      <c r="L830" s="1"/>
+      <c r="M830" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="17.25">
       <c r="A831" s="1"/>
@@ -11633,6 +13330,8 @@
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
       <c r="K831" s="1"/>
+      <c r="L831" s="1"/>
+      <c r="M831" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="17.25">
       <c r="A832" s="1"/>
@@ -11646,6 +13345,8 @@
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
       <c r="K832" s="1"/>
+      <c r="L832" s="1"/>
+      <c r="M832" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="17.25">
       <c r="A833" s="1"/>
@@ -11659,6 +13360,8 @@
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
       <c r="K833" s="1"/>
+      <c r="L833" s="1"/>
+      <c r="M833" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="17.25">
       <c r="A834" s="1"/>
@@ -11672,6 +13375,8 @@
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
       <c r="K834" s="1"/>
+      <c r="L834" s="1"/>
+      <c r="M834" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="17.25">
       <c r="A835" s="1"/>
@@ -11685,6 +13390,8 @@
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
       <c r="K835" s="1"/>
+      <c r="L835" s="1"/>
+      <c r="M835" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="17.25">
       <c r="A836" s="1"/>
@@ -11698,6 +13405,8 @@
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
       <c r="K836" s="1"/>
+      <c r="L836" s="1"/>
+      <c r="M836" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="17.25">
       <c r="A837" s="1"/>
@@ -11711,6 +13420,8 @@
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
       <c r="K837" s="1"/>
+      <c r="L837" s="1"/>
+      <c r="M837" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="17.25">
       <c r="A838" s="1"/>
@@ -11724,6 +13435,8 @@
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
       <c r="K838" s="1"/>
+      <c r="L838" s="1"/>
+      <c r="M838" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="17.25">
       <c r="A839" s="1"/>
@@ -11737,6 +13450,8 @@
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
       <c r="K839" s="1"/>
+      <c r="L839" s="1"/>
+      <c r="M839" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="17.25">
       <c r="A840" s="1"/>
@@ -11750,6 +13465,8 @@
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
       <c r="K840" s="1"/>
+      <c r="L840" s="1"/>
+      <c r="M840" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="17.25">
       <c r="A841" s="1"/>
@@ -11763,6 +13480,8 @@
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
       <c r="K841" s="1"/>
+      <c r="L841" s="1"/>
+      <c r="M841" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="17.25">
       <c r="A842" s="1"/>
@@ -11776,6 +13495,8 @@
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
       <c r="K842" s="1"/>
+      <c r="L842" s="1"/>
+      <c r="M842" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="17.25">
       <c r="A843" s="1"/>
@@ -11789,6 +13510,8 @@
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
       <c r="K843" s="1"/>
+      <c r="L843" s="1"/>
+      <c r="M843" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="17.25">
       <c r="A844" s="1"/>
@@ -11802,6 +13525,8 @@
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
       <c r="K844" s="1"/>
+      <c r="L844" s="1"/>
+      <c r="M844" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="17.25">
       <c r="A845" s="1"/>
@@ -11815,6 +13540,8 @@
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
       <c r="K845" s="1"/>
+      <c r="L845" s="1"/>
+      <c r="M845" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="17.25">
       <c r="A846" s="1"/>
@@ -11828,6 +13555,8 @@
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
       <c r="K846" s="1"/>
+      <c r="L846" s="1"/>
+      <c r="M846" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="17.25">
       <c r="A847" s="1"/>
@@ -11841,6 +13570,8 @@
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
       <c r="K847" s="1"/>
+      <c r="L847" s="1"/>
+      <c r="M847" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="17.25">
       <c r="A848" s="1"/>
@@ -11854,6 +13585,8 @@
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
       <c r="K848" s="1"/>
+      <c r="L848" s="1"/>
+      <c r="M848" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="17.25">
       <c r="A849" s="1"/>
@@ -11867,6 +13600,8 @@
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
       <c r="K849" s="1"/>
+      <c r="L849" s="1"/>
+      <c r="M849" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="17.25">
       <c r="A850" s="1"/>
@@ -11880,6 +13615,8 @@
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
       <c r="K850" s="1"/>
+      <c r="L850" s="1"/>
+      <c r="M850" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="17.25">
       <c r="A851" s="1"/>
@@ -11893,6 +13630,8 @@
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
       <c r="K851" s="1"/>
+      <c r="L851" s="1"/>
+      <c r="M851" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="17.25">
       <c r="A852" s="1"/>
@@ -11906,6 +13645,8 @@
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
       <c r="K852" s="1"/>
+      <c r="L852" s="1"/>
+      <c r="M852" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="17.25">
       <c r="A853" s="1"/>
@@ -11919,6 +13660,8 @@
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
       <c r="K853" s="1"/>
+      <c r="L853" s="1"/>
+      <c r="M853" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="17.25">
       <c r="A854" s="1"/>
@@ -11932,6 +13675,8 @@
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
       <c r="K854" s="1"/>
+      <c r="L854" s="1"/>
+      <c r="M854" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="17.25">
       <c r="A855" s="1"/>
@@ -11945,6 +13690,8 @@
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
       <c r="K855" s="1"/>
+      <c r="L855" s="1"/>
+      <c r="M855" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="17.25">
       <c r="A856" s="1"/>
@@ -11958,6 +13705,8 @@
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
       <c r="K856" s="1"/>
+      <c r="L856" s="1"/>
+      <c r="M856" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="17.25">
       <c r="A857" s="1"/>
@@ -11971,6 +13720,8 @@
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
       <c r="K857" s="1"/>
+      <c r="L857" s="1"/>
+      <c r="M857" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="17.25">
       <c r="A858" s="1"/>
@@ -11984,6 +13735,8 @@
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
       <c r="K858" s="1"/>
+      <c r="L858" s="1"/>
+      <c r="M858" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="17.25">
       <c r="A859" s="1"/>
@@ -11997,6 +13750,8 @@
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
       <c r="K859" s="1"/>
+      <c r="L859" s="1"/>
+      <c r="M859" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="17.25">
       <c r="A860" s="1"/>
@@ -12010,6 +13765,8 @@
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
       <c r="K860" s="1"/>
+      <c r="L860" s="1"/>
+      <c r="M860" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="17.25">
       <c r="A861" s="1"/>
@@ -12023,6 +13780,8 @@
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
       <c r="K861" s="1"/>
+      <c r="L861" s="1"/>
+      <c r="M861" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="17.25">
       <c r="A862" s="1"/>
@@ -12036,6 +13795,8 @@
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
       <c r="K862" s="1"/>
+      <c r="L862" s="1"/>
+      <c r="M862" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="17.25">
       <c r="A863" s="1"/>
@@ -12049,6 +13810,8 @@
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
       <c r="K863" s="1"/>
+      <c r="L863" s="1"/>
+      <c r="M863" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="17.25">
       <c r="A864" s="1"/>
@@ -12062,6 +13825,8 @@
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
       <c r="K864" s="1"/>
+      <c r="L864" s="1"/>
+      <c r="M864" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="17.25">
       <c r="A865" s="1"/>
@@ -12075,6 +13840,8 @@
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
       <c r="K865" s="1"/>
+      <c r="L865" s="1"/>
+      <c r="M865" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="17.25">
       <c r="A866" s="1"/>
@@ -12088,6 +13855,8 @@
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
       <c r="K866" s="1"/>
+      <c r="L866" s="1"/>
+      <c r="M866" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="17.25">
       <c r="A867" s="1"/>
@@ -12101,6 +13870,8 @@
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
       <c r="K867" s="1"/>
+      <c r="L867" s="1"/>
+      <c r="M867" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="17.25">
       <c r="A868" s="1"/>
@@ -12114,6 +13885,8 @@
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
       <c r="K868" s="1"/>
+      <c r="L868" s="1"/>
+      <c r="M868" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="17.25">
       <c r="A869" s="1"/>
@@ -12127,6 +13900,8 @@
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
       <c r="K869" s="1"/>
+      <c r="L869" s="1"/>
+      <c r="M869" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="17.25">
       <c r="A870" s="1"/>
@@ -12140,6 +13915,8 @@
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
       <c r="K870" s="1"/>
+      <c r="L870" s="1"/>
+      <c r="M870" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="17.25">
       <c r="A871" s="1"/>
@@ -12153,6 +13930,8 @@
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
       <c r="K871" s="1"/>
+      <c r="L871" s="1"/>
+      <c r="M871" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="17.25">
       <c r="A872" s="1"/>
@@ -12166,6 +13945,8 @@
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
       <c r="K872" s="1"/>
+      <c r="L872" s="1"/>
+      <c r="M872" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="17.25">
       <c r="A873" s="1"/>
@@ -12179,6 +13960,8 @@
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
       <c r="K873" s="1"/>
+      <c r="L873" s="1"/>
+      <c r="M873" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="17.25">
       <c r="A874" s="1"/>
@@ -12192,6 +13975,8 @@
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
       <c r="K874" s="1"/>
+      <c r="L874" s="1"/>
+      <c r="M874" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="17.25">
       <c r="A875" s="1"/>
@@ -12205,6 +13990,8 @@
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
       <c r="K875" s="1"/>
+      <c r="L875" s="1"/>
+      <c r="M875" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="17.25">
       <c r="A876" s="1"/>
@@ -12218,6 +14005,8 @@
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
       <c r="K876" s="1"/>
+      <c r="L876" s="1"/>
+      <c r="M876" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="17.25">
       <c r="A877" s="1"/>
@@ -12231,6 +14020,8 @@
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
       <c r="K877" s="1"/>
+      <c r="L877" s="1"/>
+      <c r="M877" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="17.25">
       <c r="A878" s="1"/>
@@ -12244,6 +14035,8 @@
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
       <c r="K878" s="1"/>
+      <c r="L878" s="1"/>
+      <c r="M878" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="17.25">
       <c r="A879" s="1"/>
@@ -12257,6 +14050,8 @@
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
       <c r="K879" s="1"/>
+      <c r="L879" s="1"/>
+      <c r="M879" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="17.25">
       <c r="A880" s="1"/>
@@ -12270,6 +14065,8 @@
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
       <c r="K880" s="1"/>
+      <c r="L880" s="1"/>
+      <c r="M880" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="17.25">
       <c r="A881" s="1"/>
@@ -12283,6 +14080,8 @@
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
       <c r="K881" s="1"/>
+      <c r="L881" s="1"/>
+      <c r="M881" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="17.25">
       <c r="A882" s="1"/>
@@ -12296,6 +14095,8 @@
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
       <c r="K882" s="1"/>
+      <c r="L882" s="1"/>
+      <c r="M882" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="17.25">
       <c r="A883" s="1"/>
@@ -12309,6 +14110,8 @@
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
       <c r="K883" s="1"/>
+      <c r="L883" s="1"/>
+      <c r="M883" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="17.25">
       <c r="A884" s="1"/>
@@ -12322,6 +14125,8 @@
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
       <c r="K884" s="1"/>
+      <c r="L884" s="1"/>
+      <c r="M884" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="17.25">
       <c r="A885" s="1"/>
@@ -12335,6 +14140,8 @@
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
       <c r="K885" s="1"/>
+      <c r="L885" s="1"/>
+      <c r="M885" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="17.25">
       <c r="A886" s="1"/>
@@ -12348,6 +14155,8 @@
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
       <c r="K886" s="1"/>
+      <c r="L886" s="1"/>
+      <c r="M886" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="17.25">
       <c r="A887" s="1"/>
@@ -12361,6 +14170,8 @@
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
       <c r="K887" s="1"/>
+      <c r="L887" s="1"/>
+      <c r="M887" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="17.25">
       <c r="A888" s="1"/>
@@ -12374,6 +14185,8 @@
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
       <c r="K888" s="1"/>
+      <c r="L888" s="1"/>
+      <c r="M888" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="17.25">
       <c r="A889" s="1"/>
@@ -12387,6 +14200,8 @@
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
       <c r="K889" s="1"/>
+      <c r="L889" s="1"/>
+      <c r="M889" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="17.25">
       <c r="A890" s="1"/>
@@ -12400,6 +14215,8 @@
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
       <c r="K890" s="1"/>
+      <c r="L890" s="1"/>
+      <c r="M890" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="17.25">
       <c r="A891" s="1"/>
@@ -12413,6 +14230,8 @@
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
       <c r="K891" s="1"/>
+      <c r="L891" s="1"/>
+      <c r="M891" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="17.25">
       <c r="A892" s="1"/>
@@ -12426,6 +14245,8 @@
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
       <c r="K892" s="1"/>
+      <c r="L892" s="1"/>
+      <c r="M892" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="17.25">
       <c r="A893" s="1"/>
@@ -12439,6 +14260,8 @@
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
       <c r="K893" s="1"/>
+      <c r="L893" s="1"/>
+      <c r="M893" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="17.25">
       <c r="A894" s="1"/>
@@ -12452,6 +14275,8 @@
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
       <c r="K894" s="1"/>
+      <c r="L894" s="1"/>
+      <c r="M894" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="17.25">
       <c r="A895" s="1"/>
@@ -12465,6 +14290,8 @@
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
       <c r="K895" s="1"/>
+      <c r="L895" s="1"/>
+      <c r="M895" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="17.25">
       <c r="A896" s="1"/>
@@ -12478,6 +14305,8 @@
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
       <c r="K896" s="1"/>
+      <c r="L896" s="1"/>
+      <c r="M896" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="17.25">
       <c r="A897" s="1"/>
@@ -12491,6 +14320,8 @@
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
       <c r="K897" s="1"/>
+      <c r="L897" s="1"/>
+      <c r="M897" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="17.25">
       <c r="A898" s="1"/>
@@ -12504,6 +14335,8 @@
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
       <c r="K898" s="1"/>
+      <c r="L898" s="1"/>
+      <c r="M898" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="17.25">
       <c r="A899" s="1"/>
@@ -12517,6 +14350,8 @@
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
       <c r="K899" s="1"/>
+      <c r="L899" s="1"/>
+      <c r="M899" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="17.25">
       <c r="A900" s="1"/>
@@ -12530,6 +14365,8 @@
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
       <c r="K900" s="1"/>
+      <c r="L900" s="1"/>
+      <c r="M900" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="17.25">
       <c r="A901" s="1"/>
@@ -12543,6 +14380,8 @@
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
       <c r="K901" s="1"/>
+      <c r="L901" s="1"/>
+      <c r="M901" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="17.25">
       <c r="A902" s="1"/>
@@ -12556,6 +14395,8 @@
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
       <c r="K902" s="1"/>
+      <c r="L902" s="1"/>
+      <c r="M902" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="17.25">
       <c r="A903" s="1"/>
@@ -12569,6 +14410,8 @@
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
       <c r="K903" s="1"/>
+      <c r="L903" s="1"/>
+      <c r="M903" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="17.25">
       <c r="A904" s="1"/>
@@ -12582,6 +14425,8 @@
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
       <c r="K904" s="1"/>
+      <c r="L904" s="1"/>
+      <c r="M904" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="17.25">
       <c r="A905" s="1"/>
@@ -12595,6 +14440,8 @@
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
       <c r="K905" s="1"/>
+      <c r="L905" s="1"/>
+      <c r="M905" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="17.25">
       <c r="A906" s="1"/>
@@ -12608,6 +14455,8 @@
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
       <c r="K906" s="1"/>
+      <c r="L906" s="1"/>
+      <c r="M906" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="17.25">
       <c r="A907" s="1"/>
@@ -12621,6 +14470,8 @@
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
       <c r="K907" s="1"/>
+      <c r="L907" s="1"/>
+      <c r="M907" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="17.25">
       <c r="A908" s="1"/>
@@ -12634,6 +14485,8 @@
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
       <c r="K908" s="1"/>
+      <c r="L908" s="1"/>
+      <c r="M908" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="17.25">
       <c r="A909" s="1"/>
@@ -12647,6 +14500,8 @@
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
       <c r="K909" s="1"/>
+      <c r="L909" s="1"/>
+      <c r="M909" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="17.25">
       <c r="A910" s="1"/>
@@ -12660,6 +14515,8 @@
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
       <c r="K910" s="1"/>
+      <c r="L910" s="1"/>
+      <c r="M910" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="17.25">
       <c r="A911" s="1"/>
@@ -12673,6 +14530,8 @@
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
       <c r="K911" s="1"/>
+      <c r="L911" s="1"/>
+      <c r="M911" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="17.25">
       <c r="A912" s="1"/>
@@ -12686,6 +14545,8 @@
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
       <c r="K912" s="1"/>
+      <c r="L912" s="1"/>
+      <c r="M912" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="17.25">
       <c r="A913" s="1"/>
@@ -12699,6 +14560,8 @@
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
       <c r="K913" s="1"/>
+      <c r="L913" s="1"/>
+      <c r="M913" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="17.25">
       <c r="A914" s="1"/>
@@ -12712,6 +14575,8 @@
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
       <c r="K914" s="1"/>
+      <c r="L914" s="1"/>
+      <c r="M914" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="17.25">
       <c r="A915" s="1"/>
@@ -12725,6 +14590,8 @@
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
       <c r="K915" s="1"/>
+      <c r="L915" s="1"/>
+      <c r="M915" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="17.25">
       <c r="A916" s="1"/>
@@ -12738,6 +14605,8 @@
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
       <c r="K916" s="1"/>
+      <c r="L916" s="1"/>
+      <c r="M916" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="17.25">
       <c r="A917" s="1"/>
@@ -12751,6 +14620,8 @@
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
       <c r="K917" s="1"/>
+      <c r="L917" s="1"/>
+      <c r="M917" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="17.25">
       <c r="A918" s="1"/>
@@ -12764,6 +14635,8 @@
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
       <c r="K918" s="1"/>
+      <c r="L918" s="1"/>
+      <c r="M918" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="17.25">
       <c r="A919" s="1"/>
@@ -12777,6 +14650,8 @@
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
       <c r="K919" s="1"/>
+      <c r="L919" s="1"/>
+      <c r="M919" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="17.25">
       <c r="A920" s="1"/>
@@ -12790,6 +14665,8 @@
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
       <c r="K920" s="1"/>
+      <c r="L920" s="1"/>
+      <c r="M920" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="17.25">
       <c r="A921" s="1"/>
@@ -12803,6 +14680,8 @@
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
       <c r="K921" s="1"/>
+      <c r="L921" s="1"/>
+      <c r="M921" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="17.25">
       <c r="A922" s="1"/>
@@ -12816,6 +14695,8 @@
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
       <c r="K922" s="1"/>
+      <c r="L922" s="1"/>
+      <c r="M922" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="17.25">
       <c r="A923" s="1"/>
@@ -12829,6 +14710,8 @@
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
       <c r="K923" s="1"/>
+      <c r="L923" s="1"/>
+      <c r="M923" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="17.25">
       <c r="A924" s="1"/>
@@ -12842,6 +14725,8 @@
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
       <c r="K924" s="1"/>
+      <c r="L924" s="1"/>
+      <c r="M924" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="17.25">
       <c r="A925" s="1"/>
@@ -12855,6 +14740,8 @@
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
       <c r="K925" s="1"/>
+      <c r="L925" s="1"/>
+      <c r="M925" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="17.25">
       <c r="A926" s="1"/>
@@ -12868,6 +14755,8 @@
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
       <c r="K926" s="1"/>
+      <c r="L926" s="1"/>
+      <c r="M926" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="17.25">
       <c r="A927" s="1"/>
@@ -12881,6 +14770,8 @@
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
       <c r="K927" s="1"/>
+      <c r="L927" s="1"/>
+      <c r="M927" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="17.25">
       <c r="A928" s="1"/>
@@ -12894,6 +14785,8 @@
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
       <c r="K928" s="1"/>
+      <c r="L928" s="1"/>
+      <c r="M928" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="17.25">
       <c r="A929" s="1"/>
@@ -12907,6 +14800,8 @@
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
       <c r="K929" s="1"/>
+      <c r="L929" s="1"/>
+      <c r="M929" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="17.25">
       <c r="A930" s="1"/>
@@ -12920,6 +14815,8 @@
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
       <c r="K930" s="1"/>
+      <c r="L930" s="1"/>
+      <c r="M930" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="17.25">
       <c r="A931" s="1"/>
@@ -12933,6 +14830,8 @@
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
       <c r="K931" s="1"/>
+      <c r="L931" s="1"/>
+      <c r="M931" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="17.25">
       <c r="A932" s="1"/>
@@ -12946,6 +14845,8 @@
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
       <c r="K932" s="1"/>
+      <c r="L932" s="1"/>
+      <c r="M932" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="17.25">
       <c r="A933" s="1"/>
@@ -12959,6 +14860,8 @@
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
       <c r="K933" s="1"/>
+      <c r="L933" s="1"/>
+      <c r="M933" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="17.25">
       <c r="A934" s="1"/>
@@ -12972,6 +14875,8 @@
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
       <c r="K934" s="1"/>
+      <c r="L934" s="1"/>
+      <c r="M934" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="17.25">
       <c r="A935" s="1"/>
@@ -12985,6 +14890,8 @@
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
       <c r="K935" s="1"/>
+      <c r="L935" s="1"/>
+      <c r="M935" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="17.25">
       <c r="A936" s="1"/>
@@ -12998,6 +14905,8 @@
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
       <c r="K936" s="1"/>
+      <c r="L936" s="1"/>
+      <c r="M936" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="17.25">
       <c r="A937" s="1"/>
@@ -13011,6 +14920,8 @@
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
       <c r="K937" s="1"/>
+      <c r="L937" s="1"/>
+      <c r="M937" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="17.25">
       <c r="A938" s="1"/>
@@ -13024,6 +14935,8 @@
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
       <c r="K938" s="1"/>
+      <c r="L938" s="1"/>
+      <c r="M938" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="17.25">
       <c r="A939" s="1"/>
@@ -13037,6 +14950,8 @@
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
       <c r="K939" s="1"/>
+      <c r="L939" s="1"/>
+      <c r="M939" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="17.25">
       <c r="A940" s="1"/>
@@ -13050,6 +14965,8 @@
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
       <c r="K940" s="1"/>
+      <c r="L940" s="1"/>
+      <c r="M940" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="17.25">
       <c r="A941" s="1"/>
@@ -13063,6 +14980,8 @@
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
       <c r="K941" s="1"/>
+      <c r="L941" s="1"/>
+      <c r="M941" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="17.25">
       <c r="A942" s="1"/>
@@ -13076,6 +14995,8 @@
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
       <c r="K942" s="1"/>
+      <c r="L942" s="1"/>
+      <c r="M942" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="17.25">
       <c r="A943" s="1"/>
@@ -13089,6 +15010,8 @@
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
       <c r="K943" s="1"/>
+      <c r="L943" s="1"/>
+      <c r="M943" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="17.25">
       <c r="A944" s="1"/>
@@ -13102,6 +15025,8 @@
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
       <c r="K944" s="1"/>
+      <c r="L944" s="1"/>
+      <c r="M944" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="17.25">
       <c r="A945" s="1"/>
@@ -13115,6 +15040,8 @@
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
       <c r="K945" s="1"/>
+      <c r="L945" s="1"/>
+      <c r="M945" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="17.25">
       <c r="A946" s="1"/>
@@ -13128,6 +15055,8 @@
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
       <c r="K946" s="1"/>
+      <c r="L946" s="1"/>
+      <c r="M946" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="17.25">
       <c r="A947" s="1"/>
@@ -13141,6 +15070,8 @@
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
       <c r="K947" s="1"/>
+      <c r="L947" s="1"/>
+      <c r="M947" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="17.25">
       <c r="A948" s="1"/>
@@ -13154,6 +15085,8 @@
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
       <c r="K948" s="1"/>
+      <c r="L948" s="1"/>
+      <c r="M948" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="17.25">
       <c r="A949" s="1"/>
@@ -13167,6 +15100,8 @@
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
       <c r="K949" s="1"/>
+      <c r="L949" s="1"/>
+      <c r="M949" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="17.25">
       <c r="A950" s="1"/>
@@ -13180,6 +15115,8 @@
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
       <c r="K950" s="1"/>
+      <c r="L950" s="1"/>
+      <c r="M950" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="17.25">
       <c r="A951" s="1"/>
@@ -13193,6 +15130,8 @@
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
       <c r="K951" s="1"/>
+      <c r="L951" s="1"/>
+      <c r="M951" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="17.25">
       <c r="A952" s="1"/>
@@ -13206,6 +15145,8 @@
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
       <c r="K952" s="1"/>
+      <c r="L952" s="1"/>
+      <c r="M952" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="17.25">
       <c r="A953" s="1"/>
@@ -13219,6 +15160,8 @@
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
       <c r="K953" s="1"/>
+      <c r="L953" s="1"/>
+      <c r="M953" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="17.25">
       <c r="A954" s="1"/>
@@ -13232,6 +15175,8 @@
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
       <c r="K954" s="1"/>
+      <c r="L954" s="1"/>
+      <c r="M954" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="17.25">
       <c r="A955" s="1"/>
@@ -13245,6 +15190,8 @@
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
       <c r="K955" s="1"/>
+      <c r="L955" s="1"/>
+      <c r="M955" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="17.25">
       <c r="A956" s="1"/>
@@ -13258,6 +15205,8 @@
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
       <c r="K956" s="1"/>
+      <c r="L956" s="1"/>
+      <c r="M956" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="17.25">
       <c r="A957" s="1"/>
@@ -13271,6 +15220,8 @@
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
       <c r="K957" s="1"/>
+      <c r="L957" s="1"/>
+      <c r="M957" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="17.25">
       <c r="A958" s="1"/>
@@ -13284,6 +15235,8 @@
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
       <c r="K958" s="1"/>
+      <c r="L958" s="1"/>
+      <c r="M958" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="17.25">
       <c r="A959" s="1"/>
@@ -13297,6 +15250,8 @@
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
       <c r="K959" s="1"/>
+      <c r="L959" s="1"/>
+      <c r="M959" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="17.25">
       <c r="A960" s="1"/>
@@ -13310,6 +15265,8 @@
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
       <c r="K960" s="1"/>
+      <c r="L960" s="1"/>
+      <c r="M960" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="17.25">
       <c r="A961" s="1"/>
@@ -13323,6 +15280,8 @@
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
       <c r="K961" s="1"/>
+      <c r="L961" s="1"/>
+      <c r="M961" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="17.25">
       <c r="A962" s="1"/>
@@ -13336,6 +15295,8 @@
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
       <c r="K962" s="1"/>
+      <c r="L962" s="1"/>
+      <c r="M962" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="17.25">
       <c r="A963" s="1"/>
@@ -13349,6 +15310,8 @@
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
       <c r="K963" s="1"/>
+      <c r="L963" s="1"/>
+      <c r="M963" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="17.25">
       <c r="A964" s="1"/>
@@ -13362,6 +15325,8 @@
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
       <c r="K964" s="1"/>
+      <c r="L964" s="1"/>
+      <c r="M964" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="17.25">
       <c r="A965" s="1"/>
@@ -13375,6 +15340,8 @@
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
       <c r="K965" s="1"/>
+      <c r="L965" s="1"/>
+      <c r="M965" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="17.25">
       <c r="A966" s="1"/>
@@ -13388,6 +15355,8 @@
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
       <c r="K966" s="1"/>
+      <c r="L966" s="1"/>
+      <c r="M966" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="17.25">
       <c r="A967" s="1"/>
@@ -13401,6 +15370,8 @@
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
       <c r="K967" s="1"/>
+      <c r="L967" s="1"/>
+      <c r="M967" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="17.25">
       <c r="A968" s="1"/>
@@ -13414,6 +15385,8 @@
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
       <c r="K968" s="1"/>
+      <c r="L968" s="1"/>
+      <c r="M968" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="17.25">
       <c r="A969" s="1"/>
@@ -13427,6 +15400,8 @@
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
       <c r="K969" s="1"/>
+      <c r="L969" s="1"/>
+      <c r="M969" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="17.25">
       <c r="A970" s="1"/>
@@ -13440,6 +15415,8 @@
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
       <c r="K970" s="1"/>
+      <c r="L970" s="1"/>
+      <c r="M970" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="17.25">
       <c r="A971" s="1"/>
@@ -13453,6 +15430,8 @@
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
       <c r="K971" s="1"/>
+      <c r="L971" s="1"/>
+      <c r="M971" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="17.25">
       <c r="A972" s="1"/>
@@ -13466,6 +15445,8 @@
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
       <c r="K972" s="1"/>
+      <c r="L972" s="1"/>
+      <c r="M972" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="17.25">
       <c r="A973" s="1"/>
@@ -13479,6 +15460,8 @@
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
       <c r="K973" s="1"/>
+      <c r="L973" s="1"/>
+      <c r="M973" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="17.25">
       <c r="A974" s="1"/>
@@ -13492,6 +15475,8 @@
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
       <c r="K974" s="1"/>
+      <c r="L974" s="1"/>
+      <c r="M974" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25">
       <c r="A975" s="1"/>
@@ -13505,6 +15490,8 @@
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
       <c r="K975" s="1"/>
+      <c r="L975" s="1"/>
+      <c r="M975" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25">
       <c r="A976" s="1"/>
@@ -13518,6 +15505,8 @@
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
       <c r="K976" s="1"/>
+      <c r="L976" s="1"/>
+      <c r="M976" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25">
       <c r="A977" s="1"/>
@@ -13531,6 +15520,8 @@
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
       <c r="K977" s="1"/>
+      <c r="L977" s="1"/>
+      <c r="M977" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25">
       <c r="A978" s="1"/>
@@ -13544,6 +15535,8 @@
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
       <c r="K978" s="1"/>
+      <c r="L978" s="1"/>
+      <c r="M978" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="17.25">
       <c r="A979" s="1"/>
@@ -13557,6 +15550,8 @@
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
       <c r="K979" s="1"/>
+      <c r="L979" s="1"/>
+      <c r="M979" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="17.25">
       <c r="A980" s="1"/>
@@ -13570,6 +15565,8 @@
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
       <c r="K980" s="1"/>
+      <c r="L980" s="1"/>
+      <c r="M980" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="17.25">
       <c r="A981" s="1"/>
@@ -13583,6 +15580,8 @@
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
       <c r="K981" s="1"/>
+      <c r="L981" s="1"/>
+      <c r="M981" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="17.25">
       <c r="A982" s="1"/>
@@ -13596,6 +15595,8 @@
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
       <c r="K982" s="1"/>
+      <c r="L982" s="1"/>
+      <c r="M982" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="17.25">
       <c r="A983" s="1"/>
@@ -13609,6 +15610,8 @@
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
       <c r="K983" s="1"/>
+      <c r="L983" s="1"/>
+      <c r="M983" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="17.25">
       <c r="A984" s="1"/>
@@ -13622,6 +15625,8 @@
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
       <c r="K984" s="1"/>
+      <c r="L984" s="1"/>
+      <c r="M984" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="17.25">
       <c r="A985" s="1"/>
@@ -13635,6 +15640,8 @@
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
       <c r="K985" s="1"/>
+      <c r="L985" s="1"/>
+      <c r="M985" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="17.25">
       <c r="A986" s="1"/>
@@ -13648,6 +15655,8 @@
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
       <c r="K986" s="1"/>
+      <c r="L986" s="1"/>
+      <c r="M986" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="17.25">
       <c r="A987" s="1"/>
@@ -13661,6 +15670,8 @@
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
       <c r="K987" s="1"/>
+      <c r="L987" s="1"/>
+      <c r="M987" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="17.25">
       <c r="A988" s="1"/>
@@ -13674,6 +15685,8 @@
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
       <c r="K988" s="1"/>
+      <c r="L988" s="1"/>
+      <c r="M988" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="17.25">
       <c r="A989" s="1"/>
@@ -13687,6 +15700,8 @@
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
       <c r="K989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="M989" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="17.25">
       <c r="A990" s="1"/>
@@ -13700,6 +15715,8 @@
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
       <c r="K990" s="1"/>
+      <c r="L990" s="1"/>
+      <c r="M990" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="17.25">
       <c r="A991" s="1"/>
@@ -13713,6 +15730,8 @@
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
       <c r="K991" s="1"/>
+      <c r="L991" s="1"/>
+      <c r="M991" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="17.25">
       <c r="A992" s="1"/>
@@ -13726,6 +15745,8 @@
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
       <c r="K992" s="1"/>
+      <c r="L992" s="1"/>
+      <c r="M992" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="17.25">
       <c r="A993" s="1"/>
@@ -13739,6 +15760,8 @@
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
       <c r="K993" s="1"/>
+      <c r="L993" s="1"/>
+      <c r="M993" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="17.25">
       <c r="A994" s="1"/>
@@ -13752,6 +15775,8 @@
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
       <c r="K994" s="1"/>
+      <c r="L994" s="1"/>
+      <c r="M994" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="17.25">
       <c r="A995" s="1"/>
@@ -13765,6 +15790,8 @@
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
       <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="17.25">
       <c r="A996" s="1"/>
@@ -13778,6 +15805,8 @@
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
       <c r="K996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="17.25">
       <c r="A997" s="1"/>
@@ -13791,6 +15820,8 @@
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
       <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25">
       <c r="A998" s="1"/>
@@ -13804,6 +15835,8 @@
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
       <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="17.25">
       <c r="A999" s="1"/>
@@ -13817,6 +15850,8 @@
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
       <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="17.25">
       <c r="A1000" s="1"/>
@@ -13830,6 +15865,8 @@
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
       <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="17.25">
       <c r="A1001" s="1"/>
@@ -13843,6 +15880,8 @@
       <c r="I1001" s="1"/>
       <c r="J1001" s="1"/>
       <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -139,13 +139,13 @@
     <t>Not Sure</t>
   </si>
   <si>
-    <t>Best Time to Buy and Sell Stock</t>
+    <t>*Best Time to Buy and Sell Stock</t>
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
   </si>
   <si>
-    <t xml:space="preserve">Snapshot Array </t>
+    <t xml:space="preserve">*Snapshot Array </t>
   </si>
   <si>
     <t>Medium</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Binary Search </t>
   </si>
   <si>
-    <t>Reverse Linked List</t>
+    <t>*Reverse Linked List</t>
   </si>
   <si>
     <t>Intuit, Yandex</t>
@@ -1126,7 +1126,9 @@
       <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Src</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>S Complexity</t>
+  </si>
+  <si>
+    <t>Complexity</t>
   </si>
   <si>
     <t>Ideal Solution</t>
@@ -97,13 +100,13 @@
     <t xml:space="preserve">Create LinkedList from scratch </t>
   </si>
   <si>
+    <t>2*</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Bad Version </t>
   </si>
   <si>
     <t>Palindrome Number</t>
-  </si>
-  <si>
-    <t>2*</t>
   </si>
   <si>
     <t xml:space="preserve">Merge Two Sorted List </t>
@@ -163,7 +166,22 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
+    <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(1) - Same amount of space regardless of input size </t>
+  </si>
+  <si>
     <t>https://medium.com/analytics-vidhya/reverse-linkedlist-day-6-python-6561d068cb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC </t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Create Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -292,9 +310,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:M2"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
     <tableColumn name="Src" id="1" totalsRowLabel="Total"/>
     <tableColumn name="Name" id="2"/>
     <tableColumn name="Level" id="3"/>
@@ -307,7 +325,8 @@
     <tableColumn name="J Ex1" id="10"/>
     <tableColumn name="T Complexity" id="11"/>
     <tableColumn name="S Complexity" id="12"/>
-    <tableColumn name="Ideal Solution" id="13"/>
+    <tableColumn name="Complexity" id="13"/>
+    <tableColumn name="Ideal Solution" id="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -601,7 +620,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M1001"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -619,7 +638,8 @@
     <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -662,6 +682,9 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -692,26 +715,27 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
@@ -729,23 +753,24 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -760,22 +785,23 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
+      <c r="M4" s="1"/>
+      <c r="N4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -790,19 +816,20 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
@@ -817,22 +844,23 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5" t="s">
-        <v>25</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -844,19 +872,20 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
@@ -873,22 +902,23 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -900,19 +930,20 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -925,19 +956,20 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
@@ -950,22 +982,23 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -974,25 +1007,26 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="6" t="s">
-        <v>21</v>
+      <c r="M12" s="1"/>
+      <c r="N12" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1001,25 +1035,26 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="6" t="s">
-        <v>37</v>
+      <c r="M13" s="1"/>
+      <c r="N13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1028,22 +1063,23 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="6" t="s">
-        <v>40</v>
+      <c r="M14" s="1"/>
+      <c r="N14" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -1055,22 +1091,23 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="6" t="s">
-        <v>40</v>
+      <c r="M15" s="1"/>
+      <c r="N15" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1085,22 +1122,23 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1109,42 +1147,56 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="6" t="s">
-        <v>40</v>
+      <c r="M17" s="1"/>
+      <c r="N17" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>49</v>
+      <c r="K18" s="6" t="s">
+        <v>50</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1154,11 +1206,18 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1169,6 +1228,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
@@ -1184,6 +1244,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
@@ -1199,6 +1260,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
@@ -1214,6 +1276,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
@@ -1229,6 +1292,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
@@ -1244,6 +1308,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
@@ -1259,6 +1324,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
@@ -1274,6 +1340,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
@@ -1289,6 +1356,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
@@ -1304,6 +1372,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="1"/>
@@ -1319,6 +1388,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="1"/>
@@ -1334,6 +1404,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="1"/>
@@ -1349,6 +1420,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="1"/>
@@ -1364,6 +1436,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="1"/>
@@ -1379,6 +1452,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1"/>
@@ -1394,6 +1468,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="1"/>
@@ -1409,6 +1484,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="1"/>
@@ -1424,6 +1500,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="1"/>
@@ -1439,6 +1516,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="1"/>
@@ -1454,6 +1532,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1"/>
@@ -1469,6 +1548,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1"/>
@@ -1484,6 +1564,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1"/>
@@ -1499,6 +1580,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1"/>
@@ -1514,6 +1596,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1"/>
@@ -1529,6 +1612,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1"/>
@@ -1544,6 +1628,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1"/>
@@ -1559,6 +1644,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1"/>
@@ -1574,6 +1660,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1"/>
@@ -1589,6 +1676,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1"/>
@@ -1604,6 +1692,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1"/>
@@ -1619,6 +1708,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1"/>
@@ -1634,6 +1724,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1"/>
@@ -1649,6 +1740,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1"/>
@@ -1664,6 +1756,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1"/>
@@ -1679,6 +1772,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1"/>
@@ -1694,6 +1788,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1"/>
@@ -1709,6 +1804,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1"/>
@@ -1724,6 +1820,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1"/>
@@ -1739,6 +1836,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1"/>
@@ -1754,6 +1852,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1"/>
@@ -1769,6 +1868,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1"/>
@@ -1784,6 +1884,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1"/>
@@ -1799,6 +1900,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1"/>
@@ -1814,6 +1916,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1"/>
@@ -1829,6 +1932,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1"/>
@@ -1844,6 +1948,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1"/>
@@ -1859,6 +1964,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1"/>
@@ -1874,6 +1980,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1"/>
@@ -1889,6 +1996,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1"/>
@@ -1904,6 +2012,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1"/>
@@ -1919,6 +2028,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1"/>
@@ -1934,6 +2044,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1"/>
@@ -1949,6 +2060,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1"/>
@@ -1964,6 +2076,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1"/>
@@ -1979,6 +2092,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1"/>
@@ -1994,6 +2108,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1"/>
@@ -2009,6 +2124,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1"/>
@@ -2024,6 +2140,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1"/>
@@ -2039,6 +2156,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1"/>
@@ -2054,6 +2172,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1"/>
@@ -2069,6 +2188,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1"/>
@@ -2084,6 +2204,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1"/>
@@ -2099,6 +2220,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1"/>
@@ -2114,6 +2236,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1"/>
@@ -2129,6 +2252,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1"/>
@@ -2144,6 +2268,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1"/>
@@ -2159,6 +2284,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1"/>
@@ -2174,6 +2300,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1"/>
@@ -2189,6 +2316,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1"/>
@@ -2204,6 +2332,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1"/>
@@ -2219,6 +2348,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1"/>
@@ -2234,6 +2364,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1"/>
@@ -2249,6 +2380,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1"/>
@@ -2264,6 +2396,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1"/>
@@ -2279,6 +2412,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1"/>
@@ -2294,6 +2428,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1"/>
@@ -2309,6 +2444,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1"/>
@@ -2324,6 +2460,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1"/>
@@ -2339,6 +2476,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1"/>
@@ -2354,6 +2492,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1"/>
@@ -2369,6 +2508,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1"/>
@@ -2384,6 +2524,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1"/>
@@ -2399,6 +2540,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1"/>
@@ -2414,6 +2556,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1"/>
@@ -2429,6 +2572,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1"/>
@@ -2444,6 +2588,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1"/>
@@ -2459,6 +2604,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1"/>
@@ -2474,6 +2620,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1"/>
@@ -2489,6 +2636,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1"/>
@@ -2504,6 +2652,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1"/>
@@ -2519,6 +2668,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1"/>
@@ -2534,6 +2684,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1"/>
@@ -2549,6 +2700,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1"/>
@@ -2564,6 +2716,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1"/>
@@ -2579,6 +2732,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1"/>
@@ -2594,6 +2748,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1"/>
@@ -2609,6 +2764,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1"/>
@@ -2624,6 +2780,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1"/>
@@ -2639,6 +2796,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1"/>
@@ -2654,6 +2812,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1"/>
@@ -2669,6 +2828,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1"/>
@@ -2684,6 +2844,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1"/>
@@ -2699,6 +2860,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1"/>
@@ -2714,6 +2876,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1"/>
@@ -2729,6 +2892,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1"/>
@@ -2744,6 +2908,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1"/>
@@ -2759,6 +2924,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1"/>
@@ -2774,6 +2940,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1"/>
@@ -2789,6 +2956,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1"/>
@@ -2804,6 +2972,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1"/>
@@ -2819,6 +2988,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1"/>
@@ -2834,6 +3004,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1"/>
@@ -2849,6 +3020,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1"/>
@@ -2864,6 +3036,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1"/>
@@ -2879,6 +3052,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1"/>
@@ -2894,6 +3068,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1"/>
@@ -2909,6 +3084,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1"/>
@@ -2924,6 +3100,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1"/>
@@ -2939,6 +3116,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1"/>
@@ -2954,6 +3132,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1"/>
@@ -2969,6 +3148,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1"/>
@@ -2984,6 +3164,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1"/>
@@ -2999,6 +3180,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1"/>
@@ -3014,6 +3196,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1"/>
@@ -3029,6 +3212,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1"/>
@@ -3044,6 +3228,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1"/>
@@ -3059,6 +3244,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1"/>
@@ -3074,6 +3260,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1"/>
@@ -3089,6 +3276,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="1"/>
@@ -3104,6 +3292,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="1"/>
@@ -3119,6 +3308,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="1"/>
@@ -3134,6 +3324,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="1"/>
@@ -3149,6 +3340,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="1"/>
@@ -3164,6 +3356,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="1"/>
@@ -3179,6 +3372,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="1"/>
@@ -3194,6 +3388,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="1"/>
@@ -3209,6 +3404,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="1"/>
@@ -3224,6 +3420,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="1"/>
@@ -3239,6 +3436,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="1"/>
@@ -3254,6 +3452,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="1"/>
@@ -3269,6 +3468,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="1"/>
@@ -3284,6 +3484,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="1"/>
@@ -3299,6 +3500,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="1"/>
@@ -3314,6 +3516,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="1"/>
@@ -3329,6 +3532,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="1"/>
@@ -3344,6 +3548,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="1"/>
@@ -3359,6 +3564,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="1"/>
@@ -3374,6 +3580,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="1"/>
@@ -3389,6 +3596,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="1"/>
@@ -3404,6 +3612,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="1"/>
@@ -3419,6 +3628,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="1"/>
@@ -3434,6 +3644,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="1"/>
@@ -3449,6 +3660,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="1"/>
@@ -3464,6 +3676,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="1"/>
@@ -3479,6 +3692,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="1"/>
@@ -3494,6 +3708,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="1"/>
@@ -3509,6 +3724,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="1"/>
@@ -3524,6 +3740,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="1"/>
@@ -3539,6 +3756,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="1"/>
@@ -3554,6 +3772,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="1"/>
@@ -3569,6 +3788,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="1"/>
@@ -3584,6 +3804,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="1"/>
@@ -3599,6 +3820,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="1"/>
@@ -3614,6 +3836,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="1"/>
@@ -3629,6 +3852,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="1"/>
@@ -3644,6 +3868,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="1"/>
@@ -3659,6 +3884,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="1"/>
@@ -3674,6 +3900,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="1"/>
@@ -3689,6 +3916,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="1"/>
@@ -3704,6 +3932,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="1"/>
@@ -3719,6 +3948,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="1"/>
@@ -3734,6 +3964,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="1"/>
@@ -3749,6 +3980,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="1"/>
@@ -3764,6 +3996,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="1"/>
@@ -3779,6 +4012,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="1"/>
@@ -3794,6 +4028,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="1"/>
@@ -3809,6 +4044,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="1"/>
@@ -3824,6 +4060,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="1"/>
@@ -3839,6 +4076,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="1"/>
@@ -3854,6 +4092,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="1"/>
@@ -3869,6 +4108,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="1"/>
@@ -3884,6 +4124,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="1"/>
@@ -3899,6 +4140,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="1"/>
@@ -3914,6 +4156,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="1"/>
@@ -3929,6 +4172,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="1"/>
@@ -3944,6 +4188,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="1"/>
@@ -3959,6 +4204,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="1"/>
@@ -3974,6 +4220,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="1"/>
@@ -3989,6 +4236,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="1"/>
@@ -4004,6 +4252,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="1"/>
@@ -4019,6 +4268,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="1"/>
@@ -4034,6 +4284,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="1"/>
@@ -4049,6 +4300,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="1"/>
@@ -4064,6 +4316,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="1"/>
@@ -4079,6 +4332,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="1"/>
@@ -4094,6 +4348,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="1"/>
@@ -4109,6 +4364,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="1"/>
@@ -4124,6 +4380,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="1"/>
@@ -4139,6 +4396,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="1"/>
@@ -4154,6 +4412,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="1"/>
@@ -4169,6 +4428,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="1"/>
@@ -4184,6 +4444,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="1"/>
@@ -4199,6 +4460,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="1"/>
@@ -4214,6 +4476,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="1"/>
@@ -4229,6 +4492,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="1"/>
@@ -4244,6 +4508,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="1"/>
@@ -4259,6 +4524,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="1"/>
@@ -4274,6 +4540,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="1"/>
@@ -4289,6 +4556,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="1"/>
@@ -4304,6 +4572,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="1"/>
@@ -4319,6 +4588,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="1"/>
@@ -4334,6 +4604,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="1"/>
@@ -4349,6 +4620,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="1"/>
@@ -4364,6 +4636,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="1"/>
@@ -4379,6 +4652,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="1"/>
@@ -4394,6 +4668,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="1"/>
@@ -4409,6 +4684,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="1"/>
@@ -4424,6 +4700,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="1"/>
@@ -4439,6 +4716,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="1"/>
@@ -4454,6 +4732,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="1"/>
@@ -4469,6 +4748,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="1"/>
@@ -4484,6 +4764,7 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="1"/>
@@ -4499,6 +4780,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="1"/>
@@ -4514,6 +4796,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="1"/>
@@ -4529,6 +4812,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="1"/>
@@ -4544,6 +4828,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="1"/>
@@ -4559,6 +4844,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="1"/>
@@ -4574,6 +4860,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="1"/>
@@ -4589,6 +4876,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="1"/>
@@ -4604,6 +4892,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="1"/>
@@ -4619,6 +4908,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="1"/>
@@ -4634,6 +4924,7 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="1"/>
@@ -4649,6 +4940,7 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="1"/>
@@ -4664,6 +4956,7 @@
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="1"/>
@@ -4679,6 +4972,7 @@
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="1"/>
@@ -4694,6 +4988,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="1"/>
@@ -4709,6 +5004,7 @@
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="1"/>
@@ -4724,6 +5020,7 @@
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="1"/>
@@ -4739,6 +5036,7 @@
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="1"/>
@@ -4754,6 +5052,7 @@
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="1"/>
@@ -4769,6 +5068,7 @@
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="1"/>
@@ -4784,6 +5084,7 @@
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="1"/>
@@ -4799,6 +5100,7 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="1"/>
@@ -4814,6 +5116,7 @@
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="1"/>
@@ -4829,6 +5132,7 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="1"/>
@@ -4844,6 +5148,7 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="1"/>
@@ -4859,6 +5164,7 @@
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="1"/>
@@ -4874,6 +5180,7 @@
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="1"/>
@@ -4889,6 +5196,7 @@
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="1"/>
@@ -4904,6 +5212,7 @@
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="1"/>
@@ -4919,6 +5228,7 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="1"/>
@@ -4934,6 +5244,7 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="1"/>
@@ -4949,6 +5260,7 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="1"/>
@@ -4964,6 +5276,7 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="1"/>
@@ -4979,6 +5292,7 @@
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="1"/>
@@ -4994,6 +5308,7 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="1"/>
@@ -5009,6 +5324,7 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="1"/>
@@ -5024,6 +5340,7 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="1"/>
@@ -5039,6 +5356,7 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="1"/>
@@ -5054,6 +5372,7 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="1"/>
@@ -5069,6 +5388,7 @@
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="1"/>
@@ -5084,6 +5404,7 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="1"/>
@@ -5099,6 +5420,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="1"/>
@@ -5114,6 +5436,7 @@
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="1"/>
@@ -5129,6 +5452,7 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="1"/>
@@ -5144,6 +5468,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="1"/>
@@ -5159,6 +5484,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="1"/>
@@ -5174,6 +5500,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="1"/>
@@ -5189,6 +5516,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="1"/>
@@ -5204,6 +5532,7 @@
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="1"/>
@@ -5219,6 +5548,7 @@
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="1"/>
@@ -5234,6 +5564,7 @@
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="1"/>
@@ -5249,6 +5580,7 @@
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="1"/>
@@ -5264,6 +5596,7 @@
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="1"/>
@@ -5279,6 +5612,7 @@
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="1"/>
@@ -5294,6 +5628,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="1"/>
@@ -5309,6 +5644,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="1"/>
@@ -5324,6 +5660,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="1"/>
@@ -5339,6 +5676,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="1"/>
@@ -5354,6 +5692,7 @@
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="1"/>
@@ -5369,6 +5708,7 @@
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="1"/>
@@ -5384,6 +5724,7 @@
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="1"/>
@@ -5399,6 +5740,7 @@
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="1"/>
@@ -5414,6 +5756,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="1"/>
@@ -5429,6 +5772,7 @@
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="1"/>
@@ -5444,6 +5788,7 @@
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="1"/>
@@ -5459,6 +5804,7 @@
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="1"/>
@@ -5474,6 +5820,7 @@
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="1"/>
@@ -5489,6 +5836,7 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="1"/>
@@ -5504,6 +5852,7 @@
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="1"/>
@@ -5519,6 +5868,7 @@
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="1"/>
@@ -5534,6 +5884,7 @@
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="1"/>
@@ -5549,6 +5900,7 @@
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="1"/>
@@ -5564,6 +5916,7 @@
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="1"/>
@@ -5579,6 +5932,7 @@
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="1"/>
@@ -5594,6 +5948,7 @@
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="1"/>
@@ -5609,6 +5964,7 @@
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="1"/>
@@ -5624,6 +5980,7 @@
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="1"/>
@@ -5639,6 +5996,7 @@
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="1"/>
@@ -5654,6 +6012,7 @@
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="1"/>
@@ -5669,6 +6028,7 @@
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="1"/>
@@ -5684,6 +6044,7 @@
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="1"/>
@@ -5699,6 +6060,7 @@
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="1"/>
@@ -5714,6 +6076,7 @@
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="1"/>
@@ -5729,6 +6092,7 @@
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="1"/>
@@ -5744,6 +6108,7 @@
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="1"/>
@@ -5759,6 +6124,7 @@
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="1"/>
@@ -5774,6 +6140,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="1"/>
@@ -5789,6 +6156,7 @@
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="1"/>
@@ -5804,6 +6172,7 @@
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="1"/>
@@ -5819,6 +6188,7 @@
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="1"/>
@@ -5834,6 +6204,7 @@
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="1"/>
@@ -5849,6 +6220,7 @@
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="1"/>
@@ -5864,6 +6236,7 @@
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="1"/>
@@ -5879,6 +6252,7 @@
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="1"/>
@@ -5894,6 +6268,7 @@
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="1"/>
@@ -5909,6 +6284,7 @@
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="1"/>
@@ -5924,6 +6300,7 @@
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="1"/>
@@ -5939,6 +6316,7 @@
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="1"/>
@@ -5954,6 +6332,7 @@
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="1"/>
@@ -5969,6 +6348,7 @@
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="1"/>
@@ -5984,6 +6364,7 @@
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="1"/>
@@ -5999,6 +6380,7 @@
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="1"/>
@@ -6014,6 +6396,7 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="1"/>
@@ -6029,6 +6412,7 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="1"/>
@@ -6044,6 +6428,7 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="1"/>
@@ -6059,6 +6444,7 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="1"/>
@@ -6074,6 +6460,7 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="1"/>
@@ -6089,6 +6476,7 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="1"/>
@@ -6104,6 +6492,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="1"/>
@@ -6119,6 +6508,7 @@
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="1"/>
@@ -6134,6 +6524,7 @@
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="1"/>
@@ -6149,6 +6540,7 @@
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="1"/>
@@ -6164,6 +6556,7 @@
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="1"/>
@@ -6179,6 +6572,7 @@
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="1"/>
@@ -6194,6 +6588,7 @@
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="1"/>
@@ -6209,6 +6604,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="1"/>
@@ -6224,6 +6620,7 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="1"/>
@@ -6239,6 +6636,7 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="1"/>
@@ -6254,6 +6652,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="1"/>
@@ -6269,6 +6668,7 @@
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="1"/>
@@ -6284,6 +6684,7 @@
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="1"/>
@@ -6299,6 +6700,7 @@
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="1"/>
@@ -6314,6 +6716,7 @@
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="1"/>
@@ -6329,6 +6732,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="1"/>
@@ -6344,6 +6748,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
+      <c r="N365" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="1"/>
@@ -6359,6 +6764,7 @@
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
+      <c r="N366" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="1"/>
@@ -6374,6 +6780,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="1"/>
@@ -6389,6 +6796,7 @@
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="1"/>
@@ -6404,6 +6812,7 @@
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="1"/>
@@ -6419,6 +6828,7 @@
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="1"/>
@@ -6434,6 +6844,7 @@
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="1"/>
@@ -6449,6 +6860,7 @@
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="1"/>
@@ -6464,6 +6876,7 @@
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="1"/>
@@ -6479,6 +6892,7 @@
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="1"/>
@@ -6494,6 +6908,7 @@
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="1"/>
@@ -6509,6 +6924,7 @@
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="1"/>
@@ -6524,6 +6940,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="1"/>
@@ -6539,6 +6956,7 @@
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="1"/>
@@ -6554,6 +6972,7 @@
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="1"/>
@@ -6569,6 +6988,7 @@
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="1"/>
@@ -6584,6 +7004,7 @@
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
+      <c r="N381" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="1"/>
@@ -6599,6 +7020,7 @@
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="1"/>
@@ -6614,6 +7036,7 @@
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="1"/>
@@ -6629,6 +7052,7 @@
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
+      <c r="N384" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="1"/>
@@ -6644,6 +7068,7 @@
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="1"/>
@@ -6659,6 +7084,7 @@
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="1"/>
@@ -6674,6 +7100,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="1"/>
@@ -6689,6 +7116,7 @@
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="1"/>
@@ -6704,6 +7132,7 @@
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="1"/>
@@ -6719,6 +7148,7 @@
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="1"/>
@@ -6734,6 +7164,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="1"/>
@@ -6749,6 +7180,7 @@
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="1"/>
@@ -6764,6 +7196,7 @@
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="1"/>
@@ -6779,6 +7212,7 @@
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="1"/>
@@ -6794,6 +7228,7 @@
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="1"/>
@@ -6809,6 +7244,7 @@
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="1"/>
@@ -6824,6 +7260,7 @@
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="1"/>
@@ -6839,6 +7276,7 @@
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="1"/>
@@ -6854,6 +7292,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="1"/>
@@ -6869,6 +7308,7 @@
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="1"/>
@@ -6884,6 +7324,7 @@
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="1"/>
@@ -6899,6 +7340,7 @@
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="1"/>
@@ -6914,6 +7356,7 @@
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="1"/>
@@ -6929,6 +7372,7 @@
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="1"/>
@@ -6944,6 +7388,7 @@
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="1"/>
@@ -6959,6 +7404,7 @@
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="1"/>
@@ -6974,6 +7420,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="1"/>
@@ -6989,6 +7436,7 @@
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="1"/>
@@ -7004,6 +7452,7 @@
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="1"/>
@@ -7019,6 +7468,7 @@
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="1"/>
@@ -7034,6 +7484,7 @@
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
+      <c r="N411" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="1"/>
@@ -7049,6 +7500,7 @@
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="1"/>
@@ -7064,6 +7516,7 @@
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
+      <c r="N413" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="1"/>
@@ -7079,6 +7532,7 @@
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
+      <c r="N414" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="1"/>
@@ -7094,6 +7548,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="1"/>
@@ -7109,6 +7564,7 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="1"/>
@@ -7124,6 +7580,7 @@
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
+      <c r="N417" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="1"/>
@@ -7139,6 +7596,7 @@
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="1"/>
@@ -7154,6 +7612,7 @@
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
+      <c r="N419" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="1"/>
@@ -7169,6 +7628,7 @@
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
+      <c r="N420" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="1"/>
@@ -7184,6 +7644,7 @@
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
+      <c r="N421" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="1"/>
@@ -7199,6 +7660,7 @@
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
+      <c r="N422" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="1"/>
@@ -7214,6 +7676,7 @@
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
+      <c r="N423" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="1"/>
@@ -7229,6 +7692,7 @@
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
+      <c r="N424" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="1"/>
@@ -7244,6 +7708,7 @@
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
+      <c r="N425" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="1"/>
@@ -7259,6 +7724,7 @@
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
+      <c r="N426" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="1"/>
@@ -7274,6 +7740,7 @@
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
+      <c r="N427" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="1"/>
@@ -7289,6 +7756,7 @@
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
+      <c r="N428" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="1"/>
@@ -7304,6 +7772,7 @@
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
+      <c r="N429" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="1"/>
@@ -7319,6 +7788,7 @@
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="1"/>
@@ -7334,6 +7804,7 @@
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="1"/>
@@ -7349,6 +7820,7 @@
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
+      <c r="N432" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="1"/>
@@ -7364,6 +7836,7 @@
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
+      <c r="N433" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="1"/>
@@ -7379,6 +7852,7 @@
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
+      <c r="N434" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="1"/>
@@ -7394,6 +7868,7 @@
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
+      <c r="N435" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="1"/>
@@ -7409,6 +7884,7 @@
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
+      <c r="N436" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="1"/>
@@ -7424,6 +7900,7 @@
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
+      <c r="N437" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="1"/>
@@ -7439,6 +7916,7 @@
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
+      <c r="N438" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="1"/>
@@ -7454,6 +7932,7 @@
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
+      <c r="N439" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="1"/>
@@ -7469,6 +7948,7 @@
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="1"/>
@@ -7484,6 +7964,7 @@
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
+      <c r="N441" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="1"/>
@@ -7499,6 +7980,7 @@
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="1"/>
@@ -7514,6 +7996,7 @@
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
+      <c r="N443" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="1"/>
@@ -7529,6 +8012,7 @@
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
+      <c r="N444" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="1"/>
@@ -7544,6 +8028,7 @@
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
+      <c r="N445" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="1"/>
@@ -7559,6 +8044,7 @@
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
+      <c r="N446" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="1"/>
@@ -7574,6 +8060,7 @@
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
+      <c r="N447" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="1"/>
@@ -7589,6 +8076,7 @@
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
+      <c r="N448" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="1"/>
@@ -7604,6 +8092,7 @@
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
+      <c r="N449" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="1"/>
@@ -7619,6 +8108,7 @@
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
+      <c r="N450" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="1"/>
@@ -7634,6 +8124,7 @@
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
+      <c r="N451" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="1"/>
@@ -7649,6 +8140,7 @@
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
+      <c r="N452" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="1"/>
@@ -7664,6 +8156,7 @@
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
+      <c r="N453" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="1"/>
@@ -7679,6 +8172,7 @@
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
+      <c r="N454" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="1"/>
@@ -7694,6 +8188,7 @@
       <c r="K455" s="1"/>
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
+      <c r="N455" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="1"/>
@@ -7709,6 +8204,7 @@
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
+      <c r="N456" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="1"/>
@@ -7724,6 +8220,7 @@
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
+      <c r="N457" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="1"/>
@@ -7739,6 +8236,7 @@
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="1"/>
@@ -7754,6 +8252,7 @@
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
+      <c r="N459" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="1"/>
@@ -7769,6 +8268,7 @@
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
+      <c r="N460" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="1"/>
@@ -7784,6 +8284,7 @@
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
+      <c r="N461" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="1"/>
@@ -7799,6 +8300,7 @@
       <c r="K462" s="1"/>
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
+      <c r="N462" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="1"/>
@@ -7814,6 +8316,7 @@
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
+      <c r="N463" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="1"/>
@@ -7829,6 +8332,7 @@
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
+      <c r="N464" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="1"/>
@@ -7844,6 +8348,7 @@
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
+      <c r="N465" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="1"/>
@@ -7859,6 +8364,7 @@
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
+      <c r="N466" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="1"/>
@@ -7874,6 +8380,7 @@
       <c r="K467" s="1"/>
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
+      <c r="N467" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="1"/>
@@ -7889,6 +8396,7 @@
       <c r="K468" s="1"/>
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
+      <c r="N468" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="1"/>
@@ -7904,6 +8412,7 @@
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
+      <c r="N469" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="1"/>
@@ -7919,6 +8428,7 @@
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
+      <c r="N470" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="1"/>
@@ -7934,6 +8444,7 @@
       <c r="K471" s="1"/>
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
+      <c r="N471" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="1"/>
@@ -7949,6 +8460,7 @@
       <c r="K472" s="1"/>
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
+      <c r="N472" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="1"/>
@@ -7964,6 +8476,7 @@
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
+      <c r="N473" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="1"/>
@@ -7979,6 +8492,7 @@
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="1"/>
@@ -7994,6 +8508,7 @@
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
+      <c r="N475" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="1"/>
@@ -8009,6 +8524,7 @@
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
+      <c r="N476" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="1"/>
@@ -8024,6 +8540,7 @@
       <c r="K477" s="1"/>
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
+      <c r="N477" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="1"/>
@@ -8039,6 +8556,7 @@
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
+      <c r="N478" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="1"/>
@@ -8054,6 +8572,7 @@
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
+      <c r="N479" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="1"/>
@@ -8069,6 +8588,7 @@
       <c r="K480" s="1"/>
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
+      <c r="N480" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="1"/>
@@ -8084,6 +8604,7 @@
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
+      <c r="N481" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="1"/>
@@ -8099,6 +8620,7 @@
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="1"/>
@@ -8114,6 +8636,7 @@
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
+      <c r="N483" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="1"/>
@@ -8129,6 +8652,7 @@
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
+      <c r="N484" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="1"/>
@@ -8144,6 +8668,7 @@
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
+      <c r="N485" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="1"/>
@@ -8159,6 +8684,7 @@
       <c r="K486" s="1"/>
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
+      <c r="N486" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="1"/>
@@ -8174,6 +8700,7 @@
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
+      <c r="N487" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="1"/>
@@ -8189,6 +8716,7 @@
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
+      <c r="N488" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="1"/>
@@ -8204,6 +8732,7 @@
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
+      <c r="N489" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="1"/>
@@ -8219,6 +8748,7 @@
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
+      <c r="N490" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="1"/>
@@ -8234,6 +8764,7 @@
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
+      <c r="N491" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="1"/>
@@ -8249,6 +8780,7 @@
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
+      <c r="N492" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="1"/>
@@ -8264,6 +8796,7 @@
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
+      <c r="N493" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="1"/>
@@ -8279,6 +8812,7 @@
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
+      <c r="N494" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="1"/>
@@ -8294,6 +8828,7 @@
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="1"/>
@@ -8309,6 +8844,7 @@
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
+      <c r="N496" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="1"/>
@@ -8324,6 +8860,7 @@
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
+      <c r="N497" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="1"/>
@@ -8339,6 +8876,7 @@
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="1"/>
@@ -8354,6 +8892,7 @@
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
+      <c r="N499" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="1"/>
@@ -8369,6 +8908,7 @@
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
+      <c r="N500" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="1"/>
@@ -8384,6 +8924,7 @@
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
+      <c r="N501" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="1"/>
@@ -8399,6 +8940,7 @@
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
+      <c r="N502" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="1"/>
@@ -8414,6 +8956,7 @@
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
+      <c r="N503" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="1"/>
@@ -8429,6 +8972,7 @@
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
+      <c r="N504" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="1"/>
@@ -8444,6 +8988,7 @@
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
+      <c r="N505" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="1"/>
@@ -8459,6 +9004,7 @@
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
+      <c r="N506" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="1"/>
@@ -8474,6 +9020,7 @@
       <c r="K507" s="1"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
+      <c r="N507" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="1"/>
@@ -8489,6 +9036,7 @@
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
+      <c r="N508" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="1"/>
@@ -8504,6 +9052,7 @@
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
+      <c r="N509" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="1"/>
@@ -8519,6 +9068,7 @@
       <c r="K510" s="1"/>
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
+      <c r="N510" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="1"/>
@@ -8534,6 +9084,7 @@
       <c r="K511" s="1"/>
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
+      <c r="N511" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="1"/>
@@ -8549,6 +9100,7 @@
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
+      <c r="N512" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="1"/>
@@ -8564,6 +9116,7 @@
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
+      <c r="N513" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="1"/>
@@ -8579,6 +9132,7 @@
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
+      <c r="N514" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="1"/>
@@ -8594,6 +9148,7 @@
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
+      <c r="N515" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="1"/>
@@ -8609,6 +9164,7 @@
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
+      <c r="N516" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="1"/>
@@ -8624,6 +9180,7 @@
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
+      <c r="N517" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="1"/>
@@ -8639,6 +9196,7 @@
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
+      <c r="N518" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="1"/>
@@ -8654,6 +9212,7 @@
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
+      <c r="N519" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="1"/>
@@ -8669,6 +9228,7 @@
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
+      <c r="N520" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="1"/>
@@ -8684,6 +9244,7 @@
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
+      <c r="N521" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="1"/>
@@ -8699,6 +9260,7 @@
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
+      <c r="N522" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="1"/>
@@ -8714,6 +9276,7 @@
       <c r="K523" s="1"/>
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
+      <c r="N523" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="1"/>
@@ -8729,6 +9292,7 @@
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
+      <c r="N524" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="1"/>
@@ -8744,6 +9308,7 @@
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
+      <c r="N525" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="1"/>
@@ -8759,6 +9324,7 @@
       <c r="K526" s="1"/>
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
+      <c r="N526" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="1"/>
@@ -8774,6 +9340,7 @@
       <c r="K527" s="1"/>
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
+      <c r="N527" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="1"/>
@@ -8789,6 +9356,7 @@
       <c r="K528" s="1"/>
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
+      <c r="N528" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="1"/>
@@ -8804,6 +9372,7 @@
       <c r="K529" s="1"/>
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
+      <c r="N529" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="1"/>
@@ -8819,6 +9388,7 @@
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
+      <c r="N530" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="1"/>
@@ -8834,6 +9404,7 @@
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
+      <c r="N531" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="1"/>
@@ -8849,6 +9420,7 @@
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
+      <c r="N532" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="1"/>
@@ -8864,6 +9436,7 @@
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
+      <c r="N533" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="1"/>
@@ -8879,6 +9452,7 @@
       <c r="K534" s="1"/>
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
+      <c r="N534" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="1"/>
@@ -8894,6 +9468,7 @@
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
+      <c r="N535" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="1"/>
@@ -8909,6 +9484,7 @@
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
+      <c r="N536" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="1"/>
@@ -8924,6 +9500,7 @@
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
+      <c r="N537" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="1"/>
@@ -8939,6 +9516,7 @@
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
+      <c r="N538" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="1"/>
@@ -8954,6 +9532,7 @@
       <c r="K539" s="1"/>
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
+      <c r="N539" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="1"/>
@@ -8969,6 +9548,7 @@
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
+      <c r="N540" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="1"/>
@@ -8984,6 +9564,7 @@
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
+      <c r="N541" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="1"/>
@@ -8999,6 +9580,7 @@
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
+      <c r="N542" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="1"/>
@@ -9014,6 +9596,7 @@
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
+      <c r="N543" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="1"/>
@@ -9029,6 +9612,7 @@
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
+      <c r="N544" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="1"/>
@@ -9044,6 +9628,7 @@
       <c r="K545" s="1"/>
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
+      <c r="N545" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="1"/>
@@ -9059,6 +9644,7 @@
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
+      <c r="N546" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="1"/>
@@ -9074,6 +9660,7 @@
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
+      <c r="N547" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="1"/>
@@ -9089,6 +9676,7 @@
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
+      <c r="N548" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="1"/>
@@ -9104,6 +9692,7 @@
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
+      <c r="N549" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="1"/>
@@ -9119,6 +9708,7 @@
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
+      <c r="N550" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="1"/>
@@ -9134,6 +9724,7 @@
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
+      <c r="N551" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="1"/>
@@ -9149,6 +9740,7 @@
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
+      <c r="N552" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="1"/>
@@ -9164,6 +9756,7 @@
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
+      <c r="N553" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="1"/>
@@ -9179,6 +9772,7 @@
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
+      <c r="N554" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="1"/>
@@ -9194,6 +9788,7 @@
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
+      <c r="N555" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="1"/>
@@ -9209,6 +9804,7 @@
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
+      <c r="N556" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="1"/>
@@ -9224,6 +9820,7 @@
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
+      <c r="N557" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="1"/>
@@ -9239,6 +9836,7 @@
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
+      <c r="N558" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="1"/>
@@ -9254,6 +9852,7 @@
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
+      <c r="N559" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="1"/>
@@ -9269,6 +9868,7 @@
       <c r="K560" s="1"/>
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
+      <c r="N560" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="1"/>
@@ -9284,6 +9884,7 @@
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
+      <c r="N561" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="1"/>
@@ -9299,6 +9900,7 @@
       <c r="K562" s="1"/>
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
+      <c r="N562" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="1"/>
@@ -9314,6 +9916,7 @@
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
+      <c r="N563" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="1"/>
@@ -9329,6 +9932,7 @@
       <c r="K564" s="1"/>
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
+      <c r="N564" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="1"/>
@@ -9344,6 +9948,7 @@
       <c r="K565" s="1"/>
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
+      <c r="N565" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="1"/>
@@ -9359,6 +9964,7 @@
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
+      <c r="N566" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="1"/>
@@ -9374,6 +9980,7 @@
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
+      <c r="N567" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="1"/>
@@ -9389,6 +9996,7 @@
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
+      <c r="N568" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="1"/>
@@ -9404,6 +10012,7 @@
       <c r="K569" s="1"/>
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
+      <c r="N569" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="1"/>
@@ -9419,6 +10028,7 @@
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
+      <c r="N570" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="1"/>
@@ -9434,6 +10044,7 @@
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
+      <c r="N571" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="1"/>
@@ -9449,6 +10060,7 @@
       <c r="K572" s="1"/>
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
+      <c r="N572" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="1"/>
@@ -9464,6 +10076,7 @@
       <c r="K573" s="1"/>
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
+      <c r="N573" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="1"/>
@@ -9479,6 +10092,7 @@
       <c r="K574" s="1"/>
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
+      <c r="N574" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="1"/>
@@ -9494,6 +10108,7 @@
       <c r="K575" s="1"/>
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
+      <c r="N575" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="1"/>
@@ -9509,6 +10124,7 @@
       <c r="K576" s="1"/>
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
+      <c r="N576" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="1"/>
@@ -9524,6 +10140,7 @@
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
+      <c r="N577" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="1"/>
@@ -9539,6 +10156,7 @@
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
+      <c r="N578" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="1"/>
@@ -9554,6 +10172,7 @@
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
+      <c r="N579" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="1"/>
@@ -9569,6 +10188,7 @@
       <c r="K580" s="1"/>
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
+      <c r="N580" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="1"/>
@@ -9584,6 +10204,7 @@
       <c r="K581" s="1"/>
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
+      <c r="N581" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="1"/>
@@ -9599,6 +10220,7 @@
       <c r="K582" s="1"/>
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
+      <c r="N582" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="1"/>
@@ -9614,6 +10236,7 @@
       <c r="K583" s="1"/>
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
+      <c r="N583" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="1"/>
@@ -9629,6 +10252,7 @@
       <c r="K584" s="1"/>
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
+      <c r="N584" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="1"/>
@@ -9644,6 +10268,7 @@
       <c r="K585" s="1"/>
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
+      <c r="N585" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="1"/>
@@ -9659,6 +10284,7 @@
       <c r="K586" s="1"/>
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
+      <c r="N586" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="1"/>
@@ -9674,6 +10300,7 @@
       <c r="K587" s="1"/>
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
+      <c r="N587" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="1"/>
@@ -9689,6 +10316,7 @@
       <c r="K588" s="1"/>
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
+      <c r="N588" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="1"/>
@@ -9704,6 +10332,7 @@
       <c r="K589" s="1"/>
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
+      <c r="N589" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="1"/>
@@ -9719,6 +10348,7 @@
       <c r="K590" s="1"/>
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
+      <c r="N590" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="1"/>
@@ -9734,6 +10364,7 @@
       <c r="K591" s="1"/>
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
+      <c r="N591" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="1"/>
@@ -9749,6 +10380,7 @@
       <c r="K592" s="1"/>
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
+      <c r="N592" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="1"/>
@@ -9764,6 +10396,7 @@
       <c r="K593" s="1"/>
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
+      <c r="N593" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="1"/>
@@ -9779,6 +10412,7 @@
       <c r="K594" s="1"/>
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
+      <c r="N594" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="1"/>
@@ -9794,6 +10428,7 @@
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
+      <c r="N595" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="1"/>
@@ -9809,6 +10444,7 @@
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
+      <c r="N596" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="1"/>
@@ -9824,6 +10460,7 @@
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
+      <c r="N597" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="1"/>
@@ -9839,6 +10476,7 @@
       <c r="K598" s="1"/>
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
+      <c r="N598" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="1"/>
@@ -9854,6 +10492,7 @@
       <c r="K599" s="1"/>
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
+      <c r="N599" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="1"/>
@@ -9869,6 +10508,7 @@
       <c r="K600" s="1"/>
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
+      <c r="N600" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="1"/>
@@ -9884,6 +10524,7 @@
       <c r="K601" s="1"/>
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
+      <c r="N601" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="1"/>
@@ -9899,6 +10540,7 @@
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
+      <c r="N602" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="1"/>
@@ -9914,6 +10556,7 @@
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
+      <c r="N603" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="1"/>
@@ -9929,6 +10572,7 @@
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
+      <c r="N604" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="1"/>
@@ -9944,6 +10588,7 @@
       <c r="K605" s="1"/>
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
+      <c r="N605" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="1"/>
@@ -9959,6 +10604,7 @@
       <c r="K606" s="1"/>
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
+      <c r="N606" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="1"/>
@@ -9974,6 +10620,7 @@
       <c r="K607" s="1"/>
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
+      <c r="N607" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="1"/>
@@ -9989,6 +10636,7 @@
       <c r="K608" s="1"/>
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
+      <c r="N608" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="1"/>
@@ -10004,6 +10652,7 @@
       <c r="K609" s="1"/>
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
+      <c r="N609" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="1"/>
@@ -10019,6 +10668,7 @@
       <c r="K610" s="1"/>
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
+      <c r="N610" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="1"/>
@@ -10034,6 +10684,7 @@
       <c r="K611" s="1"/>
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
+      <c r="N611" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="1"/>
@@ -10049,6 +10700,7 @@
       <c r="K612" s="1"/>
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
+      <c r="N612" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="1"/>
@@ -10064,6 +10716,7 @@
       <c r="K613" s="1"/>
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
+      <c r="N613" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="1"/>
@@ -10079,6 +10732,7 @@
       <c r="K614" s="1"/>
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
+      <c r="N614" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="1"/>
@@ -10094,6 +10748,7 @@
       <c r="K615" s="1"/>
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
+      <c r="N615" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="1"/>
@@ -10109,6 +10764,7 @@
       <c r="K616" s="1"/>
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
+      <c r="N616" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="1"/>
@@ -10124,6 +10780,7 @@
       <c r="K617" s="1"/>
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
+      <c r="N617" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="1"/>
@@ -10139,6 +10796,7 @@
       <c r="K618" s="1"/>
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
+      <c r="N618" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="1"/>
@@ -10154,6 +10812,7 @@
       <c r="K619" s="1"/>
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
+      <c r="N619" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="1"/>
@@ -10169,6 +10828,7 @@
       <c r="K620" s="1"/>
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
+      <c r="N620" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="1"/>
@@ -10184,6 +10844,7 @@
       <c r="K621" s="1"/>
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
+      <c r="N621" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="1"/>
@@ -10199,6 +10860,7 @@
       <c r="K622" s="1"/>
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
+      <c r="N622" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="1"/>
@@ -10214,6 +10876,7 @@
       <c r="K623" s="1"/>
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
+      <c r="N623" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="1"/>
@@ -10229,6 +10892,7 @@
       <c r="K624" s="1"/>
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
+      <c r="N624" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="1"/>
@@ -10244,6 +10908,7 @@
       <c r="K625" s="1"/>
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
+      <c r="N625" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="1"/>
@@ -10259,6 +10924,7 @@
       <c r="K626" s="1"/>
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
+      <c r="N626" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="1"/>
@@ -10274,6 +10940,7 @@
       <c r="K627" s="1"/>
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
+      <c r="N627" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="1"/>
@@ -10289,6 +10956,7 @@
       <c r="K628" s="1"/>
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
+      <c r="N628" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="1"/>
@@ -10304,6 +10972,7 @@
       <c r="K629" s="1"/>
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
+      <c r="N629" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="1"/>
@@ -10319,6 +10988,7 @@
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
+      <c r="N630" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="1"/>
@@ -10334,6 +11004,7 @@
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
+      <c r="N631" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="1"/>
@@ -10349,6 +11020,7 @@
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
+      <c r="N632" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="1"/>
@@ -10364,6 +11036,7 @@
       <c r="K633" s="1"/>
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
+      <c r="N633" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="1"/>
@@ -10379,6 +11052,7 @@
       <c r="K634" s="1"/>
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
+      <c r="N634" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="1"/>
@@ -10394,6 +11068,7 @@
       <c r="K635" s="1"/>
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
+      <c r="N635" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="1"/>
@@ -10409,6 +11084,7 @@
       <c r="K636" s="1"/>
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
+      <c r="N636" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="1"/>
@@ -10424,6 +11100,7 @@
       <c r="K637" s="1"/>
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
+      <c r="N637" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="1"/>
@@ -10439,6 +11116,7 @@
       <c r="K638" s="1"/>
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
+      <c r="N638" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="1"/>
@@ -10454,6 +11132,7 @@
       <c r="K639" s="1"/>
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
+      <c r="N639" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="1"/>
@@ -10469,6 +11148,7 @@
       <c r="K640" s="1"/>
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
+      <c r="N640" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="1"/>
@@ -10484,6 +11164,7 @@
       <c r="K641" s="1"/>
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
+      <c r="N641" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="1"/>
@@ -10499,6 +11180,7 @@
       <c r="K642" s="1"/>
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
+      <c r="N642" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="1"/>
@@ -10514,6 +11196,7 @@
       <c r="K643" s="1"/>
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
+      <c r="N643" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="1"/>
@@ -10529,6 +11212,7 @@
       <c r="K644" s="1"/>
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
+      <c r="N644" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="1"/>
@@ -10544,6 +11228,7 @@
       <c r="K645" s="1"/>
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
+      <c r="N645" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="1"/>
@@ -10559,6 +11244,7 @@
       <c r="K646" s="1"/>
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
+      <c r="N646" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="1"/>
@@ -10574,6 +11260,7 @@
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
+      <c r="N647" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="1"/>
@@ -10589,6 +11276,7 @@
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
+      <c r="N648" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="1"/>
@@ -10604,6 +11292,7 @@
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
+      <c r="N649" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="1"/>
@@ -10619,6 +11308,7 @@
       <c r="K650" s="1"/>
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
+      <c r="N650" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="1"/>
@@ -10634,6 +11324,7 @@
       <c r="K651" s="1"/>
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
+      <c r="N651" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="1"/>
@@ -10649,6 +11340,7 @@
       <c r="K652" s="1"/>
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
+      <c r="N652" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="1"/>
@@ -10664,6 +11356,7 @@
       <c r="K653" s="1"/>
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
+      <c r="N653" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="1"/>
@@ -10679,6 +11372,7 @@
       <c r="K654" s="1"/>
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
+      <c r="N654" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="1"/>
@@ -10694,6 +11388,7 @@
       <c r="K655" s="1"/>
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
+      <c r="N655" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="1"/>
@@ -10709,6 +11404,7 @@
       <c r="K656" s="1"/>
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
+      <c r="N656" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="1"/>
@@ -10724,6 +11420,7 @@
       <c r="K657" s="1"/>
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
+      <c r="N657" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="1"/>
@@ -10739,6 +11436,7 @@
       <c r="K658" s="1"/>
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
+      <c r="N658" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="1"/>
@@ -10754,6 +11452,7 @@
       <c r="K659" s="1"/>
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
+      <c r="N659" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="1"/>
@@ -10769,6 +11468,7 @@
       <c r="K660" s="1"/>
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
+      <c r="N660" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="1"/>
@@ -10784,6 +11484,7 @@
       <c r="K661" s="1"/>
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
+      <c r="N661" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="1"/>
@@ -10799,6 +11500,7 @@
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
+      <c r="N662" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="1"/>
@@ -10814,6 +11516,7 @@
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
+      <c r="N663" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="1"/>
@@ -10829,6 +11532,7 @@
       <c r="K664" s="1"/>
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
+      <c r="N664" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="1"/>
@@ -10844,6 +11548,7 @@
       <c r="K665" s="1"/>
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
+      <c r="N665" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="1"/>
@@ -10859,6 +11564,7 @@
       <c r="K666" s="1"/>
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
+      <c r="N666" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="1"/>
@@ -10874,6 +11580,7 @@
       <c r="K667" s="1"/>
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
+      <c r="N667" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="1"/>
@@ -10889,6 +11596,7 @@
       <c r="K668" s="1"/>
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
+      <c r="N668" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="1"/>
@@ -10904,6 +11612,7 @@
       <c r="K669" s="1"/>
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
+      <c r="N669" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="1"/>
@@ -10919,6 +11628,7 @@
       <c r="K670" s="1"/>
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
+      <c r="N670" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="1"/>
@@ -10934,6 +11644,7 @@
       <c r="K671" s="1"/>
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
+      <c r="N671" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="1"/>
@@ -10949,6 +11660,7 @@
       <c r="K672" s="1"/>
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
+      <c r="N672" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="1"/>
@@ -10964,6 +11676,7 @@
       <c r="K673" s="1"/>
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
+      <c r="N673" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="1"/>
@@ -10979,6 +11692,7 @@
       <c r="K674" s="1"/>
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
+      <c r="N674" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="1"/>
@@ -10994,6 +11708,7 @@
       <c r="K675" s="1"/>
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
+      <c r="N675" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="1"/>
@@ -11009,6 +11724,7 @@
       <c r="K676" s="1"/>
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
+      <c r="N676" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="1"/>
@@ -11024,6 +11740,7 @@
       <c r="K677" s="1"/>
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
+      <c r="N677" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="1"/>
@@ -11039,6 +11756,7 @@
       <c r="K678" s="1"/>
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
+      <c r="N678" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="1"/>
@@ -11054,6 +11772,7 @@
       <c r="K679" s="1"/>
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
+      <c r="N679" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="1"/>
@@ -11069,6 +11788,7 @@
       <c r="K680" s="1"/>
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
+      <c r="N680" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="1"/>
@@ -11084,6 +11804,7 @@
       <c r="K681" s="1"/>
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
+      <c r="N681" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="1"/>
@@ -11099,6 +11820,7 @@
       <c r="K682" s="1"/>
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
+      <c r="N682" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="1"/>
@@ -11114,6 +11836,7 @@
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
+      <c r="N683" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="1"/>
@@ -11129,6 +11852,7 @@
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
+      <c r="N684" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="1"/>
@@ -11144,6 +11868,7 @@
       <c r="K685" s="1"/>
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
+      <c r="N685" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="1"/>
@@ -11159,6 +11884,7 @@
       <c r="K686" s="1"/>
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
+      <c r="N686" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="1"/>
@@ -11174,6 +11900,7 @@
       <c r="K687" s="1"/>
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
+      <c r="N687" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="1"/>
@@ -11189,6 +11916,7 @@
       <c r="K688" s="1"/>
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
+      <c r="N688" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="1"/>
@@ -11204,6 +11932,7 @@
       <c r="K689" s="1"/>
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
+      <c r="N689" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="1"/>
@@ -11219,6 +11948,7 @@
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
+      <c r="N690" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="1"/>
@@ -11234,6 +11964,7 @@
       <c r="K691" s="1"/>
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
+      <c r="N691" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="1"/>
@@ -11249,6 +11980,7 @@
       <c r="K692" s="1"/>
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
+      <c r="N692" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="1"/>
@@ -11264,6 +11996,7 @@
       <c r="K693" s="1"/>
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
+      <c r="N693" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="1"/>
@@ -11279,6 +12012,7 @@
       <c r="K694" s="1"/>
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
+      <c r="N694" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="1"/>
@@ -11294,6 +12028,7 @@
       <c r="K695" s="1"/>
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
+      <c r="N695" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="1"/>
@@ -11309,6 +12044,7 @@
       <c r="K696" s="1"/>
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
+      <c r="N696" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="1"/>
@@ -11324,6 +12060,7 @@
       <c r="K697" s="1"/>
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
+      <c r="N697" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="1"/>
@@ -11339,6 +12076,7 @@
       <c r="K698" s="1"/>
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
+      <c r="N698" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="1"/>
@@ -11354,6 +12092,7 @@
       <c r="K699" s="1"/>
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
+      <c r="N699" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="1"/>
@@ -11369,6 +12108,7 @@
       <c r="K700" s="1"/>
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
+      <c r="N700" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="1"/>
@@ -11384,6 +12124,7 @@
       <c r="K701" s="1"/>
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
+      <c r="N701" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="1"/>
@@ -11399,6 +12140,7 @@
       <c r="K702" s="1"/>
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
+      <c r="N702" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
       <c r="A703" s="1"/>
@@ -11414,6 +12156,7 @@
       <c r="K703" s="1"/>
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
+      <c r="N703" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="17.25">
       <c r="A704" s="1"/>
@@ -11429,6 +12172,7 @@
       <c r="K704" s="1"/>
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
+      <c r="N704" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="17.25">
       <c r="A705" s="1"/>
@@ -11444,6 +12188,7 @@
       <c r="K705" s="1"/>
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
+      <c r="N705" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="17.25">
       <c r="A706" s="1"/>
@@ -11459,6 +12204,7 @@
       <c r="K706" s="1"/>
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
+      <c r="N706" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="17.25">
       <c r="A707" s="1"/>
@@ -11474,6 +12220,7 @@
       <c r="K707" s="1"/>
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
+      <c r="N707" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="17.25">
       <c r="A708" s="1"/>
@@ -11489,6 +12236,7 @@
       <c r="K708" s="1"/>
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
+      <c r="N708" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="1"/>
@@ -11504,6 +12252,7 @@
       <c r="K709" s="1"/>
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
+      <c r="N709" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="1"/>
@@ -11519,6 +12268,7 @@
       <c r="K710" s="1"/>
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
+      <c r="N710" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="1"/>
@@ -11534,6 +12284,7 @@
       <c r="K711" s="1"/>
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
+      <c r="N711" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="17.25">
       <c r="A712" s="1"/>
@@ -11549,6 +12300,7 @@
       <c r="K712" s="1"/>
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
+      <c r="N712" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="17.25">
       <c r="A713" s="1"/>
@@ -11564,6 +12316,7 @@
       <c r="K713" s="1"/>
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
+      <c r="N713" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="17.25">
       <c r="A714" s="1"/>
@@ -11579,6 +12332,7 @@
       <c r="K714" s="1"/>
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
+      <c r="N714" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="17.25">
       <c r="A715" s="1"/>
@@ -11594,6 +12348,7 @@
       <c r="K715" s="1"/>
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
+      <c r="N715" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="17.25">
       <c r="A716" s="1"/>
@@ -11609,6 +12364,7 @@
       <c r="K716" s="1"/>
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
+      <c r="N716" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="17.25">
       <c r="A717" s="1"/>
@@ -11624,6 +12380,7 @@
       <c r="K717" s="1"/>
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
+      <c r="N717" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="17.25">
       <c r="A718" s="1"/>
@@ -11639,6 +12396,7 @@
       <c r="K718" s="1"/>
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
+      <c r="N718" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="17.25">
       <c r="A719" s="1"/>
@@ -11654,6 +12412,7 @@
       <c r="K719" s="1"/>
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
+      <c r="N719" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="17.25">
       <c r="A720" s="1"/>
@@ -11669,6 +12428,7 @@
       <c r="K720" s="1"/>
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
+      <c r="N720" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="17.25">
       <c r="A721" s="1"/>
@@ -11684,6 +12444,7 @@
       <c r="K721" s="1"/>
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
+      <c r="N721" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="17.25">
       <c r="A722" s="1"/>
@@ -11699,6 +12460,7 @@
       <c r="K722" s="1"/>
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
+      <c r="N722" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="17.25">
       <c r="A723" s="1"/>
@@ -11714,6 +12476,7 @@
       <c r="K723" s="1"/>
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
+      <c r="N723" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="17.25">
       <c r="A724" s="1"/>
@@ -11729,6 +12492,7 @@
       <c r="K724" s="1"/>
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
+      <c r="N724" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="17.25">
       <c r="A725" s="1"/>
@@ -11744,6 +12508,7 @@
       <c r="K725" s="1"/>
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
+      <c r="N725" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="17.25">
       <c r="A726" s="1"/>
@@ -11759,6 +12524,7 @@
       <c r="K726" s="1"/>
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
+      <c r="N726" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="17.25">
       <c r="A727" s="1"/>
@@ -11774,6 +12540,7 @@
       <c r="K727" s="1"/>
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
+      <c r="N727" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="17.25">
       <c r="A728" s="1"/>
@@ -11789,6 +12556,7 @@
       <c r="K728" s="1"/>
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
+      <c r="N728" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="17.25">
       <c r="A729" s="1"/>
@@ -11804,6 +12572,7 @@
       <c r="K729" s="1"/>
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
+      <c r="N729" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="17.25">
       <c r="A730" s="1"/>
@@ -11819,6 +12588,7 @@
       <c r="K730" s="1"/>
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
+      <c r="N730" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="17.25">
       <c r="A731" s="1"/>
@@ -11834,6 +12604,7 @@
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
+      <c r="N731" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="17.25">
       <c r="A732" s="1"/>
@@ -11849,6 +12620,7 @@
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
+      <c r="N732" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="17.25">
       <c r="A733" s="1"/>
@@ -11864,6 +12636,7 @@
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
+      <c r="N733" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="17.25">
       <c r="A734" s="1"/>
@@ -11879,6 +12652,7 @@
       <c r="K734" s="1"/>
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
+      <c r="N734" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="17.25">
       <c r="A735" s="1"/>
@@ -11894,6 +12668,7 @@
       <c r="K735" s="1"/>
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
+      <c r="N735" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="17.25">
       <c r="A736" s="1"/>
@@ -11909,6 +12684,7 @@
       <c r="K736" s="1"/>
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
+      <c r="N736" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="17.25">
       <c r="A737" s="1"/>
@@ -11924,6 +12700,7 @@
       <c r="K737" s="1"/>
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
+      <c r="N737" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="17.25">
       <c r="A738" s="1"/>
@@ -11939,6 +12716,7 @@
       <c r="K738" s="1"/>
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
+      <c r="N738" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="17.25">
       <c r="A739" s="1"/>
@@ -11954,6 +12732,7 @@
       <c r="K739" s="1"/>
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
+      <c r="N739" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="17.25">
       <c r="A740" s="1"/>
@@ -11969,6 +12748,7 @@
       <c r="K740" s="1"/>
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
+      <c r="N740" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="17.25">
       <c r="A741" s="1"/>
@@ -11984,6 +12764,7 @@
       <c r="K741" s="1"/>
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
+      <c r="N741" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="17.25">
       <c r="A742" s="1"/>
@@ -11999,6 +12780,7 @@
       <c r="K742" s="1"/>
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
+      <c r="N742" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="17.25">
       <c r="A743" s="1"/>
@@ -12014,6 +12796,7 @@
       <c r="K743" s="1"/>
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
+      <c r="N743" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="17.25">
       <c r="A744" s="1"/>
@@ -12029,6 +12812,7 @@
       <c r="K744" s="1"/>
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
+      <c r="N744" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="17.25">
       <c r="A745" s="1"/>
@@ -12044,6 +12828,7 @@
       <c r="K745" s="1"/>
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
+      <c r="N745" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="17.25">
       <c r="A746" s="1"/>
@@ -12059,6 +12844,7 @@
       <c r="K746" s="1"/>
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
+      <c r="N746" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="17.25">
       <c r="A747" s="1"/>
@@ -12074,6 +12860,7 @@
       <c r="K747" s="1"/>
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
+      <c r="N747" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="17.25">
       <c r="A748" s="1"/>
@@ -12089,6 +12876,7 @@
       <c r="K748" s="1"/>
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
+      <c r="N748" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="17.25">
       <c r="A749" s="1"/>
@@ -12104,6 +12892,7 @@
       <c r="K749" s="1"/>
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
+      <c r="N749" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="17.25">
       <c r="A750" s="1"/>
@@ -12119,6 +12908,7 @@
       <c r="K750" s="1"/>
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
+      <c r="N750" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="17.25">
       <c r="A751" s="1"/>
@@ -12134,6 +12924,7 @@
       <c r="K751" s="1"/>
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
+      <c r="N751" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="17.25">
       <c r="A752" s="1"/>
@@ -12149,6 +12940,7 @@
       <c r="K752" s="1"/>
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
+      <c r="N752" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="17.25">
       <c r="A753" s="1"/>
@@ -12164,6 +12956,7 @@
       <c r="K753" s="1"/>
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
+      <c r="N753" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="17.25">
       <c r="A754" s="1"/>
@@ -12179,6 +12972,7 @@
       <c r="K754" s="1"/>
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
+      <c r="N754" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="17.25">
       <c r="A755" s="1"/>
@@ -12194,6 +12988,7 @@
       <c r="K755" s="1"/>
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
+      <c r="N755" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="17.25">
       <c r="A756" s="1"/>
@@ -12209,6 +13004,7 @@
       <c r="K756" s="1"/>
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
+      <c r="N756" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="17.25">
       <c r="A757" s="1"/>
@@ -12224,6 +13020,7 @@
       <c r="K757" s="1"/>
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
+      <c r="N757" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="17.25">
       <c r="A758" s="1"/>
@@ -12239,6 +13036,7 @@
       <c r="K758" s="1"/>
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
+      <c r="N758" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="17.25">
       <c r="A759" s="1"/>
@@ -12254,6 +13052,7 @@
       <c r="K759" s="1"/>
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
+      <c r="N759" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="17.25">
       <c r="A760" s="1"/>
@@ -12269,6 +13068,7 @@
       <c r="K760" s="1"/>
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
+      <c r="N760" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="17.25">
       <c r="A761" s="1"/>
@@ -12284,6 +13084,7 @@
       <c r="K761" s="1"/>
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
+      <c r="N761" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="17.25">
       <c r="A762" s="1"/>
@@ -12299,6 +13100,7 @@
       <c r="K762" s="1"/>
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
+      <c r="N762" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="17.25">
       <c r="A763" s="1"/>
@@ -12314,6 +13116,7 @@
       <c r="K763" s="1"/>
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
+      <c r="N763" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="17.25">
       <c r="A764" s="1"/>
@@ -12329,6 +13132,7 @@
       <c r="K764" s="1"/>
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
+      <c r="N764" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="17.25">
       <c r="A765" s="1"/>
@@ -12344,6 +13148,7 @@
       <c r="K765" s="1"/>
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
+      <c r="N765" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="17.25">
       <c r="A766" s="1"/>
@@ -12359,6 +13164,7 @@
       <c r="K766" s="1"/>
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
+      <c r="N766" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="17.25">
       <c r="A767" s="1"/>
@@ -12374,6 +13180,7 @@
       <c r="K767" s="1"/>
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
+      <c r="N767" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="17.25">
       <c r="A768" s="1"/>
@@ -12389,6 +13196,7 @@
       <c r="K768" s="1"/>
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
+      <c r="N768" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="17.25">
       <c r="A769" s="1"/>
@@ -12404,6 +13212,7 @@
       <c r="K769" s="1"/>
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
+      <c r="N769" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="17.25">
       <c r="A770" s="1"/>
@@ -12419,6 +13228,7 @@
       <c r="K770" s="1"/>
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
+      <c r="N770" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="17.25">
       <c r="A771" s="1"/>
@@ -12434,6 +13244,7 @@
       <c r="K771" s="1"/>
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
+      <c r="N771" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="17.25">
       <c r="A772" s="1"/>
@@ -12449,6 +13260,7 @@
       <c r="K772" s="1"/>
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
+      <c r="N772" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="17.25">
       <c r="A773" s="1"/>
@@ -12464,6 +13276,7 @@
       <c r="K773" s="1"/>
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
+      <c r="N773" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="17.25">
       <c r="A774" s="1"/>
@@ -12479,6 +13292,7 @@
       <c r="K774" s="1"/>
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
+      <c r="N774" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="17.25">
       <c r="A775" s="1"/>
@@ -12494,6 +13308,7 @@
       <c r="K775" s="1"/>
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
+      <c r="N775" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="17.25">
       <c r="A776" s="1"/>
@@ -12509,6 +13324,7 @@
       <c r="K776" s="1"/>
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
+      <c r="N776" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="17.25">
       <c r="A777" s="1"/>
@@ -12524,6 +13340,7 @@
       <c r="K777" s="1"/>
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
+      <c r="N777" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="17.25">
       <c r="A778" s="1"/>
@@ -12539,6 +13356,7 @@
       <c r="K778" s="1"/>
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
+      <c r="N778" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="17.25">
       <c r="A779" s="1"/>
@@ -12554,6 +13372,7 @@
       <c r="K779" s="1"/>
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
+      <c r="N779" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="17.25">
       <c r="A780" s="1"/>
@@ -12569,6 +13388,7 @@
       <c r="K780" s="1"/>
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
+      <c r="N780" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="17.25">
       <c r="A781" s="1"/>
@@ -12584,6 +13404,7 @@
       <c r="K781" s="1"/>
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
+      <c r="N781" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="17.25">
       <c r="A782" s="1"/>
@@ -12599,6 +13420,7 @@
       <c r="K782" s="1"/>
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
+      <c r="N782" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="17.25">
       <c r="A783" s="1"/>
@@ -12614,6 +13436,7 @@
       <c r="K783" s="1"/>
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
+      <c r="N783" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="17.25">
       <c r="A784" s="1"/>
@@ -12629,6 +13452,7 @@
       <c r="K784" s="1"/>
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
+      <c r="N784" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="17.25">
       <c r="A785" s="1"/>
@@ -12644,6 +13468,7 @@
       <c r="K785" s="1"/>
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
+      <c r="N785" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="17.25">
       <c r="A786" s="1"/>
@@ -12659,6 +13484,7 @@
       <c r="K786" s="1"/>
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
+      <c r="N786" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="17.25">
       <c r="A787" s="1"/>
@@ -12674,6 +13500,7 @@
       <c r="K787" s="1"/>
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
+      <c r="N787" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="17.25">
       <c r="A788" s="1"/>
@@ -12689,6 +13516,7 @@
       <c r="K788" s="1"/>
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
+      <c r="N788" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="17.25">
       <c r="A789" s="1"/>
@@ -12704,6 +13532,7 @@
       <c r="K789" s="1"/>
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
+      <c r="N789" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="17.25">
       <c r="A790" s="1"/>
@@ -12719,6 +13548,7 @@
       <c r="K790" s="1"/>
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
+      <c r="N790" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="17.25">
       <c r="A791" s="1"/>
@@ -12734,6 +13564,7 @@
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
+      <c r="N791" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="17.25">
       <c r="A792" s="1"/>
@@ -12749,6 +13580,7 @@
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
+      <c r="N792" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="17.25">
       <c r="A793" s="1"/>
@@ -12764,6 +13596,7 @@
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
+      <c r="N793" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="17.25">
       <c r="A794" s="1"/>
@@ -12779,6 +13612,7 @@
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
+      <c r="N794" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="17.25">
       <c r="A795" s="1"/>
@@ -12794,6 +13628,7 @@
       <c r="K795" s="1"/>
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
+      <c r="N795" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="17.25">
       <c r="A796" s="1"/>
@@ -12809,6 +13644,7 @@
       <c r="K796" s="1"/>
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
+      <c r="N796" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="17.25">
       <c r="A797" s="1"/>
@@ -12824,6 +13660,7 @@
       <c r="K797" s="1"/>
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
+      <c r="N797" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="17.25">
       <c r="A798" s="1"/>
@@ -12839,6 +13676,7 @@
       <c r="K798" s="1"/>
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
+      <c r="N798" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="17.25">
       <c r="A799" s="1"/>
@@ -12854,6 +13692,7 @@
       <c r="K799" s="1"/>
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
+      <c r="N799" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="17.25">
       <c r="A800" s="1"/>
@@ -12869,6 +13708,7 @@
       <c r="K800" s="1"/>
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
+      <c r="N800" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="17.25">
       <c r="A801" s="1"/>
@@ -12884,6 +13724,7 @@
       <c r="K801" s="1"/>
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
+      <c r="N801" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="17.25">
       <c r="A802" s="1"/>
@@ -12899,6 +13740,7 @@
       <c r="K802" s="1"/>
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
+      <c r="N802" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="17.25">
       <c r="A803" s="1"/>
@@ -12914,6 +13756,7 @@
       <c r="K803" s="1"/>
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
+      <c r="N803" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="17.25">
       <c r="A804" s="1"/>
@@ -12929,6 +13772,7 @@
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
+      <c r="N804" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="17.25">
       <c r="A805" s="1"/>
@@ -12944,6 +13788,7 @@
       <c r="K805" s="1"/>
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
+      <c r="N805" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="17.25">
       <c r="A806" s="1"/>
@@ -12959,6 +13804,7 @@
       <c r="K806" s="1"/>
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
+      <c r="N806" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="17.25">
       <c r="A807" s="1"/>
@@ -12974,6 +13820,7 @@
       <c r="K807" s="1"/>
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
+      <c r="N807" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="17.25">
       <c r="A808" s="1"/>
@@ -12989,6 +13836,7 @@
       <c r="K808" s="1"/>
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
+      <c r="N808" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="17.25">
       <c r="A809" s="1"/>
@@ -13004,6 +13852,7 @@
       <c r="K809" s="1"/>
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
+      <c r="N809" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="17.25">
       <c r="A810" s="1"/>
@@ -13019,6 +13868,7 @@
       <c r="K810" s="1"/>
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
+      <c r="N810" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="17.25">
       <c r="A811" s="1"/>
@@ -13034,6 +13884,7 @@
       <c r="K811" s="1"/>
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
+      <c r="N811" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="17.25">
       <c r="A812" s="1"/>
@@ -13049,6 +13900,7 @@
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
+      <c r="N812" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="17.25">
       <c r="A813" s="1"/>
@@ -13064,6 +13916,7 @@
       <c r="K813" s="1"/>
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
+      <c r="N813" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="17.25">
       <c r="A814" s="1"/>
@@ -13079,6 +13932,7 @@
       <c r="K814" s="1"/>
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
+      <c r="N814" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="17.25">
       <c r="A815" s="1"/>
@@ -13094,6 +13948,7 @@
       <c r="K815" s="1"/>
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
+      <c r="N815" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="17.25">
       <c r="A816" s="1"/>
@@ -13109,6 +13964,7 @@
       <c r="K816" s="1"/>
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
+      <c r="N816" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="17.25">
       <c r="A817" s="1"/>
@@ -13124,6 +13980,7 @@
       <c r="K817" s="1"/>
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
+      <c r="N817" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="17.25">
       <c r="A818" s="1"/>
@@ -13139,6 +13996,7 @@
       <c r="K818" s="1"/>
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
+      <c r="N818" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="17.25">
       <c r="A819" s="1"/>
@@ -13154,6 +14012,7 @@
       <c r="K819" s="1"/>
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
+      <c r="N819" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="17.25">
       <c r="A820" s="1"/>
@@ -13169,6 +14028,7 @@
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
+      <c r="N820" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="17.25">
       <c r="A821" s="1"/>
@@ -13184,6 +14044,7 @@
       <c r="K821" s="1"/>
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
+      <c r="N821" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="17.25">
       <c r="A822" s="1"/>
@@ -13199,6 +14060,7 @@
       <c r="K822" s="1"/>
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
+      <c r="N822" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="17.25">
       <c r="A823" s="1"/>
@@ -13214,6 +14076,7 @@
       <c r="K823" s="1"/>
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
+      <c r="N823" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="17.25">
       <c r="A824" s="1"/>
@@ -13229,6 +14092,7 @@
       <c r="K824" s="1"/>
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
+      <c r="N824" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="17.25">
       <c r="A825" s="1"/>
@@ -13244,6 +14108,7 @@
       <c r="K825" s="1"/>
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
+      <c r="N825" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="17.25">
       <c r="A826" s="1"/>
@@ -13259,6 +14124,7 @@
       <c r="K826" s="1"/>
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
+      <c r="N826" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="17.25">
       <c r="A827" s="1"/>
@@ -13274,6 +14140,7 @@
       <c r="K827" s="1"/>
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
+      <c r="N827" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="17.25">
       <c r="A828" s="1"/>
@@ -13289,6 +14156,7 @@
       <c r="K828" s="1"/>
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
+      <c r="N828" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="17.25">
       <c r="A829" s="1"/>
@@ -13304,6 +14172,7 @@
       <c r="K829" s="1"/>
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
+      <c r="N829" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="17.25">
       <c r="A830" s="1"/>
@@ -13319,6 +14188,7 @@
       <c r="K830" s="1"/>
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
+      <c r="N830" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="17.25">
       <c r="A831" s="1"/>
@@ -13334,6 +14204,7 @@
       <c r="K831" s="1"/>
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
+      <c r="N831" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="17.25">
       <c r="A832" s="1"/>
@@ -13349,6 +14220,7 @@
       <c r="K832" s="1"/>
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
+      <c r="N832" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="17.25">
       <c r="A833" s="1"/>
@@ -13364,6 +14236,7 @@
       <c r="K833" s="1"/>
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
+      <c r="N833" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="17.25">
       <c r="A834" s="1"/>
@@ -13379,6 +14252,7 @@
       <c r="K834" s="1"/>
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
+      <c r="N834" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="17.25">
       <c r="A835" s="1"/>
@@ -13394,6 +14268,7 @@
       <c r="K835" s="1"/>
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
+      <c r="N835" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="17.25">
       <c r="A836" s="1"/>
@@ -13409,6 +14284,7 @@
       <c r="K836" s="1"/>
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
+      <c r="N836" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="17.25">
       <c r="A837" s="1"/>
@@ -13424,6 +14300,7 @@
       <c r="K837" s="1"/>
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
+      <c r="N837" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="17.25">
       <c r="A838" s="1"/>
@@ -13439,6 +14316,7 @@
       <c r="K838" s="1"/>
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
+      <c r="N838" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="17.25">
       <c r="A839" s="1"/>
@@ -13454,6 +14332,7 @@
       <c r="K839" s="1"/>
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
+      <c r="N839" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="17.25">
       <c r="A840" s="1"/>
@@ -13469,6 +14348,7 @@
       <c r="K840" s="1"/>
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
+      <c r="N840" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="17.25">
       <c r="A841" s="1"/>
@@ -13484,6 +14364,7 @@
       <c r="K841" s="1"/>
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
+      <c r="N841" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="17.25">
       <c r="A842" s="1"/>
@@ -13499,6 +14380,7 @@
       <c r="K842" s="1"/>
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
+      <c r="N842" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="17.25">
       <c r="A843" s="1"/>
@@ -13514,6 +14396,7 @@
       <c r="K843" s="1"/>
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
+      <c r="N843" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="17.25">
       <c r="A844" s="1"/>
@@ -13529,6 +14412,7 @@
       <c r="K844" s="1"/>
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
+      <c r="N844" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="17.25">
       <c r="A845" s="1"/>
@@ -13544,6 +14428,7 @@
       <c r="K845" s="1"/>
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
+      <c r="N845" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="17.25">
       <c r="A846" s="1"/>
@@ -13559,6 +14444,7 @@
       <c r="K846" s="1"/>
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
+      <c r="N846" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="17.25">
       <c r="A847" s="1"/>
@@ -13574,6 +14460,7 @@
       <c r="K847" s="1"/>
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
+      <c r="N847" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="17.25">
       <c r="A848" s="1"/>
@@ -13589,6 +14476,7 @@
       <c r="K848" s="1"/>
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
+      <c r="N848" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="17.25">
       <c r="A849" s="1"/>
@@ -13604,6 +14492,7 @@
       <c r="K849" s="1"/>
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
+      <c r="N849" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="17.25">
       <c r="A850" s="1"/>
@@ -13619,6 +14508,7 @@
       <c r="K850" s="1"/>
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
+      <c r="N850" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="17.25">
       <c r="A851" s="1"/>
@@ -13634,6 +14524,7 @@
       <c r="K851" s="1"/>
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
+      <c r="N851" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="17.25">
       <c r="A852" s="1"/>
@@ -13649,6 +14540,7 @@
       <c r="K852" s="1"/>
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
+      <c r="N852" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="17.25">
       <c r="A853" s="1"/>
@@ -13664,6 +14556,7 @@
       <c r="K853" s="1"/>
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
+      <c r="N853" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="17.25">
       <c r="A854" s="1"/>
@@ -13679,6 +14572,7 @@
       <c r="K854" s="1"/>
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
+      <c r="N854" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="17.25">
       <c r="A855" s="1"/>
@@ -13694,6 +14588,7 @@
       <c r="K855" s="1"/>
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
+      <c r="N855" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="17.25">
       <c r="A856" s="1"/>
@@ -13709,6 +14604,7 @@
       <c r="K856" s="1"/>
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
+      <c r="N856" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="17.25">
       <c r="A857" s="1"/>
@@ -13724,6 +14620,7 @@
       <c r="K857" s="1"/>
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
+      <c r="N857" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="17.25">
       <c r="A858" s="1"/>
@@ -13739,6 +14636,7 @@
       <c r="K858" s="1"/>
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
+      <c r="N858" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="17.25">
       <c r="A859" s="1"/>
@@ -13754,6 +14652,7 @@
       <c r="K859" s="1"/>
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
+      <c r="N859" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="17.25">
       <c r="A860" s="1"/>
@@ -13769,6 +14668,7 @@
       <c r="K860" s="1"/>
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
+      <c r="N860" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="17.25">
       <c r="A861" s="1"/>
@@ -13784,6 +14684,7 @@
       <c r="K861" s="1"/>
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
+      <c r="N861" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="17.25">
       <c r="A862" s="1"/>
@@ -13799,6 +14700,7 @@
       <c r="K862" s="1"/>
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
+      <c r="N862" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="17.25">
       <c r="A863" s="1"/>
@@ -13814,6 +14716,7 @@
       <c r="K863" s="1"/>
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
+      <c r="N863" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="17.25">
       <c r="A864" s="1"/>
@@ -13829,6 +14732,7 @@
       <c r="K864" s="1"/>
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
+      <c r="N864" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="17.25">
       <c r="A865" s="1"/>
@@ -13844,6 +14748,7 @@
       <c r="K865" s="1"/>
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
+      <c r="N865" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="17.25">
       <c r="A866" s="1"/>
@@ -13859,6 +14764,7 @@
       <c r="K866" s="1"/>
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
+      <c r="N866" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="17.25">
       <c r="A867" s="1"/>
@@ -13874,6 +14780,7 @@
       <c r="K867" s="1"/>
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
+      <c r="N867" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="17.25">
       <c r="A868" s="1"/>
@@ -13889,6 +14796,7 @@
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
+      <c r="N868" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="17.25">
       <c r="A869" s="1"/>
@@ -13904,6 +14812,7 @@
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
+      <c r="N869" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="17.25">
       <c r="A870" s="1"/>
@@ -13919,6 +14828,7 @@
       <c r="K870" s="1"/>
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
+      <c r="N870" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="17.25">
       <c r="A871" s="1"/>
@@ -13934,6 +14844,7 @@
       <c r="K871" s="1"/>
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
+      <c r="N871" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="17.25">
       <c r="A872" s="1"/>
@@ -13949,6 +14860,7 @@
       <c r="K872" s="1"/>
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
+      <c r="N872" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="17.25">
       <c r="A873" s="1"/>
@@ -13964,6 +14876,7 @@
       <c r="K873" s="1"/>
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
+      <c r="N873" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="17.25">
       <c r="A874" s="1"/>
@@ -13979,6 +14892,7 @@
       <c r="K874" s="1"/>
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
+      <c r="N874" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="17.25">
       <c r="A875" s="1"/>
@@ -13994,6 +14908,7 @@
       <c r="K875" s="1"/>
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
+      <c r="N875" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="17.25">
       <c r="A876" s="1"/>
@@ -14009,6 +14924,7 @@
       <c r="K876" s="1"/>
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
+      <c r="N876" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="17.25">
       <c r="A877" s="1"/>
@@ -14024,6 +14940,7 @@
       <c r="K877" s="1"/>
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
+      <c r="N877" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="17.25">
       <c r="A878" s="1"/>
@@ -14039,6 +14956,7 @@
       <c r="K878" s="1"/>
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
+      <c r="N878" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="17.25">
       <c r="A879" s="1"/>
@@ -14054,6 +14972,7 @@
       <c r="K879" s="1"/>
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
+      <c r="N879" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="17.25">
       <c r="A880" s="1"/>
@@ -14069,6 +14988,7 @@
       <c r="K880" s="1"/>
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
+      <c r="N880" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="17.25">
       <c r="A881" s="1"/>
@@ -14084,6 +15004,7 @@
       <c r="K881" s="1"/>
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
+      <c r="N881" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="17.25">
       <c r="A882" s="1"/>
@@ -14099,6 +15020,7 @@
       <c r="K882" s="1"/>
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
+      <c r="N882" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="17.25">
       <c r="A883" s="1"/>
@@ -14114,6 +15036,7 @@
       <c r="K883" s="1"/>
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
+      <c r="N883" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="17.25">
       <c r="A884" s="1"/>
@@ -14129,6 +15052,7 @@
       <c r="K884" s="1"/>
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
+      <c r="N884" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="17.25">
       <c r="A885" s="1"/>
@@ -14144,6 +15068,7 @@
       <c r="K885" s="1"/>
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
+      <c r="N885" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="17.25">
       <c r="A886" s="1"/>
@@ -14159,6 +15084,7 @@
       <c r="K886" s="1"/>
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
+      <c r="N886" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="17.25">
       <c r="A887" s="1"/>
@@ -14174,6 +15100,7 @@
       <c r="K887" s="1"/>
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
+      <c r="N887" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="17.25">
       <c r="A888" s="1"/>
@@ -14189,6 +15116,7 @@
       <c r="K888" s="1"/>
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
+      <c r="N888" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="17.25">
       <c r="A889" s="1"/>
@@ -14204,6 +15132,7 @@
       <c r="K889" s="1"/>
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
+      <c r="N889" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="17.25">
       <c r="A890" s="1"/>
@@ -14219,6 +15148,7 @@
       <c r="K890" s="1"/>
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
+      <c r="N890" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="17.25">
       <c r="A891" s="1"/>
@@ -14234,6 +15164,7 @@
       <c r="K891" s="1"/>
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
+      <c r="N891" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="17.25">
       <c r="A892" s="1"/>
@@ -14249,6 +15180,7 @@
       <c r="K892" s="1"/>
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
+      <c r="N892" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="17.25">
       <c r="A893" s="1"/>
@@ -14264,6 +15196,7 @@
       <c r="K893" s="1"/>
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
+      <c r="N893" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="17.25">
       <c r="A894" s="1"/>
@@ -14279,6 +15212,7 @@
       <c r="K894" s="1"/>
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
+      <c r="N894" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="17.25">
       <c r="A895" s="1"/>
@@ -14294,6 +15228,7 @@
       <c r="K895" s="1"/>
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
+      <c r="N895" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="17.25">
       <c r="A896" s="1"/>
@@ -14309,6 +15244,7 @@
       <c r="K896" s="1"/>
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
+      <c r="N896" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="17.25">
       <c r="A897" s="1"/>
@@ -14324,6 +15260,7 @@
       <c r="K897" s="1"/>
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
+      <c r="N897" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="17.25">
       <c r="A898" s="1"/>
@@ -14339,6 +15276,7 @@
       <c r="K898" s="1"/>
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
+      <c r="N898" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="17.25">
       <c r="A899" s="1"/>
@@ -14354,6 +15292,7 @@
       <c r="K899" s="1"/>
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
+      <c r="N899" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="17.25">
       <c r="A900" s="1"/>
@@ -14369,6 +15308,7 @@
       <c r="K900" s="1"/>
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
+      <c r="N900" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="17.25">
       <c r="A901" s="1"/>
@@ -14384,6 +15324,7 @@
       <c r="K901" s="1"/>
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
+      <c r="N901" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="17.25">
       <c r="A902" s="1"/>
@@ -14399,6 +15340,7 @@
       <c r="K902" s="1"/>
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
+      <c r="N902" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="17.25">
       <c r="A903" s="1"/>
@@ -14414,6 +15356,7 @@
       <c r="K903" s="1"/>
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
+      <c r="N903" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="17.25">
       <c r="A904" s="1"/>
@@ -14429,6 +15372,7 @@
       <c r="K904" s="1"/>
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
+      <c r="N904" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="17.25">
       <c r="A905" s="1"/>
@@ -14444,6 +15388,7 @@
       <c r="K905" s="1"/>
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
+      <c r="N905" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="17.25">
       <c r="A906" s="1"/>
@@ -14459,6 +15404,7 @@
       <c r="K906" s="1"/>
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
+      <c r="N906" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="17.25">
       <c r="A907" s="1"/>
@@ -14474,6 +15420,7 @@
       <c r="K907" s="1"/>
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
+      <c r="N907" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="17.25">
       <c r="A908" s="1"/>
@@ -14489,6 +15436,7 @@
       <c r="K908" s="1"/>
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
+      <c r="N908" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="17.25">
       <c r="A909" s="1"/>
@@ -14504,6 +15452,7 @@
       <c r="K909" s="1"/>
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
+      <c r="N909" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="17.25">
       <c r="A910" s="1"/>
@@ -14519,6 +15468,7 @@
       <c r="K910" s="1"/>
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
+      <c r="N910" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="17.25">
       <c r="A911" s="1"/>
@@ -14534,6 +15484,7 @@
       <c r="K911" s="1"/>
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
+      <c r="N911" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="17.25">
       <c r="A912" s="1"/>
@@ -14549,6 +15500,7 @@
       <c r="K912" s="1"/>
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
+      <c r="N912" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="17.25">
       <c r="A913" s="1"/>
@@ -14564,6 +15516,7 @@
       <c r="K913" s="1"/>
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
+      <c r="N913" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="17.25">
       <c r="A914" s="1"/>
@@ -14579,6 +15532,7 @@
       <c r="K914" s="1"/>
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
+      <c r="N914" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="17.25">
       <c r="A915" s="1"/>
@@ -14594,6 +15548,7 @@
       <c r="K915" s="1"/>
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
+      <c r="N915" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="17.25">
       <c r="A916" s="1"/>
@@ -14609,6 +15564,7 @@
       <c r="K916" s="1"/>
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
+      <c r="N916" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="17.25">
       <c r="A917" s="1"/>
@@ -14624,6 +15580,7 @@
       <c r="K917" s="1"/>
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
+      <c r="N917" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="17.25">
       <c r="A918" s="1"/>
@@ -14639,6 +15596,7 @@
       <c r="K918" s="1"/>
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
+      <c r="N918" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="17.25">
       <c r="A919" s="1"/>
@@ -14654,6 +15612,7 @@
       <c r="K919" s="1"/>
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
+      <c r="N919" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="17.25">
       <c r="A920" s="1"/>
@@ -14669,6 +15628,7 @@
       <c r="K920" s="1"/>
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
+      <c r="N920" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="17.25">
       <c r="A921" s="1"/>
@@ -14684,6 +15644,7 @@
       <c r="K921" s="1"/>
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
+      <c r="N921" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="17.25">
       <c r="A922" s="1"/>
@@ -14699,6 +15660,7 @@
       <c r="K922" s="1"/>
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
+      <c r="N922" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="17.25">
       <c r="A923" s="1"/>
@@ -14714,6 +15676,7 @@
       <c r="K923" s="1"/>
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
+      <c r="N923" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="17.25">
       <c r="A924" s="1"/>
@@ -14729,6 +15692,7 @@
       <c r="K924" s="1"/>
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
+      <c r="N924" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="17.25">
       <c r="A925" s="1"/>
@@ -14744,6 +15708,7 @@
       <c r="K925" s="1"/>
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
+      <c r="N925" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="17.25">
       <c r="A926" s="1"/>
@@ -14759,6 +15724,7 @@
       <c r="K926" s="1"/>
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
+      <c r="N926" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="17.25">
       <c r="A927" s="1"/>
@@ -14774,6 +15740,7 @@
       <c r="K927" s="1"/>
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
+      <c r="N927" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="17.25">
       <c r="A928" s="1"/>
@@ -14789,6 +15756,7 @@
       <c r="K928" s="1"/>
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
+      <c r="N928" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="17.25">
       <c r="A929" s="1"/>
@@ -14804,6 +15772,7 @@
       <c r="K929" s="1"/>
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
+      <c r="N929" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="17.25">
       <c r="A930" s="1"/>
@@ -14819,6 +15788,7 @@
       <c r="K930" s="1"/>
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
+      <c r="N930" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="17.25">
       <c r="A931" s="1"/>
@@ -14834,6 +15804,7 @@
       <c r="K931" s="1"/>
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
+      <c r="N931" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="17.25">
       <c r="A932" s="1"/>
@@ -14849,6 +15820,7 @@
       <c r="K932" s="1"/>
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
+      <c r="N932" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="17.25">
       <c r="A933" s="1"/>
@@ -14864,6 +15836,7 @@
       <c r="K933" s="1"/>
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
+      <c r="N933" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="17.25">
       <c r="A934" s="1"/>
@@ -14879,6 +15852,7 @@
       <c r="K934" s="1"/>
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
+      <c r="N934" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="17.25">
       <c r="A935" s="1"/>
@@ -14894,6 +15868,7 @@
       <c r="K935" s="1"/>
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
+      <c r="N935" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="17.25">
       <c r="A936" s="1"/>
@@ -14909,6 +15884,7 @@
       <c r="K936" s="1"/>
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
+      <c r="N936" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="17.25">
       <c r="A937" s="1"/>
@@ -14924,6 +15900,7 @@
       <c r="K937" s="1"/>
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
+      <c r="N937" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="17.25">
       <c r="A938" s="1"/>
@@ -14939,6 +15916,7 @@
       <c r="K938" s="1"/>
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
+      <c r="N938" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="17.25">
       <c r="A939" s="1"/>
@@ -14954,6 +15932,7 @@
       <c r="K939" s="1"/>
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
+      <c r="N939" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="17.25">
       <c r="A940" s="1"/>
@@ -14969,6 +15948,7 @@
       <c r="K940" s="1"/>
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
+      <c r="N940" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="17.25">
       <c r="A941" s="1"/>
@@ -14984,6 +15964,7 @@
       <c r="K941" s="1"/>
       <c r="L941" s="1"/>
       <c r="M941" s="1"/>
+      <c r="N941" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="17.25">
       <c r="A942" s="1"/>
@@ -14999,6 +15980,7 @@
       <c r="K942" s="1"/>
       <c r="L942" s="1"/>
       <c r="M942" s="1"/>
+      <c r="N942" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="17.25">
       <c r="A943" s="1"/>
@@ -15014,6 +15996,7 @@
       <c r="K943" s="1"/>
       <c r="L943" s="1"/>
       <c r="M943" s="1"/>
+      <c r="N943" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="17.25">
       <c r="A944" s="1"/>
@@ -15029,6 +16012,7 @@
       <c r="K944" s="1"/>
       <c r="L944" s="1"/>
       <c r="M944" s="1"/>
+      <c r="N944" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="17.25">
       <c r="A945" s="1"/>
@@ -15044,6 +16028,7 @@
       <c r="K945" s="1"/>
       <c r="L945" s="1"/>
       <c r="M945" s="1"/>
+      <c r="N945" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="17.25">
       <c r="A946" s="1"/>
@@ -15059,6 +16044,7 @@
       <c r="K946" s="1"/>
       <c r="L946" s="1"/>
       <c r="M946" s="1"/>
+      <c r="N946" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="17.25">
       <c r="A947" s="1"/>
@@ -15074,6 +16060,7 @@
       <c r="K947" s="1"/>
       <c r="L947" s="1"/>
       <c r="M947" s="1"/>
+      <c r="N947" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="17.25">
       <c r="A948" s="1"/>
@@ -15089,6 +16076,7 @@
       <c r="K948" s="1"/>
       <c r="L948" s="1"/>
       <c r="M948" s="1"/>
+      <c r="N948" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="17.25">
       <c r="A949" s="1"/>
@@ -15104,6 +16092,7 @@
       <c r="K949" s="1"/>
       <c r="L949" s="1"/>
       <c r="M949" s="1"/>
+      <c r="N949" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="17.25">
       <c r="A950" s="1"/>
@@ -15119,6 +16108,7 @@
       <c r="K950" s="1"/>
       <c r="L950" s="1"/>
       <c r="M950" s="1"/>
+      <c r="N950" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="17.25">
       <c r="A951" s="1"/>
@@ -15134,6 +16124,7 @@
       <c r="K951" s="1"/>
       <c r="L951" s="1"/>
       <c r="M951" s="1"/>
+      <c r="N951" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="17.25">
       <c r="A952" s="1"/>
@@ -15149,6 +16140,7 @@
       <c r="K952" s="1"/>
       <c r="L952" s="1"/>
       <c r="M952" s="1"/>
+      <c r="N952" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="17.25">
       <c r="A953" s="1"/>
@@ -15164,6 +16156,7 @@
       <c r="K953" s="1"/>
       <c r="L953" s="1"/>
       <c r="M953" s="1"/>
+      <c r="N953" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="17.25">
       <c r="A954" s="1"/>
@@ -15179,6 +16172,7 @@
       <c r="K954" s="1"/>
       <c r="L954" s="1"/>
       <c r="M954" s="1"/>
+      <c r="N954" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="17.25">
       <c r="A955" s="1"/>
@@ -15194,6 +16188,7 @@
       <c r="K955" s="1"/>
       <c r="L955" s="1"/>
       <c r="M955" s="1"/>
+      <c r="N955" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="17.25">
       <c r="A956" s="1"/>
@@ -15209,6 +16204,7 @@
       <c r="K956" s="1"/>
       <c r="L956" s="1"/>
       <c r="M956" s="1"/>
+      <c r="N956" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="17.25">
       <c r="A957" s="1"/>
@@ -15224,6 +16220,7 @@
       <c r="K957" s="1"/>
       <c r="L957" s="1"/>
       <c r="M957" s="1"/>
+      <c r="N957" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="17.25">
       <c r="A958" s="1"/>
@@ -15239,6 +16236,7 @@
       <c r="K958" s="1"/>
       <c r="L958" s="1"/>
       <c r="M958" s="1"/>
+      <c r="N958" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="17.25">
       <c r="A959" s="1"/>
@@ -15254,6 +16252,7 @@
       <c r="K959" s="1"/>
       <c r="L959" s="1"/>
       <c r="M959" s="1"/>
+      <c r="N959" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="17.25">
       <c r="A960" s="1"/>
@@ -15269,6 +16268,7 @@
       <c r="K960" s="1"/>
       <c r="L960" s="1"/>
       <c r="M960" s="1"/>
+      <c r="N960" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="17.25">
       <c r="A961" s="1"/>
@@ -15284,6 +16284,7 @@
       <c r="K961" s="1"/>
       <c r="L961" s="1"/>
       <c r="M961" s="1"/>
+      <c r="N961" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="17.25">
       <c r="A962" s="1"/>
@@ -15299,6 +16300,7 @@
       <c r="K962" s="1"/>
       <c r="L962" s="1"/>
       <c r="M962" s="1"/>
+      <c r="N962" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="17.25">
       <c r="A963" s="1"/>
@@ -15314,6 +16316,7 @@
       <c r="K963" s="1"/>
       <c r="L963" s="1"/>
       <c r="M963" s="1"/>
+      <c r="N963" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="17.25">
       <c r="A964" s="1"/>
@@ -15329,6 +16332,7 @@
       <c r="K964" s="1"/>
       <c r="L964" s="1"/>
       <c r="M964" s="1"/>
+      <c r="N964" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="17.25">
       <c r="A965" s="1"/>
@@ -15344,6 +16348,7 @@
       <c r="K965" s="1"/>
       <c r="L965" s="1"/>
       <c r="M965" s="1"/>
+      <c r="N965" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="17.25">
       <c r="A966" s="1"/>
@@ -15359,6 +16364,7 @@
       <c r="K966" s="1"/>
       <c r="L966" s="1"/>
       <c r="M966" s="1"/>
+      <c r="N966" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="17.25">
       <c r="A967" s="1"/>
@@ -15374,6 +16380,7 @@
       <c r="K967" s="1"/>
       <c r="L967" s="1"/>
       <c r="M967" s="1"/>
+      <c r="N967" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="17.25">
       <c r="A968" s="1"/>
@@ -15389,6 +16396,7 @@
       <c r="K968" s="1"/>
       <c r="L968" s="1"/>
       <c r="M968" s="1"/>
+      <c r="N968" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="17.25">
       <c r="A969" s="1"/>
@@ -15404,6 +16412,7 @@
       <c r="K969" s="1"/>
       <c r="L969" s="1"/>
       <c r="M969" s="1"/>
+      <c r="N969" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="17.25">
       <c r="A970" s="1"/>
@@ -15419,6 +16428,7 @@
       <c r="K970" s="1"/>
       <c r="L970" s="1"/>
       <c r="M970" s="1"/>
+      <c r="N970" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="17.25">
       <c r="A971" s="1"/>
@@ -15434,6 +16444,7 @@
       <c r="K971" s="1"/>
       <c r="L971" s="1"/>
       <c r="M971" s="1"/>
+      <c r="N971" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="17.25">
       <c r="A972" s="1"/>
@@ -15449,6 +16460,7 @@
       <c r="K972" s="1"/>
       <c r="L972" s="1"/>
       <c r="M972" s="1"/>
+      <c r="N972" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="17.25">
       <c r="A973" s="1"/>
@@ -15464,6 +16476,7 @@
       <c r="K973" s="1"/>
       <c r="L973" s="1"/>
       <c r="M973" s="1"/>
+      <c r="N973" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="17.25">
       <c r="A974" s="1"/>
@@ -15479,6 +16492,7 @@
       <c r="K974" s="1"/>
       <c r="L974" s="1"/>
       <c r="M974" s="1"/>
+      <c r="N974" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25">
       <c r="A975" s="1"/>
@@ -15494,6 +16508,7 @@
       <c r="K975" s="1"/>
       <c r="L975" s="1"/>
       <c r="M975" s="1"/>
+      <c r="N975" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25">
       <c r="A976" s="1"/>
@@ -15509,6 +16524,7 @@
       <c r="K976" s="1"/>
       <c r="L976" s="1"/>
       <c r="M976" s="1"/>
+      <c r="N976" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25">
       <c r="A977" s="1"/>
@@ -15524,6 +16540,7 @@
       <c r="K977" s="1"/>
       <c r="L977" s="1"/>
       <c r="M977" s="1"/>
+      <c r="N977" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25">
       <c r="A978" s="1"/>
@@ -15539,6 +16556,7 @@
       <c r="K978" s="1"/>
       <c r="L978" s="1"/>
       <c r="M978" s="1"/>
+      <c r="N978" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="17.25">
       <c r="A979" s="1"/>
@@ -15554,6 +16572,7 @@
       <c r="K979" s="1"/>
       <c r="L979" s="1"/>
       <c r="M979" s="1"/>
+      <c r="N979" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="17.25">
       <c r="A980" s="1"/>
@@ -15569,6 +16588,7 @@
       <c r="K980" s="1"/>
       <c r="L980" s="1"/>
       <c r="M980" s="1"/>
+      <c r="N980" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="17.25">
       <c r="A981" s="1"/>
@@ -15584,6 +16604,7 @@
       <c r="K981" s="1"/>
       <c r="L981" s="1"/>
       <c r="M981" s="1"/>
+      <c r="N981" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="17.25">
       <c r="A982" s="1"/>
@@ -15599,6 +16620,7 @@
       <c r="K982" s="1"/>
       <c r="L982" s="1"/>
       <c r="M982" s="1"/>
+      <c r="N982" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="17.25">
       <c r="A983" s="1"/>
@@ -15614,6 +16636,7 @@
       <c r="K983" s="1"/>
       <c r="L983" s="1"/>
       <c r="M983" s="1"/>
+      <c r="N983" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="17.25">
       <c r="A984" s="1"/>
@@ -15629,6 +16652,7 @@
       <c r="K984" s="1"/>
       <c r="L984" s="1"/>
       <c r="M984" s="1"/>
+      <c r="N984" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="17.25">
       <c r="A985" s="1"/>
@@ -15644,6 +16668,7 @@
       <c r="K985" s="1"/>
       <c r="L985" s="1"/>
       <c r="M985" s="1"/>
+      <c r="N985" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="17.25">
       <c r="A986" s="1"/>
@@ -15659,6 +16684,7 @@
       <c r="K986" s="1"/>
       <c r="L986" s="1"/>
       <c r="M986" s="1"/>
+      <c r="N986" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="17.25">
       <c r="A987" s="1"/>
@@ -15674,6 +16700,7 @@
       <c r="K987" s="1"/>
       <c r="L987" s="1"/>
       <c r="M987" s="1"/>
+      <c r="N987" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="17.25">
       <c r="A988" s="1"/>
@@ -15689,6 +16716,7 @@
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
       <c r="M988" s="1"/>
+      <c r="N988" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="17.25">
       <c r="A989" s="1"/>
@@ -15704,6 +16732,7 @@
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
       <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="17.25">
       <c r="A990" s="1"/>
@@ -15719,6 +16748,7 @@
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
       <c r="M990" s="1"/>
+      <c r="N990" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="17.25">
       <c r="A991" s="1"/>
@@ -15734,6 +16764,7 @@
       <c r="K991" s="1"/>
       <c r="L991" s="1"/>
       <c r="M991" s="1"/>
+      <c r="N991" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="17.25">
       <c r="A992" s="1"/>
@@ -15749,6 +16780,7 @@
       <c r="K992" s="1"/>
       <c r="L992" s="1"/>
       <c r="M992" s="1"/>
+      <c r="N992" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="17.25">
       <c r="A993" s="1"/>
@@ -15764,6 +16796,7 @@
       <c r="K993" s="1"/>
       <c r="L993" s="1"/>
       <c r="M993" s="1"/>
+      <c r="N993" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="17.25">
       <c r="A994" s="1"/>
@@ -15779,6 +16812,7 @@
       <c r="K994" s="1"/>
       <c r="L994" s="1"/>
       <c r="M994" s="1"/>
+      <c r="N994" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="17.25">
       <c r="A995" s="1"/>
@@ -15794,6 +16828,7 @@
       <c r="K995" s="1"/>
       <c r="L995" s="1"/>
       <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="17.25">
       <c r="A996" s="1"/>
@@ -15809,6 +16844,7 @@
       <c r="K996" s="1"/>
       <c r="L996" s="1"/>
       <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="17.25">
       <c r="A997" s="1"/>
@@ -15824,6 +16860,7 @@
       <c r="K997" s="1"/>
       <c r="L997" s="1"/>
       <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25">
       <c r="A998" s="1"/>
@@ -15839,6 +16876,7 @@
       <c r="K998" s="1"/>
       <c r="L998" s="1"/>
       <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="17.25">
       <c r="A999" s="1"/>
@@ -15854,6 +16892,7 @@
       <c r="K999" s="1"/>
       <c r="L999" s="1"/>
       <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="17.25">
       <c r="A1000" s="1"/>
@@ -15869,6 +16908,7 @@
       <c r="K1000" s="1"/>
       <c r="L1000" s="1"/>
       <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="17.25">
       <c r="A1001" s="1"/>
@@ -15884,6 +16924,7 @@
       <c r="K1001" s="1"/>
       <c r="L1001" s="1"/>
       <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Src</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Happy Number </t>
+  </si>
+  <si>
+    <t>Google, Paypal</t>
   </si>
   <si>
     <t>Contains Duplicate</t>
@@ -969,10 +972,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -989,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
@@ -1017,16 +1020,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1037,7 +1040,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1045,16 +1048,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1065,7 +1068,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1073,13 +1076,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -1093,7 +1096,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -1101,13 +1104,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1129,7 +1132,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -1138,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1149,7 +1152,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1157,13 +1160,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
@@ -1174,22 +1177,22 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -1213,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -1169,7 +1169,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>Src</t>
   </si>
@@ -1084,8 +1084,8 @@
       <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="8">
-        <v>1</v>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1222,7 +1222,9 @@
         <v>18</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>Src</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Create Binary Tree</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Accenture, Adobe, Orcale, Shoppe</t>
   </si>
 </sst>
 </file>
@@ -834,8 +840,8 @@
       <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8">
-        <v>2</v>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -1236,10 +1242,18 @@
       <c r="N20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Src</t>
   </si>
@@ -896,8 +896,8 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8">
-        <v>2</v>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>Src</t>
   </si>
@@ -145,13 +145,13 @@
     <t>Not Sure</t>
   </si>
   <si>
-    <t>*Best Time to Buy and Sell Stock</t>
+    <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
   </si>
   <si>
-    <t xml:space="preserve">*Snapshot Array </t>
+    <t xml:space="preserve">Snapshot Array </t>
   </si>
   <si>
     <t>Medium</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Binary Search </t>
   </si>
   <si>
-    <t>*Reverse Linked List</t>
+    <t>Reverse Linked List (Iteratively)</t>
   </si>
   <si>
     <t>Intuit, Yandex</t>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Accenture, Adobe, Orcale, Shoppe</t>
+  </si>
+  <si>
+    <t>Reverse Linked List (Recursively)</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1177,8 @@
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="8">
-        <v>3</v>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1227,7 +1230,9 @@
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
@@ -1266,10 +1271,18 @@
       <c r="N21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
   <si>
     <t>Src</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Two Sum</t>
   </si>
   <si>
-    <t>Google</t>
+    <t>Google, Accenture, Adobe, Amazon, Amex, Apple, Bloomberg, Dell, Expedia, Goldman, IBM, Intel, Intuit, JP, MicroSoft, Morgan Stanley, Orcale, Paypal, Salesforce, Samsung, Spotify, Uber, Visa, Walmart, Yahoo, Zillow, Zoho, Zomato, Zoom</t>
   </si>
   <si>
     <t>3*</t>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">First Bad Version </t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
   <si>
     <t>Palindrome Number</t>
@@ -897,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -921,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -949,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
@@ -975,13 +978,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8">
         <v>3</v>
@@ -1001,13 +1004,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
@@ -1029,16 +1032,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1049,7 +1052,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1057,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1077,7 +1080,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1085,13 +1088,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>28</v>
@@ -1105,7 +1108,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -1113,13 +1116,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1141,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -1150,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1161,7 +1164,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1169,13 +1172,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>21</v>
@@ -1186,22 +1189,22 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -1225,7 +1228,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -1251,13 +1254,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1275,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -1237,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Src</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Palindrome Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Two Sorted List </t>
   </si>
   <si>
     <t xml:space="preserve">Happy Number </t>
@@ -635,7 +632,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N1001"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -657,7 +654,7 @@
     <col min="14" max="14" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -833,7 +830,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,7 +858,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -889,7 +886,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -919,7 +916,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -947,24 +944,24 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -973,21 +970,21 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="E11" s="8">
-        <v>3</v>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -997,23 +994,25 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="N11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1024,24 +1023,24 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1052,24 +1051,24 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1080,26 +1079,28 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
+      <c r="E15" s="8">
+        <v>2</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
@@ -1107,29 +1108,25 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="N15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
-      <c r="E16" s="8">
-        <v>2</v>
+      <c r="E16" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -1137,9 +1134,11 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="N16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,69 +1149,67 @@
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="6" t="s">
-        <v>43</v>
+      <c r="K17" s="6" t="s">
+        <v>51</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="L17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1223,18 +1220,18 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
@@ -1249,18 +1246,18 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1273,19 +1270,11 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1297,7 +1286,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
@@ -1313,7 +1302,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
@@ -1409,7 +1398,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
@@ -1425,7 +1414,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
@@ -1441,7 +1430,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
@@ -1457,7 +1446,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -1473,7 +1462,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
@@ -1489,7 +1478,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -1505,7 +1494,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -1553,7 +1542,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -16945,22 +16934,6 @@
       <c r="M1000" s="1"/>
       <c r="N1000" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="17.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="6"/>
-      <c r="D1001" s="6"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Src</t>
   </si>
@@ -169,6 +169,9 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
+    <t>4*</t>
+  </si>
+  <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
   </si>
   <si>
@@ -194,6 +197,15 @@
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has Cycle </t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +666,7 @@
     <col min="14" max="14" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -830,7 +842,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,7 +870,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -886,7 +898,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -916,7 +928,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -944,7 +956,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -970,7 +982,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1122,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1160,22 +1172,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1194,12 +1206,12 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1220,18 +1232,18 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
@@ -1246,12 +1258,12 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -1270,23 +1282,37 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="N22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
@@ -1302,7 +1328,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
@@ -1318,7 +1344,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
@@ -1334,7 +1360,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
@@ -1350,7 +1376,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
@@ -1366,7 +1392,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -1382,7 +1408,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Src</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">Has Cycle </t>
+  </si>
+  <si>
+    <t>Spotify(4), Visa(3)</t>
   </si>
   <si>
     <t>O(n)</t>
@@ -1292,7 +1295,9 @@
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
@@ -1302,10 +1307,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -100,9 +100,6 @@
     <t xml:space="preserve">Create LinkedList from scratch </t>
   </si>
   <si>
-    <t>2*</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Bad Version </t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>2*</t>
   </si>
   <si>
     <t xml:space="preserve">Happy Number </t>
@@ -169,7 +169,7 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
-    <t>4*</t>
+    <t>5*</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -906,13 +906,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -936,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -945,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -999,7 +999,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1083,7 +1083,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1139,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1249,7 +1249,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -1274,7 +1274,9 @@
       <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -999,7 +999,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1083,7 +1083,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Src</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Accenture, Adobe, Orcale, Shoppe</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
@@ -1248,8 +1251,8 @@
       <c r="D20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="8">
-        <v>3</v>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1266,7 +1269,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -1274,7 +1277,7 @@
       <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="3"/>
@@ -1292,16 +1295,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1309,10 +1312,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Src</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorial Recursive </t>
   </si>
 </sst>
 </file>
@@ -1323,11 +1326,21 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>Src</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
   </si>
   <si>
+    <t>4*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snapshot Array </t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
-    <t>5*</t>
+    <t>6*</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
@@ -194,9 +197,6 @@
   </si>
   <si>
     <t>Accenture, Adobe, Orcale, Shoppe</t>
-  </si>
-  <si>
-    <t>4*</t>
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
@@ -1089,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1108,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -1164,16 +1164,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1181,22 +1181,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1204,7 +1204,9 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1220,7 +1222,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1246,16 +1248,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1278,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
-      <c r="E21" s="8">
-        <v>1</v>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1306,8 +1308,8 @@
       <c r="D22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="8">
-        <v>2</v>
+      <c r="E22" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1338,7 +1340,7 @@
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>Src</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t xml:space="preserve">Factorial Recursive </t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree (Recursive)</t>
+  </si>
+  <si>
+    <t>Spotify(4)</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree (DFS)</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree (BFS)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="10" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="40.14785714285715" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="31.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="12" width="8.290714285714287" customWidth="1" bestFit="1"/>
@@ -1204,8 +1216,8 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
+      <c r="E18" s="8">
+        <v>2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1354,11 +1366,21 @@
       <c r="N23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1370,11 +1392,21 @@
       <c r="N24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1386,11 +1418,21 @@
       <c r="N25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Src</t>
   </si>
@@ -166,6 +166,15 @@
     <t xml:space="preserve">Binary Search </t>
   </si>
   <si>
+    <t xml:space="preserve">O(logN) - The element is to search is in the first index or last index
+In this case, the total number of comparisons required is logN comparisons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(1) - This is because we need two variable to keep track of the range of elements that are to be checked. No other data is needed.
+</t>
+  </si>
+  <si>
     <t>Reverse Linked List (Iteratively)</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>Maximum Depth of Binary Tree (BFS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Recursion </t>
   </si>
 </sst>
 </file>
@@ -1157,15 +1169,19 @@
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
         <v>42</v>
@@ -1176,16 +1192,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1193,22 +1209,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1217,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1234,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1243,7 +1259,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1260,13 +1276,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>45</v>
@@ -1286,13 +1302,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>31</v>
@@ -1312,13 +1328,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>21</v>
@@ -1329,10 +1345,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">
@@ -1344,7 +1360,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -1370,13 +1386,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -1396,13 +1412,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1422,13 +1438,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -1444,10 +1460,18 @@
       <c r="N26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -1155,7 +1155,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1259,7 +1259,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1337,7 +1337,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>Src</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Create LinkedList from scratch </t>
   </si>
   <si>
+    <t>4*</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Bad Version </t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
   </si>
   <si>
-    <t>4*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Snapshot Array </t>
   </si>
   <si>
@@ -181,7 +181,7 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
-    <t>6*</t>
+    <t>7*</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Accenture, Adobe, Orcale, Shoppe</t>
+  </si>
+  <si>
+    <t>5*</t>
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
@@ -917,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -936,16 +939,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -966,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -975,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -994,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
@@ -1020,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1048,16 +1051,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1068,7 +1071,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1076,16 +1079,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1096,7 +1099,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1104,16 +1107,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1124,7 +1127,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1155,7 +1158,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -1285,7 +1288,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1302,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -1311,7 +1314,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1328,16 +1331,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1345,10 +1348,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">
@@ -1360,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -1386,13 +1389,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -1412,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1438,13 +1441,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -1464,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -100,13 +100,16 @@
     <t xml:space="preserve">Create LinkedList from scratch </t>
   </si>
   <si>
-    <t>4*</t>
+    <t>5*</t>
   </si>
   <si>
     <t xml:space="preserve">First Bad Version </t>
   </si>
   <si>
     <t>Google</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
   <si>
     <t>Palindrome Number</t>
@@ -181,7 +184,7 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
-    <t>7*</t>
+    <t>8*</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
@@ -206,9 +209,6 @@
   </si>
   <si>
     <t>Accenture, Adobe, Orcale, Shoppe</t>
-  </si>
-  <si>
-    <t>5*</t>
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -978,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -997,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1051,16 +1051,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1071,7 +1071,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1079,16 +1079,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1099,7 +1099,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1107,16 +1107,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1127,7 +1127,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1135,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
@@ -1158,12 +1158,12 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -1180,14 +1180,14 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -1195,16 +1195,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1212,22 +1212,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1253,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1279,16 +1279,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1311,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>21</v>
@@ -1340,7 +1340,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1518,7 +1518,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>Src</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Binary Search Recursion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break a palindrome </t>
   </si>
 </sst>
 </file>
@@ -1487,17 +1490,29 @@
       <c r="N27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
   <si>
     <t>Src</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Google</t>
   </si>
   <si>
-    <t>4*</t>
-  </si>
-  <si>
     <t>Palindrome Number</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
   <si>
     <t xml:space="preserve">Snapshot Array </t>
@@ -951,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -981,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -1000,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
@@ -1026,13 +1026,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1054,16 +1054,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1074,7 +1074,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1082,16 +1082,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1102,7 +1102,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1110,16 +1110,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1130,7 +1130,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1147,7 +1147,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -1161,7 +1161,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="44.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -1401,14 +1401,16 @@
         <v>71</v>
       </c>
       <c r="E24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1460,7 +1462,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1502,7 +1506,7 @@
       <c r="D28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="8">
         <v>1</v>
       </c>
       <c r="F28" s="3"/>
@@ -1549,7 +1553,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
@@ -1565,7 +1569,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
@@ -1581,7 +1585,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -1597,7 +1601,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>Src</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">Break a palindrome </t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
   </si>
 </sst>
 </file>
@@ -1522,11 +1525,21 @@
       <c r="N28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <t>Src</t>
   </si>
@@ -100,13 +100,16 @@
     <t xml:space="preserve">Create LinkedList from scratch </t>
   </si>
   <si>
-    <t>5*</t>
+    <t>6*</t>
   </si>
   <si>
     <t xml:space="preserve">First Bad Version </t>
   </si>
   <si>
     <t>Google</t>
+  </si>
+  <si>
+    <t>5*</t>
   </si>
   <si>
     <t>Palindrome Number</t>
@@ -954,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -975,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -984,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8">
@@ -1003,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
@@ -1029,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1057,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1077,7 +1080,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1085,16 +1088,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1105,7 +1108,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1113,16 +1116,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1133,7 +1136,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1141,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
@@ -1169,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -1186,14 +1189,14 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -1201,16 +1204,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1218,22 +1221,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1259,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1285,16 +1288,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1311,13 +1314,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>21</v>
@@ -1337,16 +1340,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1354,10 +1357,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">
@@ -1369,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -1395,13 +1398,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
@@ -1412,7 +1415,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1423,13 +1426,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1449,13 +1452,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -1466,7 +1469,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1477,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>
@@ -1501,10 +1504,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
@@ -1518,7 +1521,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1529,10 +1532,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>18</v>
@@ -1630,7 +1633,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -1646,7 +1649,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -1662,7 +1665,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -1678,7 +1681,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
@@ -1694,7 +1697,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -1710,7 +1713,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -136,9 +136,6 @@
     <t>Affirm, Spotify</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>Amex, Wayfair, Yandex</t>
   </si>
   <si>
+    <t>1*</t>
+  </si>
+  <si>
     <t>Not Sure</t>
   </si>
   <si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Adobe, Alation, Amazon, Apple, Atlassian, Bloomberg, ByteDance, Capital One, Cisco, Docusign, Expedia, Goldman Sachs, JP Morgan, Netflix, Orcale, Paypal, ServiceNow, Uber, Visa, Walmart, Zoho, Zoom, eBay, tcs</t>
-  </si>
-  <si>
-    <t>4*</t>
   </si>
   <si>
     <t xml:space="preserve">Snapshot Array </t>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Reverse Linked List (Recursively)</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
   <si>
     <t xml:space="preserve">Has Cycle </t>
@@ -711,7 +711,7 @@
     <col min="14" max="14" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1080,7 +1080,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1088,16 +1088,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1125,7 +1125,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1144,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -1189,10 +1189,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
@@ -1204,16 +1204,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1221,22 +1221,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1262,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1288,16 +1288,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1314,16 +1314,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1349,7 +1349,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1507,7 +1507,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
@@ -1535,7 +1535,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>18</v>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Src</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Perimeter Triangle </t>
+  </si>
+  <si>
+    <t>Tesla</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1560,18 @@
       <c r="N29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>Src</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Intuit, Yandex</t>
   </si>
   <si>
-    <t>8*</t>
+    <t>9*</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) - Will grow linearly and in direct proportion to the size of the input data </t>
@@ -211,10 +211,10 @@
     <t>Accenture, Adobe, Orcale, Shoppe</t>
   </si>
   <si>
-    <t>Reverse Linked List (Recursively)</t>
+    <t>7*</t>
   </si>
   <si>
-    <t>4*</t>
+    <t>Reverse Linked List (Recursively)</t>
   </si>
   <si>
     <t xml:space="preserve">Has Cycle </t>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Tesla</t>
+  </si>
+  <si>
+    <t>Binary Tree In Order Traversal</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1256,8 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8">
-        <v>4</v>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1277,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1303,7 +1309,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1320,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -1329,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1355,7 +1361,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1412,8 +1418,8 @@
       <c r="D24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="8">
-        <v>2</v>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1546,7 +1552,7 @@
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="3"/>
@@ -1572,7 +1578,9 @@
       <c r="D30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1584,11 +1592,21 @@
       <c r="N30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1600,10 +1618,18 @@
       <c r="N31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>Src</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
     <col min="14" max="14" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -899,7 +905,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -927,7 +933,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1642,17 +1648,29 @@
       <c r="N32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Src</t>
   </si>
@@ -268,7 +268,7 @@
     <t>Delete Node in a Linked List</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Delete the Middle Node of a Linked List</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1341,7 +1341,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1425,7 +1425,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1479,7 +1479,7 @@
         <v>72</v>
       </c>
       <c r="E26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1658,7 +1658,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -1676,8 +1676,12 @@
       <c r="N33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>Src</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Amex, Wayfair, Yandex</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
     <t>Not Sure</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
     <t>Binary Tree In Order Traversal</t>
   </si>
   <si>
+    <t>1*</t>
+  </si>
+  <si>
     <t>Diameter of Binary Tree</t>
   </si>
   <si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Delete the Middle Node of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if sentence is a pangram </t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1126,7 +1129,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1134,13 +1137,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>31</v>
@@ -1154,7 +1157,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -1162,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
@@ -1190,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -1207,14 +1210,14 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -1222,16 +1225,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1239,22 +1242,22 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -1280,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -1306,16 +1309,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1332,13 +1335,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>28</v>
@@ -1358,16 +1361,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1375,10 +1378,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="6" t="s">
@@ -1390,7 +1393,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
@@ -1416,13 +1419,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>31</v>
@@ -1433,7 +1436,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1444,13 +1447,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1470,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
@@ -1487,7 +1490,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1498,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>17</v>
@@ -1522,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
@@ -1539,7 +1542,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1550,10 +1553,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>18</v>
@@ -1576,13 +1579,13 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
@@ -1602,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>17</v>
@@ -1611,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1655,7 +1658,7 @@
         <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>18</v>
@@ -1669,7 +1672,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1696,10 +1699,18 @@
       <c r="N34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>Src</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">Check if sentence is a pangram </t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1714,9 @@
       <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1723,17 +1728,29 @@
       <c r="N35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>Src</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Count and say</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1759,12 @@
       <c r="N36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="3"/>
@@ -1819,7 +1826,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
@@ -1835,7 +1842,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
@@ -1851,7 +1858,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -1867,7 +1874,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -1883,7 +1890,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -1899,7 +1906,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
@@ -1915,7 +1922,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
@@ -1931,7 +1938,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
@@ -1947,7 +1954,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>Src</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>Count and say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top K Frequent Words </t>
+  </si>
+  <si>
+    <t>Two Sigma(2), Uber(17), Yahoo(4)</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1773,9 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1779,11 +1787,21 @@
       <c r="N37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1970,7 +1988,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
@@ -1986,7 +2004,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
@@ -2002,7 +2020,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
@@ -2018,7 +2036,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>Src</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>Two Sigma(2), Uber(17), Yahoo(4)</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>Capital One(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Tree </t>
   </si>
 </sst>
 </file>
@@ -1813,11 +1822,21 @@
       <c r="N38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1829,10 +1848,18 @@
       <c r="N39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
   <si>
     <t>Src</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">Same Tree </t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1684,8 +1687,8 @@
       <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="8">
-        <v>1</v>
+      <c r="E33" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1847,7 +1850,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1872,8 +1875,12 @@
       <c r="N40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>Src</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Window SubString </t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Airbnb(6), Lyft(9)</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1859,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1895,11 +1904,21 @@
       <c r="N41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2086,7 +2105,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
@@ -2102,7 +2121,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
@@ -2118,7 +2137,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
@@ -2134,7 +2153,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -2150,7 +2169,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
@@ -2166,7 +2185,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
@@ -2182,7 +2201,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>Src</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>Airbnb(6), Lyft(9)</t>
+  </si>
+  <si>
+    <t>Subtree of another tree</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/discuss/265239/Python-Easy-to-Understand</t>
+  </si>
+  <si>
+    <t>Check if two string array are equivalent</t>
   </si>
 </sst>
 </file>
@@ -1930,13 +1942,27 @@
       <c r="N42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1946,9 +1972,15 @@
       <c r="N43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>

--- a/Leetcode Tracker.xlsx
+++ b/Leetcode Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
   <si>
     <t>Src</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Check if two string array are equivalent</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +1997,18 @@
       <c r="N44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
